--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Skills_Bonus" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2436,11 +2435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266762880"/>
-        <c:axId val="266772864"/>
+        <c:axId val="139123328"/>
+        <c:axId val="139202944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266762880"/>
+        <c:axId val="139123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266772864"/>
+        <c:crossAx val="139202944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266772864"/>
+        <c:axId val="139202944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266762880"/>
+        <c:crossAx val="139123328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3805,11 +3804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270562432"/>
-        <c:axId val="270563968"/>
+        <c:axId val="139588736"/>
+        <c:axId val="139590272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270562432"/>
+        <c:axId val="139588736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270563968"/>
+        <c:crossAx val="139590272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3827,7 +3826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270563968"/>
+        <c:axId val="139590272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,14 +3837,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270562432"/>
+        <c:crossAx val="139588736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6330,11 +6328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="294464896"/>
-        <c:axId val="294466688"/>
+        <c:axId val="139627904"/>
+        <c:axId val="139633792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="294464896"/>
+        <c:axId val="139627904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6343,7 +6341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294466688"/>
+        <c:crossAx val="139633792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6351,7 +6349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294466688"/>
+        <c:axId val="139633792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,13 +6360,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294464896"/>
+        <c:crossAx val="139627904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26386,8 +26385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29974,7 +29973,7 @@
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30101,11 +30100,11 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:O4" si="1">E3+5</f>
+        <f>E3+5</f>
         <v>5</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:O4" si="1">F3+5</f>
         <v>5</v>
       </c>
       <c r="G4">

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="19920" windowHeight="8220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Professions" sheetId="6" r:id="rId4"/>
     <sheet name="Attributes" sheetId="4" r:id="rId5"/>
     <sheet name="Skills_Bonus" sheetId="5" r:id="rId6"/>
+    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="163">
   <si>
     <t>Level</t>
   </si>
@@ -461,14 +462,63 @@
   <si>
     <t>I don't trust this yet.</t>
   </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t>edged_weapons</t>
+  </si>
+  <si>
+    <t>short_sword</t>
+  </si>
+  <si>
+    <t>claymore</t>
+  </si>
+  <si>
+    <t>rapier</t>
+  </si>
+  <si>
+    <t>hand_axe</t>
+  </si>
+  <si>
+    <t>battle_axe</t>
+  </si>
+  <si>
+    <t>broadsword</t>
+  </si>
+  <si>
+    <t>longsword</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1021,7 +1071,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1033,6 +1083,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2435,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139123328"/>
-        <c:axId val="139202944"/>
+        <c:axId val="48157056"/>
+        <c:axId val="48158592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139123328"/>
+        <c:axId val="48157056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139202944"/>
+        <c:crossAx val="48158592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2456,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139202944"/>
+        <c:axId val="48158592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139123328"/>
+        <c:crossAx val="48157056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3804,11 +3855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139588736"/>
-        <c:axId val="139590272"/>
+        <c:axId val="48949888"/>
+        <c:axId val="48951680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139588736"/>
+        <c:axId val="48949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139590272"/>
+        <c:crossAx val="48951680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3826,7 +3877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139590272"/>
+        <c:axId val="48951680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139588736"/>
+        <c:crossAx val="48949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6328,11 +6379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="139627904"/>
-        <c:axId val="139633792"/>
+        <c:axId val="49316992"/>
+        <c:axId val="49318528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="139627904"/>
+        <c:axId val="49316992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6341,7 +6392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139633792"/>
+        <c:crossAx val="49318528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6349,7 +6400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139633792"/>
+        <c:axId val="49318528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,14 +6411,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139627904"/>
+        <c:crossAx val="49316992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6780,18 +6830,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6851,7 +6901,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
@@ -6887,7 +6937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -6920,7 +6970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6956,7 +7006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -6992,7 +7042,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>5</v>
       </c>
@@ -7025,7 +7075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -7061,7 +7111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -7097,7 +7147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>8</v>
       </c>
@@ -7130,7 +7180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -7166,7 +7216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -7202,7 +7252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>11</v>
       </c>
@@ -7235,7 +7285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>12</v>
       </c>
@@ -7268,7 +7318,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>13</v>
       </c>
@@ -7301,7 +7351,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>14</v>
       </c>
@@ -7334,7 +7384,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>15</v>
       </c>
@@ -7367,7 +7417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>16</v>
       </c>
@@ -7400,7 +7450,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>17</v>
       </c>
@@ -7433,7 +7483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>18</v>
       </c>
@@ -7466,7 +7516,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>19</v>
       </c>
@@ -7499,7 +7549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>20</v>
       </c>
@@ -7532,7 +7582,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>21</v>
       </c>
@@ -7565,7 +7615,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>22</v>
       </c>
@@ -7598,7 +7648,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>23</v>
       </c>
@@ -7631,7 +7681,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>24</v>
       </c>
@@ -7664,7 +7714,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>25</v>
       </c>
@@ -7697,7 +7747,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>26</v>
       </c>
@@ -7730,7 +7780,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>27</v>
       </c>
@@ -7763,7 +7813,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>28</v>
       </c>
@@ -7796,7 +7846,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>29</v>
       </c>
@@ -7829,7 +7879,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>30</v>
       </c>
@@ -7862,7 +7912,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>31</v>
       </c>
@@ -7895,7 +7945,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>32</v>
       </c>
@@ -7928,7 +7978,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>33</v>
       </c>
@@ -7961,7 +8011,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>34</v>
       </c>
@@ -7994,7 +8044,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>35</v>
       </c>
@@ -8027,7 +8077,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>36</v>
       </c>
@@ -8060,7 +8110,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>37</v>
       </c>
@@ -8093,7 +8143,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>38</v>
       </c>
@@ -8126,7 +8176,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>39</v>
       </c>
@@ -8159,7 +8209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>40</v>
       </c>
@@ -8192,7 +8242,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>41</v>
       </c>
@@ -8225,7 +8275,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>42</v>
       </c>
@@ -8258,7 +8308,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>43</v>
       </c>
@@ -8291,7 +8341,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>44</v>
       </c>
@@ -8324,7 +8374,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>45</v>
       </c>
@@ -8357,7 +8407,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>46</v>
       </c>
@@ -8390,7 +8440,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>47</v>
       </c>
@@ -8423,7 +8473,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>48</v>
       </c>
@@ -8456,7 +8506,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>49</v>
       </c>
@@ -8489,7 +8539,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>50</v>
       </c>
@@ -8522,7 +8572,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>51</v>
       </c>
@@ -8555,7 +8605,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>52</v>
       </c>
@@ -8588,7 +8638,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>53</v>
       </c>
@@ -8621,7 +8671,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>54</v>
       </c>
@@ -8654,7 +8704,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>55</v>
       </c>
@@ -8687,7 +8737,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>56</v>
       </c>
@@ -8720,7 +8770,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>57</v>
       </c>
@@ -8753,7 +8803,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>58</v>
       </c>
@@ -8786,7 +8836,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>59</v>
       </c>
@@ -8819,7 +8869,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>60</v>
       </c>
@@ -8852,7 +8902,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>61</v>
       </c>
@@ -8885,7 +8935,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>62</v>
       </c>
@@ -8918,7 +8968,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>63</v>
       </c>
@@ -8951,7 +9001,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>64</v>
       </c>
@@ -8984,7 +9034,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>65</v>
       </c>
@@ -9017,7 +9067,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>66</v>
       </c>
@@ -9050,7 +9100,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>67</v>
       </c>
@@ -9083,7 +9133,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>68</v>
       </c>
@@ -9116,7 +9166,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>69</v>
       </c>
@@ -9149,7 +9199,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>70</v>
       </c>
@@ -9182,7 +9232,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>71</v>
       </c>
@@ -9215,7 +9265,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>72</v>
       </c>
@@ -9248,7 +9298,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>73</v>
       </c>
@@ -9281,7 +9331,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>74</v>
       </c>
@@ -9314,7 +9364,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>75</v>
       </c>
@@ -9347,7 +9397,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>76</v>
       </c>
@@ -9380,7 +9430,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>77</v>
       </c>
@@ -9413,7 +9463,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>78</v>
       </c>
@@ -9446,7 +9496,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>79</v>
       </c>
@@ -9479,7 +9529,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>80</v>
       </c>
@@ -9512,7 +9562,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>81</v>
       </c>
@@ -9545,7 +9595,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>82</v>
       </c>
@@ -9578,7 +9628,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>83</v>
       </c>
@@ -9611,7 +9661,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>84</v>
       </c>
@@ -9644,7 +9694,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>85</v>
       </c>
@@ -9677,7 +9727,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>86</v>
       </c>
@@ -9710,7 +9760,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>87</v>
       </c>
@@ -9743,7 +9793,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>88</v>
       </c>
@@ -9776,7 +9826,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>89</v>
       </c>
@@ -9809,7 +9859,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>90</v>
       </c>
@@ -9842,7 +9892,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>91</v>
       </c>
@@ -9875,7 +9925,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>92</v>
       </c>
@@ -9908,7 +9958,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>93</v>
       </c>
@@ -9941,7 +9991,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>94</v>
       </c>
@@ -9974,7 +10024,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>95</v>
       </c>
@@ -10007,7 +10057,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>96</v>
       </c>
@@ -10040,7 +10090,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>97</v>
       </c>
@@ -10073,7 +10123,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>98</v>
       </c>
@@ -10106,7 +10156,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>99</v>
       </c>
@@ -10139,7 +10189,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>100</v>
       </c>
@@ -10172,7 +10222,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L104" s="2"/>
     </row>
   </sheetData>
@@ -10193,32 +10243,32 @@
       <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -10343,7 +10393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -10444,7 +10494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>35</v>
       </c>
@@ -10495,7 +10545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -10651,7 +10701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -10804,7 +10854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>Experience!C4</f>
         <v>2</v>
@@ -10954,7 +11004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C5</f>
         <v>3</v>
@@ -11104,7 +11154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>Experience!C6</f>
         <v>4</v>
@@ -11254,7 +11304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>Experience!C7</f>
         <v>5</v>
@@ -11404,7 +11454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C8</f>
         <v>6</v>
@@ -11554,7 +11604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>Experience!C9</f>
         <v>7</v>
@@ -11704,7 +11754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>Experience!C10</f>
         <v>8</v>
@@ -11854,7 +11904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C11</f>
         <v>9</v>
@@ -12004,7 +12054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>Experience!C12</f>
         <v>10</v>
@@ -12154,7 +12204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>Experience!C13</f>
         <v>11</v>
@@ -12304,7 +12354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C14</f>
         <v>12</v>
@@ -12454,7 +12504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>Experience!C15</f>
         <v>13</v>
@@ -12604,7 +12654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>Experience!C16</f>
         <v>14</v>
@@ -12754,7 +12804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C17</f>
         <v>15</v>
@@ -12904,7 +12954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>Experience!C18</f>
         <v>16</v>
@@ -13054,7 +13104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>Experience!C19</f>
         <v>17</v>
@@ -13204,7 +13254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C20</f>
         <v>18</v>
@@ -13354,7 +13404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>Experience!C21</f>
         <v>19</v>
@@ -13504,7 +13554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>Experience!C22</f>
         <v>20</v>
@@ -13654,7 +13704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C23</f>
         <v>21</v>
@@ -13804,7 +13854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>Experience!C24</f>
         <v>22</v>
@@ -13954,7 +14004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>Experience!C25</f>
         <v>23</v>
@@ -14104,7 +14154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>Experience!C26</f>
         <v>24</v>
@@ -14254,7 +14304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>Experience!C27</f>
         <v>25</v>
@@ -14404,7 +14454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>Experience!C28</f>
         <v>26</v>
@@ -14554,7 +14604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>Experience!C29</f>
         <v>27</v>
@@ -14704,7 +14754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>Experience!C30</f>
         <v>28</v>
@@ -14854,7 +14904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C33">
         <f>Experience!C31</f>
         <v>29</v>
@@ -15004,7 +15054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C34">
         <f>Experience!C32</f>
         <v>30</v>
@@ -15154,7 +15204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C35">
         <f>Experience!C33</f>
         <v>31</v>
@@ -15304,7 +15354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>Experience!C34</f>
         <v>32</v>
@@ -15454,7 +15504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>Experience!C35</f>
         <v>33</v>
@@ -15604,7 +15654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>Experience!C36</f>
         <v>34</v>
@@ -15754,7 +15804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>Experience!C37</f>
         <v>35</v>
@@ -15904,7 +15954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>Experience!C38</f>
         <v>36</v>
@@ -16054,7 +16104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>Experience!C39</f>
         <v>37</v>
@@ -16204,7 +16254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>Experience!C40</f>
         <v>38</v>
@@ -16354,7 +16404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>Experience!C41</f>
         <v>39</v>
@@ -16504,7 +16554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>Experience!C42</f>
         <v>40</v>
@@ -16654,7 +16704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>Experience!C43</f>
         <v>41</v>
@@ -16804,7 +16854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>Experience!C44</f>
         <v>42</v>
@@ -16954,7 +17004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>Experience!C45</f>
         <v>43</v>
@@ -17104,7 +17154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>Experience!C46</f>
         <v>44</v>
@@ -17254,7 +17304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>Experience!C47</f>
         <v>45</v>
@@ -17404,7 +17454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>Experience!C48</f>
         <v>46</v>
@@ -17554,7 +17604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>Experience!C49</f>
         <v>47</v>
@@ -17704,7 +17754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>Experience!C50</f>
         <v>48</v>
@@ -17854,7 +17904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>Experience!C51</f>
         <v>49</v>
@@ -18004,7 +18054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>Experience!C52</f>
         <v>50</v>
@@ -18154,7 +18204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>Experience!C53</f>
         <v>51</v>
@@ -18304,7 +18354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>Experience!C54</f>
         <v>52</v>
@@ -18454,7 +18504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>Experience!C55</f>
         <v>53</v>
@@ -18604,7 +18654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>Experience!C56</f>
         <v>54</v>
@@ -18754,7 +18804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>Experience!C57</f>
         <v>55</v>
@@ -18904,7 +18954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>Experience!C58</f>
         <v>56</v>
@@ -19054,7 +19104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>Experience!C59</f>
         <v>57</v>
@@ -19204,7 +19254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>Experience!C60</f>
         <v>58</v>
@@ -19354,7 +19404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>Experience!C61</f>
         <v>59</v>
@@ -19504,7 +19554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>Experience!C62</f>
         <v>60</v>
@@ -19654,7 +19704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>Experience!C63</f>
         <v>61</v>
@@ -19804,7 +19854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>Experience!C64</f>
         <v>62</v>
@@ -19954,7 +20004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>Experience!C65</f>
         <v>63</v>
@@ -20104,7 +20154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>Experience!C66</f>
         <v>64</v>
@@ -20254,7 +20304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>Experience!C67</f>
         <v>65</v>
@@ -20404,7 +20454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>Experience!C68</f>
         <v>66</v>
@@ -20554,7 +20604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>Experience!C69</f>
         <v>67</v>
@@ -20704,7 +20754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>Experience!C70</f>
         <v>68</v>
@@ -20854,7 +20904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>Experience!C71</f>
         <v>69</v>
@@ -21004,7 +21054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>Experience!C72</f>
         <v>70</v>
@@ -21154,7 +21204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>Experience!C73</f>
         <v>71</v>
@@ -21304,7 +21354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>Experience!C74</f>
         <v>72</v>
@@ -21454,7 +21504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>Experience!C75</f>
         <v>73</v>
@@ -21604,7 +21654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>Experience!C76</f>
         <v>74</v>
@@ -21754,7 +21804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>Experience!C77</f>
         <v>75</v>
@@ -21904,7 +21954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>Experience!C78</f>
         <v>76</v>
@@ -22054,7 +22104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>Experience!C79</f>
         <v>77</v>
@@ -22204,7 +22254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>Experience!C80</f>
         <v>78</v>
@@ -22354,7 +22404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>Experience!C81</f>
         <v>79</v>
@@ -22504,7 +22554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>Experience!C82</f>
         <v>80</v>
@@ -22654,7 +22704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>Experience!C83</f>
         <v>81</v>
@@ -22804,7 +22854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>Experience!C84</f>
         <v>82</v>
@@ -22954,7 +23004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>Experience!C85</f>
         <v>83</v>
@@ -23104,7 +23154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>Experience!C86</f>
         <v>84</v>
@@ -23254,7 +23304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>Experience!C87</f>
         <v>85</v>
@@ -23404,7 +23454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>Experience!C88</f>
         <v>86</v>
@@ -23554,7 +23604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>Experience!C89</f>
         <v>87</v>
@@ -23704,7 +23754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>Experience!C90</f>
         <v>88</v>
@@ -23854,7 +23904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>Experience!C91</f>
         <v>89</v>
@@ -24004,7 +24054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>Experience!C92</f>
         <v>90</v>
@@ -24154,7 +24204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>Experience!C93</f>
         <v>91</v>
@@ -24304,7 +24354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>Experience!C94</f>
         <v>92</v>
@@ -24454,7 +24504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>Experience!C95</f>
         <v>93</v>
@@ -24604,7 +24654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>Experience!C96</f>
         <v>94</v>
@@ -24754,7 +24804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>Experience!C97</f>
         <v>95</v>
@@ -24904,7 +24954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>Experience!C98</f>
         <v>96</v>
@@ -25054,7 +25104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>Experience!C99</f>
         <v>97</v>
@@ -25204,7 +25254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>Experience!C100</f>
         <v>98</v>
@@ -25354,7 +25404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>Experience!C101</f>
         <v>99</v>
@@ -25504,7 +25554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>Experience!C102</f>
         <v>100</v>
@@ -25685,7 +25735,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25842,10 +25892,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -26385,26 +26435,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -26430,7 +26480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -26451,7 +26501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -26488,7 +26538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>Experience!C3</f>
         <v>1</v>
@@ -26525,7 +26575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -26562,7 +26612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -26599,7 +26649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C6</f>
         <v>4</v>
@@ -26633,7 +26683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -26670,7 +26720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -26707,7 +26757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C9</f>
         <v>7</v>
@@ -26741,7 +26791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -26778,7 +26828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -26815,7 +26865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C12</f>
         <v>10</v>
@@ -26849,7 +26899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -26886,7 +26936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -26923,7 +26973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C15</f>
         <v>13</v>
@@ -26957,7 +27007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -26994,7 +27044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -27031,7 +27081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C18</f>
         <v>16</v>
@@ -27065,7 +27115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -27102,7 +27152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -27139,7 +27189,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C21</f>
         <v>19</v>
@@ -27173,7 +27223,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -27210,7 +27260,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -27247,7 +27297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C24</f>
         <v>22</v>
@@ -27281,7 +27331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -27318,7 +27368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -27355,7 +27405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>Experience!C27</f>
         <v>25</v>
@@ -27389,7 +27439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C29">
         <f>Experience!C28</f>
         <v>26</v>
@@ -27423,7 +27473,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>Experience!C29</f>
         <v>27</v>
@@ -27457,7 +27507,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>Experience!C30</f>
         <v>28</v>
@@ -27491,7 +27541,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>Experience!C31</f>
         <v>29</v>
@@ -27525,7 +27575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -27562,7 +27612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -27599,7 +27649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -27636,7 +27686,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -27673,7 +27723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C37">
         <f>Experience!C36</f>
         <v>34</v>
@@ -27707,7 +27757,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38">
         <f>Experience!C37</f>
         <v>35</v>
@@ -27741,7 +27791,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39">
         <f>Experience!C38</f>
         <v>36</v>
@@ -27775,7 +27825,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40">
         <f>Experience!C39</f>
         <v>37</v>
@@ -27809,7 +27859,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41">
         <f>Experience!C40</f>
         <v>38</v>
@@ -27843,7 +27893,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>Experience!C41</f>
         <v>39</v>
@@ -27877,7 +27927,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>Experience!C42</f>
         <v>40</v>
@@ -27911,7 +27961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>Experience!C43</f>
         <v>41</v>
@@ -27945,7 +27995,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>Experience!C44</f>
         <v>42</v>
@@ -27979,7 +28029,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>Experience!C45</f>
         <v>43</v>
@@ -28013,7 +28063,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>Experience!C46</f>
         <v>44</v>
@@ -28047,7 +28097,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>Experience!C47</f>
         <v>45</v>
@@ -28081,7 +28131,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>Experience!C48</f>
         <v>46</v>
@@ -28115,7 +28165,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>Experience!C49</f>
         <v>47</v>
@@ -28149,7 +28199,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>Experience!C50</f>
         <v>48</v>
@@ -28183,7 +28233,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>Experience!C51</f>
         <v>49</v>
@@ -28217,7 +28267,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>Experience!C52</f>
         <v>50</v>
@@ -28251,7 +28301,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>Experience!C53</f>
         <v>51</v>
@@ -28285,7 +28335,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>Experience!C54</f>
         <v>52</v>
@@ -28319,7 +28369,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>Experience!C55</f>
         <v>53</v>
@@ -28353,7 +28403,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>Experience!C56</f>
         <v>54</v>
@@ -28387,7 +28437,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>Experience!C57</f>
         <v>55</v>
@@ -28421,7 +28471,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>Experience!C58</f>
         <v>56</v>
@@ -28455,7 +28505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>Experience!C59</f>
         <v>57</v>
@@ -28489,7 +28539,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>Experience!C60</f>
         <v>58</v>
@@ -28523,7 +28573,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>Experience!C61</f>
         <v>59</v>
@@ -28557,7 +28607,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>Experience!C62</f>
         <v>60</v>
@@ -28591,7 +28641,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>Experience!C63</f>
         <v>61</v>
@@ -28625,7 +28675,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>Experience!C64</f>
         <v>62</v>
@@ -28659,7 +28709,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>Experience!C65</f>
         <v>63</v>
@@ -28693,7 +28743,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>Experience!C66</f>
         <v>64</v>
@@ -28727,7 +28777,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>Experience!C67</f>
         <v>65</v>
@@ -28761,7 +28811,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>Experience!C68</f>
         <v>66</v>
@@ -28795,7 +28845,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>Experience!C69</f>
         <v>67</v>
@@ -28829,7 +28879,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>Experience!C70</f>
         <v>68</v>
@@ -28863,7 +28913,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>Experience!C71</f>
         <v>69</v>
@@ -28897,7 +28947,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>Experience!C72</f>
         <v>70</v>
@@ -28931,7 +28981,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>Experience!C73</f>
         <v>71</v>
@@ -28965,7 +29015,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>Experience!C74</f>
         <v>72</v>
@@ -28999,7 +29049,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>Experience!C75</f>
         <v>73</v>
@@ -29033,7 +29083,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>Experience!C76</f>
         <v>74</v>
@@ -29067,7 +29117,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>Experience!C77</f>
         <v>75</v>
@@ -29101,7 +29151,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>Experience!C78</f>
         <v>76</v>
@@ -29135,7 +29185,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>Experience!C79</f>
         <v>77</v>
@@ -29169,7 +29219,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>Experience!C80</f>
         <v>78</v>
@@ -29203,7 +29253,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>Experience!C81</f>
         <v>79</v>
@@ -29237,7 +29287,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>Experience!C82</f>
         <v>80</v>
@@ -29271,7 +29321,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>Experience!C83</f>
         <v>81</v>
@@ -29305,7 +29355,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>Experience!C84</f>
         <v>82</v>
@@ -29339,7 +29389,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>Experience!C85</f>
         <v>83</v>
@@ -29373,7 +29423,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>Experience!C86</f>
         <v>84</v>
@@ -29407,7 +29457,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>Experience!C87</f>
         <v>85</v>
@@ -29441,7 +29491,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>Experience!C88</f>
         <v>86</v>
@@ -29475,7 +29525,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>Experience!C89</f>
         <v>87</v>
@@ -29509,7 +29559,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>Experience!C90</f>
         <v>88</v>
@@ -29543,7 +29593,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>Experience!C91</f>
         <v>89</v>
@@ -29577,7 +29627,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>Experience!C92</f>
         <v>90</v>
@@ -29611,7 +29661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>Experience!C93</f>
         <v>91</v>
@@ -29645,7 +29695,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>Experience!C94</f>
         <v>92</v>
@@ -29679,7 +29729,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>Experience!C95</f>
         <v>93</v>
@@ -29713,7 +29763,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>Experience!C96</f>
         <v>94</v>
@@ -29747,7 +29797,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>Experience!C97</f>
         <v>95</v>
@@ -29781,7 +29831,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>Experience!C98</f>
         <v>96</v>
@@ -29815,7 +29865,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>Experience!C99</f>
         <v>97</v>
@@ -29849,7 +29899,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>Experience!C100</f>
         <v>98</v>
@@ -29883,7 +29933,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>Experience!C101</f>
         <v>99</v>
@@ -29917,7 +29967,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>Experience!C102</f>
         <v>100</v>
@@ -29951,7 +30001,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" t="s">
         <v>145</v>
       </c>
@@ -29976,12 +30026,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -30016,7 +30066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -30051,7 +30101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>500</v>
       </c>
@@ -30091,7 +30141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -30104,7 +30154,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="E4:O4" si="1">F3+5</f>
+        <f t="shared" ref="F4:O4" si="1">F3+5</f>
         <v>5</v>
       </c>
       <c r="G4">
@@ -30135,7 +30185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -30182,7 +30232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1.2E-2</v>
       </c>
@@ -30229,7 +30279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -30273,7 +30323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -30317,7 +30367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -30361,7 +30411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -30406,7 +30456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -30450,7 +30500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -30494,7 +30544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -30538,7 +30588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -30582,7 +30632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -30626,7 +30676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -30670,7 +30720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -30714,7 +30764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -30758,7 +30808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -30802,7 +30852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -30846,7 +30896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -30890,7 +30940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -30934,7 +30984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -30978,7 +31028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
@@ -31022,7 +31072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
@@ -31066,7 +31116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>23</v>
       </c>
@@ -31110,7 +31160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24</v>
       </c>
@@ -31154,7 +31204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -31198,7 +31248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
@@ -31242,7 +31292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
@@ -31286,7 +31336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
@@ -31330,7 +31380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -31374,7 +31424,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -31418,7 +31468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>31</v>
       </c>
@@ -31462,7 +31512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>32</v>
       </c>
@@ -31506,7 +31556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>33</v>
       </c>
@@ -31550,7 +31600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>34</v>
       </c>
@@ -31594,7 +31644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>35</v>
       </c>
@@ -31638,7 +31688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>36</v>
       </c>
@@ -31682,7 +31732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>37</v>
       </c>
@@ -31726,7 +31776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>38</v>
       </c>
@@ -31770,7 +31820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -31814,7 +31864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -31858,7 +31908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -31902,7 +31952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -31946,7 +31996,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -31990,7 +32040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -32034,7 +32084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -32078,7 +32128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -32122,7 +32172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -32166,7 +32216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -32210,7 +32260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -32254,7 +32304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -32298,7 +32348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -32342,7 +32392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -32386,7 +32436,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -32430,7 +32480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -32474,7 +32524,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -32518,7 +32568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -32562,7 +32612,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -32606,7 +32656,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -32650,7 +32700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -32694,7 +32744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -32738,7 +32788,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -32782,7 +32832,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -32826,7 +32876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -32870,7 +32920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -32914,7 +32964,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -32958,7 +33008,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -33002,7 +33052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -33046,7 +33096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -33090,7 +33140,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -33134,7 +33184,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -33178,7 +33228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -33222,7 +33272,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -33266,7 +33316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -33310,7 +33360,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -33354,7 +33404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -33398,7 +33448,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
@@ -33442,7 +33492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
@@ -33486,7 +33536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>78</v>
       </c>
@@ -33530,7 +33580,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>79</v>
       </c>
@@ -33574,7 +33624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>80</v>
       </c>
@@ -33618,7 +33668,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>81</v>
       </c>
@@ -33662,7 +33712,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>82</v>
       </c>
@@ -33706,7 +33756,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>83</v>
       </c>
@@ -33750,7 +33800,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>84</v>
       </c>
@@ -33794,7 +33844,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>85</v>
       </c>
@@ -33838,7 +33888,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>86</v>
       </c>
@@ -33882,7 +33932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>87</v>
       </c>
@@ -33926,7 +33976,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>88</v>
       </c>
@@ -33970,7 +34020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>89</v>
       </c>
@@ -34014,7 +34064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>90</v>
       </c>
@@ -34058,7 +34108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>91</v>
       </c>
@@ -34102,7 +34152,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>92</v>
       </c>
@@ -34146,7 +34196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>93</v>
       </c>
@@ -34190,7 +34240,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>94</v>
       </c>
@@ -34234,7 +34284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>95</v>
       </c>
@@ -34278,7 +34328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>96</v>
       </c>
@@ -34322,7 +34372,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>97</v>
       </c>
@@ -34366,7 +34416,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>98</v>
       </c>
@@ -34410,7 +34460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>99</v>
       </c>
@@ -34454,7 +34504,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
       </c>
@@ -34498,7 +34548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>101</v>
       </c>
@@ -34542,7 +34592,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>102</v>
       </c>
@@ -34586,7 +34636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>103</v>
       </c>
@@ -34630,7 +34680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>104</v>
       </c>
@@ -34674,7 +34724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>105</v>
       </c>
@@ -34718,7 +34768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>106</v>
       </c>
@@ -34762,7 +34812,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>107</v>
       </c>
@@ -34806,7 +34856,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>108</v>
       </c>
@@ -34850,7 +34900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>109</v>
       </c>
@@ -34894,7 +34944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>110</v>
       </c>
@@ -34938,7 +34988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>111</v>
       </c>
@@ -34982,7 +35032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>112</v>
       </c>
@@ -35026,7 +35076,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>113</v>
       </c>
@@ -35070,7 +35120,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>114</v>
       </c>
@@ -35114,7 +35164,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>115</v>
       </c>
@@ -35158,7 +35208,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>116</v>
       </c>
@@ -35202,7 +35252,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>117</v>
       </c>
@@ -35246,7 +35296,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>118</v>
       </c>
@@ -35290,7 +35340,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>119</v>
       </c>
@@ -35334,7 +35384,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>120</v>
       </c>
@@ -35378,7 +35428,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>121</v>
       </c>
@@ -35422,7 +35472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>122</v>
       </c>
@@ -35466,7 +35516,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>123</v>
       </c>
@@ -35510,7 +35560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>124</v>
       </c>
@@ -35554,7 +35604,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>125</v>
       </c>
@@ -35598,7 +35648,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>126</v>
       </c>
@@ -35642,7 +35692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>127</v>
       </c>
@@ -35686,7 +35736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>128</v>
       </c>
@@ -35730,7 +35780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>129</v>
       </c>
@@ -35774,7 +35824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>130</v>
       </c>
@@ -35818,7 +35868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>131</v>
       </c>
@@ -35862,7 +35912,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>132</v>
       </c>
@@ -35906,7 +35956,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>133</v>
       </c>
@@ -35950,7 +36000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>134</v>
       </c>
@@ -35994,7 +36044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>135</v>
       </c>
@@ -36038,7 +36088,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>136</v>
       </c>
@@ -36082,7 +36132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>137</v>
       </c>
@@ -36126,7 +36176,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>138</v>
       </c>
@@ -36170,7 +36220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>139</v>
       </c>
@@ -36214,7 +36264,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>140</v>
       </c>
@@ -36258,7 +36308,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>141</v>
       </c>
@@ -36302,7 +36352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>142</v>
       </c>
@@ -36346,7 +36396,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>143</v>
       </c>
@@ -36390,7 +36440,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>144</v>
       </c>
@@ -36434,7 +36484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>145</v>
       </c>
@@ -36478,7 +36528,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>146</v>
       </c>
@@ -36522,7 +36572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>147</v>
       </c>
@@ -36566,7 +36616,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>148</v>
       </c>
@@ -36610,7 +36660,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>149</v>
       </c>
@@ -36654,7 +36704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>150</v>
       </c>
@@ -36698,7 +36748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>151</v>
       </c>
@@ -36742,7 +36792,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>152</v>
       </c>
@@ -36786,7 +36836,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>153</v>
       </c>
@@ -36830,7 +36880,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>154</v>
       </c>
@@ -36874,7 +36924,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>155</v>
       </c>
@@ -36918,7 +36968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>156</v>
       </c>
@@ -36962,7 +37012,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>157</v>
       </c>
@@ -37006,7 +37056,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>158</v>
       </c>
@@ -37050,7 +37100,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>159</v>
       </c>
@@ -37094,7 +37144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>160</v>
       </c>
@@ -37138,7 +37188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>161</v>
       </c>
@@ -37182,7 +37232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>162</v>
       </c>
@@ -37226,7 +37276,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>163</v>
       </c>
@@ -37270,7 +37320,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>164</v>
       </c>
@@ -37314,7 +37364,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>165</v>
       </c>
@@ -37358,7 +37408,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>166</v>
       </c>
@@ -37402,7 +37452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>167</v>
       </c>
@@ -37446,7 +37496,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>168</v>
       </c>
@@ -37490,7 +37540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>169</v>
       </c>
@@ -37534,7 +37584,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>170</v>
       </c>
@@ -37578,7 +37628,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>171</v>
       </c>
@@ -37622,7 +37672,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>172</v>
       </c>
@@ -37666,7 +37716,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>173</v>
       </c>
@@ -37710,7 +37760,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>174</v>
       </c>
@@ -37754,7 +37804,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>175</v>
       </c>
@@ -37798,7 +37848,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>176</v>
       </c>
@@ -37842,7 +37892,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>177</v>
       </c>
@@ -37886,7 +37936,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>178</v>
       </c>
@@ -37930,7 +37980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>179</v>
       </c>
@@ -37974,7 +38024,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>180</v>
       </c>
@@ -38018,7 +38068,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>181</v>
       </c>
@@ -38062,7 +38112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>182</v>
       </c>
@@ -38106,7 +38156,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>183</v>
       </c>
@@ -38150,7 +38200,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>184</v>
       </c>
@@ -38194,7 +38244,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>185</v>
       </c>
@@ -38238,7 +38288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>186</v>
       </c>
@@ -38282,7 +38332,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>187</v>
       </c>
@@ -38326,7 +38376,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>188</v>
       </c>
@@ -38370,7 +38420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>189</v>
       </c>
@@ -38414,7 +38464,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>190</v>
       </c>
@@ -38458,7 +38508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>191</v>
       </c>
@@ -38502,7 +38552,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>192</v>
       </c>
@@ -38546,7 +38596,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>193</v>
       </c>
@@ -38590,7 +38640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>194</v>
       </c>
@@ -38634,7 +38684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>195</v>
       </c>
@@ -38678,7 +38728,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>196</v>
       </c>
@@ -38722,7 +38772,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>197</v>
       </c>
@@ -38766,7 +38816,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>198</v>
       </c>
@@ -38810,7 +38860,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>199</v>
       </c>
@@ -38854,7 +38904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>200</v>
       </c>
@@ -38898,7 +38948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>201</v>
       </c>
@@ -38942,7 +38992,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>202</v>
       </c>
@@ -38986,7 +39036,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>203</v>
       </c>
@@ -39030,7 +39080,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>204</v>
       </c>
@@ -39074,7 +39124,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>205</v>
       </c>
@@ -39118,7 +39168,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>206</v>
       </c>
@@ -39162,7 +39212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>207</v>
       </c>
@@ -39206,7 +39256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>208</v>
       </c>
@@ -39250,7 +39300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>209</v>
       </c>
@@ -39294,7 +39344,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>210</v>
       </c>
@@ -39338,7 +39388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>211</v>
       </c>
@@ -39382,7 +39432,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>212</v>
       </c>
@@ -39426,7 +39476,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>213</v>
       </c>
@@ -39470,7 +39520,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>214</v>
       </c>
@@ -39514,7 +39564,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>215</v>
       </c>
@@ -39558,7 +39608,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>216</v>
       </c>
@@ -39602,7 +39652,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>217</v>
       </c>
@@ -39646,7 +39696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>218</v>
       </c>
@@ -39690,7 +39740,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>219</v>
       </c>
@@ -39734,7 +39784,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>220</v>
       </c>
@@ -39778,7 +39828,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>221</v>
       </c>
@@ -39822,7 +39872,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>222</v>
       </c>
@@ -39866,7 +39916,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>223</v>
       </c>
@@ -39910,7 +39960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>224</v>
       </c>
@@ -39954,7 +40004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>225</v>
       </c>
@@ -39998,7 +40048,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>226</v>
       </c>
@@ -40042,7 +40092,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>227</v>
       </c>
@@ -40086,7 +40136,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>228</v>
       </c>
@@ -40130,7 +40180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>229</v>
       </c>
@@ -40174,7 +40224,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>230</v>
       </c>
@@ -40218,7 +40268,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>231</v>
       </c>
@@ -40262,7 +40312,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>232</v>
       </c>
@@ -40306,7 +40356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>233</v>
       </c>
@@ -40350,7 +40400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>234</v>
       </c>
@@ -40394,7 +40444,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>235</v>
       </c>
@@ -40438,7 +40488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>236</v>
       </c>
@@ -40482,7 +40532,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>237</v>
       </c>
@@ -40526,7 +40576,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>238</v>
       </c>
@@ -40570,7 +40620,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>239</v>
       </c>
@@ -40614,7 +40664,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>240</v>
       </c>
@@ -40658,7 +40708,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>241</v>
       </c>
@@ -40702,7 +40752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>242</v>
       </c>
@@ -40746,7 +40796,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>243</v>
       </c>
@@ -40790,7 +40840,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>244</v>
       </c>
@@ -40834,7 +40884,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>245</v>
       </c>
@@ -40878,7 +40928,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>246</v>
       </c>
@@ -40922,7 +40972,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>247</v>
       </c>
@@ -40966,7 +41016,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>248</v>
       </c>
@@ -41010,7 +41060,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>249</v>
       </c>
@@ -41054,7 +41104,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>250</v>
       </c>
@@ -41098,7 +41148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>251</v>
       </c>
@@ -41142,7 +41192,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>252</v>
       </c>
@@ -41186,7 +41236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>253</v>
       </c>
@@ -41230,7 +41280,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>254</v>
       </c>
@@ -41274,7 +41324,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>255</v>
       </c>
@@ -41318,7 +41368,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>256</v>
       </c>
@@ -41362,7 +41412,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>257</v>
       </c>
@@ -41406,7 +41456,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>258</v>
       </c>
@@ -41450,7 +41500,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>259</v>
       </c>
@@ -41494,7 +41544,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>260</v>
       </c>
@@ -41538,7 +41588,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>261</v>
       </c>
@@ -41582,7 +41632,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>262</v>
       </c>
@@ -41626,7 +41676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>263</v>
       </c>
@@ -41670,7 +41720,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>264</v>
       </c>
@@ -41714,7 +41764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="268" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>265</v>
       </c>
@@ -41758,7 +41808,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>266</v>
       </c>
@@ -41802,7 +41852,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="270" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>267</v>
       </c>
@@ -41846,7 +41896,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="271" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>268</v>
       </c>
@@ -41890,7 +41940,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>269</v>
       </c>
@@ -41934,7 +41984,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="273" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>270</v>
       </c>
@@ -41978,7 +42028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="274" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>271</v>
       </c>
@@ -42022,7 +42072,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="275" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>272</v>
       </c>
@@ -42066,7 +42116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="276" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>273</v>
       </c>
@@ -42110,7 +42160,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="277" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>274</v>
       </c>
@@ -42154,7 +42204,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="278" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>275</v>
       </c>
@@ -42198,7 +42248,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="279" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>276</v>
       </c>
@@ -42242,7 +42292,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>277</v>
       </c>
@@ -42286,7 +42336,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="281" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>278</v>
       </c>
@@ -42330,7 +42380,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="282" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>279</v>
       </c>
@@ -42374,7 +42424,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>280</v>
       </c>
@@ -42418,7 +42468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>281</v>
       </c>
@@ -42462,7 +42512,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="285" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>282</v>
       </c>
@@ -42506,7 +42556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="286" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>283</v>
       </c>
@@ -42550,7 +42600,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>284</v>
       </c>
@@ -42594,7 +42644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>285</v>
       </c>
@@ -42638,7 +42688,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="289" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>286</v>
       </c>
@@ -42682,7 +42732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="290" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>287</v>
       </c>
@@ -42726,7 +42776,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="291" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>288</v>
       </c>
@@ -42770,7 +42820,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="292" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>289</v>
       </c>
@@ -42814,7 +42864,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="293" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>290</v>
       </c>
@@ -42858,7 +42908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="294" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>291</v>
       </c>
@@ -42902,7 +42952,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="295" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>292</v>
       </c>
@@ -42946,7 +42996,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>293</v>
       </c>
@@ -42990,7 +43040,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="297" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>294</v>
       </c>
@@ -43034,7 +43084,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>295</v>
       </c>
@@ -43078,7 +43128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="299" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>296</v>
       </c>
@@ -43122,7 +43172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="300" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>297</v>
       </c>
@@ -43166,7 +43216,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>298</v>
       </c>
@@ -43210,7 +43260,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="302" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>299</v>
       </c>
@@ -43254,7 +43304,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>300</v>
       </c>
@@ -43298,7 +43348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>301</v>
       </c>
@@ -43342,7 +43392,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>302</v>
       </c>
@@ -43386,7 +43436,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="306" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>303</v>
       </c>
@@ -43430,7 +43480,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="307" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>304</v>
       </c>
@@ -43474,7 +43524,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="308" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>305</v>
       </c>
@@ -43518,7 +43568,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="309" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>306</v>
       </c>
@@ -43562,7 +43612,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>307</v>
       </c>
@@ -43606,7 +43656,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>308</v>
       </c>
@@ -43650,7 +43700,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="312" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>309</v>
       </c>
@@ -43694,7 +43744,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="313" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>310</v>
       </c>
@@ -43738,7 +43788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>311</v>
       </c>
@@ -43782,7 +43832,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>312</v>
       </c>
@@ -43826,7 +43876,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>313</v>
       </c>
@@ -43870,7 +43920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>314</v>
       </c>
@@ -43914,7 +43964,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>315</v>
       </c>
@@ -43958,7 +44008,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="319" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>316</v>
       </c>
@@ -44002,7 +44052,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="320" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>317</v>
       </c>
@@ -44046,7 +44096,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="321" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>318</v>
       </c>
@@ -44090,7 +44140,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="322" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>319</v>
       </c>
@@ -44134,7 +44184,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="323" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>320</v>
       </c>
@@ -44178,7 +44228,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="324" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>321</v>
       </c>
@@ -44222,7 +44272,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="325" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>322</v>
       </c>
@@ -44266,7 +44316,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="326" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>323</v>
       </c>
@@ -44310,7 +44360,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>324</v>
       </c>
@@ -44354,7 +44404,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="328" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>325</v>
       </c>
@@ -44398,7 +44448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="329" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>326</v>
       </c>
@@ -44442,7 +44492,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="330" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>327</v>
       </c>
@@ -44486,7 +44536,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="331" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>328</v>
       </c>
@@ -44530,7 +44580,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="332" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>329</v>
       </c>
@@ -44574,7 +44624,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="333" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>330</v>
       </c>
@@ -44618,7 +44668,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="334" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>331</v>
       </c>
@@ -44662,7 +44712,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="335" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>332</v>
       </c>
@@ -44706,7 +44756,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="336" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>333</v>
       </c>
@@ -44750,7 +44800,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="337" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>334</v>
       </c>
@@ -44794,7 +44844,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>335</v>
       </c>
@@ -44838,7 +44888,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="339" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>336</v>
       </c>
@@ -44882,7 +44932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="340" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>337</v>
       </c>
@@ -44926,7 +44976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>338</v>
       </c>
@@ -44970,7 +45020,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="342" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>339</v>
       </c>
@@ -45014,7 +45064,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="343" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>340</v>
       </c>
@@ -45058,7 +45108,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="344" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>341</v>
       </c>
@@ -45102,7 +45152,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="345" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>342</v>
       </c>
@@ -45146,7 +45196,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="346" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>343</v>
       </c>
@@ -45190,7 +45240,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="347" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>344</v>
       </c>
@@ -45234,7 +45284,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="348" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>345</v>
       </c>
@@ -45278,7 +45328,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="349" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>346</v>
       </c>
@@ -45322,7 +45372,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="350" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>347</v>
       </c>
@@ -45366,7 +45416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="351" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>348</v>
       </c>
@@ -45410,7 +45460,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="352" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>349</v>
       </c>
@@ -45454,7 +45504,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="353" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>350</v>
       </c>
@@ -45498,7 +45548,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="354" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>351</v>
       </c>
@@ -45542,7 +45592,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="355" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>352</v>
       </c>
@@ -45586,7 +45636,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="356" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>353</v>
       </c>
@@ -45630,7 +45680,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="357" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>354</v>
       </c>
@@ -45674,7 +45724,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="358" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>355</v>
       </c>
@@ -45718,7 +45768,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="359" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>356</v>
       </c>
@@ -45762,7 +45812,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="360" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>357</v>
       </c>
@@ -45806,7 +45856,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="361" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>358</v>
       </c>
@@ -45850,7 +45900,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>359</v>
       </c>
@@ -45894,7 +45944,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="363" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>360</v>
       </c>
@@ -45938,7 +45988,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="364" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>361</v>
       </c>
@@ -45982,7 +46032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>362</v>
       </c>
@@ -46026,7 +46076,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="366" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>363</v>
       </c>
@@ -46070,7 +46120,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="367" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>364</v>
       </c>
@@ -46114,7 +46164,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="368" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>365</v>
       </c>
@@ -46158,7 +46208,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="369" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>366</v>
       </c>
@@ -46202,7 +46252,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="370" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>367</v>
       </c>
@@ -46246,7 +46296,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="371" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>368</v>
       </c>
@@ -46290,7 +46340,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="372" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>369</v>
       </c>
@@ -46334,7 +46384,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="373" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>370</v>
       </c>
@@ -46378,7 +46428,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="374" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>371</v>
       </c>
@@ -46422,7 +46472,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="375" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>372</v>
       </c>
@@ -46466,7 +46516,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="376" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>373</v>
       </c>
@@ -46510,7 +46560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="377" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>374</v>
       </c>
@@ -46554,7 +46604,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="378" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>375</v>
       </c>
@@ -46598,7 +46648,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="379" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>376</v>
       </c>
@@ -46642,7 +46692,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="380" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>377</v>
       </c>
@@ -46686,7 +46736,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="381" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>378</v>
       </c>
@@ -46730,7 +46780,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="382" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>379</v>
       </c>
@@ -46774,7 +46824,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="383" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>380</v>
       </c>
@@ -46818,7 +46868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>381</v>
       </c>
@@ -46862,7 +46912,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="385" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>382</v>
       </c>
@@ -46906,7 +46956,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="386" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>383</v>
       </c>
@@ -46950,7 +47000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="387" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>384</v>
       </c>
@@ -46994,7 +47044,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="388" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>385</v>
       </c>
@@ -47038,7 +47088,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="389" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>386</v>
       </c>
@@ -47082,7 +47132,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="390" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>387</v>
       </c>
@@ -47126,7 +47176,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="391" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>388</v>
       </c>
@@ -47170,7 +47220,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="392" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>389</v>
       </c>
@@ -47214,7 +47264,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="393" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>390</v>
       </c>
@@ -47258,7 +47308,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="394" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>391</v>
       </c>
@@ -47302,7 +47352,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="395" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>392</v>
       </c>
@@ -47346,7 +47396,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="396" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>393</v>
       </c>
@@ -47390,7 +47440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="397" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>394</v>
       </c>
@@ -47434,7 +47484,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="398" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>395</v>
       </c>
@@ -47478,7 +47528,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="399" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>396</v>
       </c>
@@ -47522,7 +47572,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="400" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>397</v>
       </c>
@@ -47566,7 +47616,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="401" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>398</v>
       </c>
@@ -47610,7 +47660,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="402" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>399</v>
       </c>
@@ -47654,7 +47704,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="403" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>400</v>
       </c>
@@ -47703,4 +47753,231 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.125</v>
+      </c>
+      <c r="G3" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.27</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="330" windowWidth="19920" windowHeight="8220" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1083,7 +1083,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2486,11 +2486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48157056"/>
-        <c:axId val="48158592"/>
+        <c:axId val="262278528"/>
+        <c:axId val="262296704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48157056"/>
+        <c:axId val="262278528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48158592"/>
+        <c:crossAx val="262296704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48158592"/>
+        <c:axId val="262296704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48157056"/>
+        <c:crossAx val="262278528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3855,11 +3855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48949888"/>
-        <c:axId val="48951680"/>
+        <c:axId val="262596480"/>
+        <c:axId val="262598016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48949888"/>
+        <c:axId val="262596480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48951680"/>
+        <c:crossAx val="262598016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3877,7 +3877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48951680"/>
+        <c:axId val="262598016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48949888"/>
+        <c:crossAx val="262596480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6379,11 +6379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49316992"/>
-        <c:axId val="49318528"/>
+        <c:axId val="262635904"/>
+        <c:axId val="262637440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49316992"/>
+        <c:axId val="262635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,7 +6392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49318528"/>
+        <c:crossAx val="262637440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6400,7 +6400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49318528"/>
+        <c:axId val="262637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,7 +6411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49316992"/>
+        <c:crossAx val="262635904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6830,18 +6830,18 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>5</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>8</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>11</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>12</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>13</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>14</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>15</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>16</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>17</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>18</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>19</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>20</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>21</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>22</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>23</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>24</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>25</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>26</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>27</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>28</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>29</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>30</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>31</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>32</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>33</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>34</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>35</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>36</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>37</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>38</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>39</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>40</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>41</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>42</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>43</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>44</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>45</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>46</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49">
         <v>47</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>48</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>49</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>50</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>51</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>52</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>53</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>54</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>55</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>56</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>57</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>58</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>59</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>60</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>61</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>62</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>63</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>64</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>65</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>66</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>67</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>68</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>69</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>70</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C73">
         <v>71</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>72</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>73</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>74</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>75</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>76</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>77</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>78</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>79</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>80</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>81</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>82</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>83</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>84</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>85</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>86</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89">
         <v>87</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>88</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>89</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>90</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>91</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>92</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>93</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>94</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>95</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>96</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>97</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>98</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>99</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>100</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L104" s="2"/>
     </row>
   </sheetData>
@@ -10243,32 +10243,32 @@
       <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>35</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>Experience!C4</f>
         <v>2</v>
@@ -11004,7 +11004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C5</f>
         <v>3</v>
@@ -11154,7 +11154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>Experience!C6</f>
         <v>4</v>
@@ -11304,7 +11304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>Experience!C7</f>
         <v>5</v>
@@ -11454,7 +11454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C8</f>
         <v>6</v>
@@ -11604,7 +11604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>Experience!C9</f>
         <v>7</v>
@@ -11754,7 +11754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>Experience!C10</f>
         <v>8</v>
@@ -11904,7 +11904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C11</f>
         <v>9</v>
@@ -12054,7 +12054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>Experience!C12</f>
         <v>10</v>
@@ -12204,7 +12204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>Experience!C13</f>
         <v>11</v>
@@ -12354,7 +12354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C14</f>
         <v>12</v>
@@ -12504,7 +12504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>Experience!C15</f>
         <v>13</v>
@@ -12654,7 +12654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>Experience!C16</f>
         <v>14</v>
@@ -12804,7 +12804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C17</f>
         <v>15</v>
@@ -12954,7 +12954,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>Experience!C18</f>
         <v>16</v>
@@ -13104,7 +13104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>Experience!C19</f>
         <v>17</v>
@@ -13254,7 +13254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C20</f>
         <v>18</v>
@@ -13404,7 +13404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>Experience!C21</f>
         <v>19</v>
@@ -13554,7 +13554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>Experience!C22</f>
         <v>20</v>
@@ -13704,7 +13704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C23</f>
         <v>21</v>
@@ -13854,7 +13854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>Experience!C24</f>
         <v>22</v>
@@ -14004,7 +14004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>Experience!C25</f>
         <v>23</v>
@@ -14154,7 +14154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>Experience!C26</f>
         <v>24</v>
@@ -14304,7 +14304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>Experience!C27</f>
         <v>25</v>
@@ -14454,7 +14454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:50" ht="15" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>Experience!C28</f>
         <v>26</v>
@@ -14604,7 +14604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:50" ht="15" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>Experience!C29</f>
         <v>27</v>
@@ -14754,7 +14754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>Experience!C30</f>
         <v>28</v>
@@ -14904,7 +14904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>Experience!C31</f>
         <v>29</v>
@@ -15054,7 +15054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>Experience!C32</f>
         <v>30</v>
@@ -15204,7 +15204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>Experience!C33</f>
         <v>31</v>
@@ -15354,7 +15354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C36">
         <f>Experience!C34</f>
         <v>32</v>
@@ -15504,7 +15504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>Experience!C35</f>
         <v>33</v>
@@ -15654,7 +15654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>Experience!C36</f>
         <v>34</v>
@@ -15804,7 +15804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>Experience!C37</f>
         <v>35</v>
@@ -15954,7 +15954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>Experience!C38</f>
         <v>36</v>
@@ -16104,7 +16104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>Experience!C39</f>
         <v>37</v>
@@ -16254,7 +16254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>Experience!C40</f>
         <v>38</v>
@@ -16404,7 +16404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>Experience!C41</f>
         <v>39</v>
@@ -16554,7 +16554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>Experience!C42</f>
         <v>40</v>
@@ -16704,7 +16704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>Experience!C43</f>
         <v>41</v>
@@ -16854,7 +16854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>Experience!C44</f>
         <v>42</v>
@@ -17004,7 +17004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>Experience!C45</f>
         <v>43</v>
@@ -17154,7 +17154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>Experience!C46</f>
         <v>44</v>
@@ -17304,7 +17304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>Experience!C47</f>
         <v>45</v>
@@ -17454,7 +17454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>Experience!C48</f>
         <v>46</v>
@@ -17604,7 +17604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>Experience!C49</f>
         <v>47</v>
@@ -17754,7 +17754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>Experience!C50</f>
         <v>48</v>
@@ -17904,7 +17904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>Experience!C51</f>
         <v>49</v>
@@ -18054,7 +18054,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>Experience!C52</f>
         <v>50</v>
@@ -18204,7 +18204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>Experience!C53</f>
         <v>51</v>
@@ -18354,7 +18354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C56">
         <f>Experience!C54</f>
         <v>52</v>
@@ -18504,7 +18504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>Experience!C55</f>
         <v>53</v>
@@ -18654,7 +18654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C58">
         <f>Experience!C56</f>
         <v>54</v>
@@ -18804,7 +18804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>Experience!C57</f>
         <v>55</v>
@@ -18954,7 +18954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C60">
         <f>Experience!C58</f>
         <v>56</v>
@@ -19104,7 +19104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>Experience!C59</f>
         <v>57</v>
@@ -19254,7 +19254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C62">
         <f>Experience!C60</f>
         <v>58</v>
@@ -19404,7 +19404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C63">
         <f>Experience!C61</f>
         <v>59</v>
@@ -19554,7 +19554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C64">
         <f>Experience!C62</f>
         <v>60</v>
@@ -19704,7 +19704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C65">
         <f>Experience!C63</f>
         <v>61</v>
@@ -19854,7 +19854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C66">
         <f>Experience!C64</f>
         <v>62</v>
@@ -20004,7 +20004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C67">
         <f>Experience!C65</f>
         <v>63</v>
@@ -20154,7 +20154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C68">
         <f>Experience!C66</f>
         <v>64</v>
@@ -20304,7 +20304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C69">
         <f>Experience!C67</f>
         <v>65</v>
@@ -20454,7 +20454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C70">
         <f>Experience!C68</f>
         <v>66</v>
@@ -20604,7 +20604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C71">
         <f>Experience!C69</f>
         <v>67</v>
@@ -20754,7 +20754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C72">
         <f>Experience!C70</f>
         <v>68</v>
@@ -20904,7 +20904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C73">
         <f>Experience!C71</f>
         <v>69</v>
@@ -21054,7 +21054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C74">
         <f>Experience!C72</f>
         <v>70</v>
@@ -21204,7 +21204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>Experience!C73</f>
         <v>71</v>
@@ -21354,7 +21354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C76">
         <f>Experience!C74</f>
         <v>72</v>
@@ -21504,7 +21504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>Experience!C75</f>
         <v>73</v>
@@ -21654,7 +21654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C78">
         <f>Experience!C76</f>
         <v>74</v>
@@ -21804,7 +21804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>Experience!C77</f>
         <v>75</v>
@@ -21954,7 +21954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C80">
         <f>Experience!C78</f>
         <v>76</v>
@@ -22104,7 +22104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C81">
         <f>Experience!C79</f>
         <v>77</v>
@@ -22254,7 +22254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>Experience!C80</f>
         <v>78</v>
@@ -22404,7 +22404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>Experience!C81</f>
         <v>79</v>
@@ -22554,7 +22554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>Experience!C82</f>
         <v>80</v>
@@ -22704,7 +22704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>Experience!C83</f>
         <v>81</v>
@@ -22854,7 +22854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>Experience!C84</f>
         <v>82</v>
@@ -23004,7 +23004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>Experience!C85</f>
         <v>83</v>
@@ -23154,7 +23154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>Experience!C86</f>
         <v>84</v>
@@ -23304,7 +23304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>Experience!C87</f>
         <v>85</v>
@@ -23454,7 +23454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>Experience!C88</f>
         <v>86</v>
@@ -23604,7 +23604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>Experience!C89</f>
         <v>87</v>
@@ -23754,7 +23754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>Experience!C90</f>
         <v>88</v>
@@ -23904,7 +23904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>Experience!C91</f>
         <v>89</v>
@@ -24054,7 +24054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>Experience!C92</f>
         <v>90</v>
@@ -24204,7 +24204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>Experience!C93</f>
         <v>91</v>
@@ -24354,7 +24354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C96">
         <f>Experience!C94</f>
         <v>92</v>
@@ -24504,7 +24504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C97">
         <f>Experience!C95</f>
         <v>93</v>
@@ -24654,7 +24654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C98">
         <f>Experience!C96</f>
         <v>94</v>
@@ -24804,7 +24804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>Experience!C97</f>
         <v>95</v>
@@ -24954,7 +24954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C100">
         <f>Experience!C98</f>
         <v>96</v>
@@ -25104,7 +25104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C101">
         <f>Experience!C99</f>
         <v>97</v>
@@ -25254,7 +25254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>Experience!C100</f>
         <v>98</v>
@@ -25404,7 +25404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>Experience!C101</f>
         <v>99</v>
@@ -25554,7 +25554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C104">
         <f>Experience!C102</f>
         <v>100</v>
@@ -25735,7 +25735,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25892,10 +25892,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -26435,26 +26435,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -26480,7 +26480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>Experience!C3</f>
         <v>1</v>
@@ -26575,7 +26575,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C6</f>
         <v>4</v>
@@ -26683,7 +26683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -26757,7 +26757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C9</f>
         <v>7</v>
@@ -26791,7 +26791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C12</f>
         <v>10</v>
@@ -26899,7 +26899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -26973,7 +26973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C15</f>
         <v>13</v>
@@ -27007,7 +27007,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -27081,7 +27081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C18</f>
         <v>16</v>
@@ -27115,7 +27115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C21</f>
         <v>19</v>
@@ -27223,7 +27223,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -27297,7 +27297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C24</f>
         <v>22</v>
@@ -27331,7 +27331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -27368,7 +27368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -27405,7 +27405,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>Experience!C27</f>
         <v>25</v>
@@ -27439,7 +27439,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>Experience!C28</f>
         <v>26</v>
@@ -27473,7 +27473,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>Experience!C29</f>
         <v>27</v>
@@ -27507,7 +27507,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>Experience!C30</f>
         <v>28</v>
@@ -27541,7 +27541,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>Experience!C31</f>
         <v>29</v>
@@ -27575,7 +27575,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -27612,7 +27612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -27723,7 +27723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>Experience!C36</f>
         <v>34</v>
@@ -27757,7 +27757,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>Experience!C37</f>
         <v>35</v>
@@ -27791,7 +27791,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>Experience!C38</f>
         <v>36</v>
@@ -27825,7 +27825,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>Experience!C39</f>
         <v>37</v>
@@ -27859,7 +27859,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>Experience!C40</f>
         <v>38</v>
@@ -27893,7 +27893,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>Experience!C41</f>
         <v>39</v>
@@ -27927,7 +27927,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>Experience!C42</f>
         <v>40</v>
@@ -27961,7 +27961,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>Experience!C43</f>
         <v>41</v>
@@ -27995,7 +27995,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>Experience!C44</f>
         <v>42</v>
@@ -28029,7 +28029,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>Experience!C45</f>
         <v>43</v>
@@ -28063,7 +28063,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C47">
         <f>Experience!C46</f>
         <v>44</v>
@@ -28097,7 +28097,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C48">
         <f>Experience!C47</f>
         <v>45</v>
@@ -28131,7 +28131,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C49">
         <f>Experience!C48</f>
         <v>46</v>
@@ -28165,7 +28165,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C50">
         <f>Experience!C49</f>
         <v>47</v>
@@ -28199,7 +28199,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C51">
         <f>Experience!C50</f>
         <v>48</v>
@@ -28233,7 +28233,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C52">
         <f>Experience!C51</f>
         <v>49</v>
@@ -28267,7 +28267,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C53">
         <f>Experience!C52</f>
         <v>50</v>
@@ -28301,7 +28301,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C54">
         <f>Experience!C53</f>
         <v>51</v>
@@ -28335,7 +28335,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>Experience!C54</f>
         <v>52</v>
@@ -28369,7 +28369,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C56">
         <f>Experience!C55</f>
         <v>53</v>
@@ -28403,7 +28403,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C57">
         <f>Experience!C56</f>
         <v>54</v>
@@ -28437,7 +28437,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C58">
         <f>Experience!C57</f>
         <v>55</v>
@@ -28471,7 +28471,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C59">
         <f>Experience!C58</f>
         <v>56</v>
@@ -28505,7 +28505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C60">
         <f>Experience!C59</f>
         <v>57</v>
@@ -28539,7 +28539,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C61">
         <f>Experience!C60</f>
         <v>58</v>
@@ -28573,7 +28573,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C62">
         <f>Experience!C61</f>
         <v>59</v>
@@ -28607,7 +28607,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C63">
         <f>Experience!C62</f>
         <v>60</v>
@@ -28641,7 +28641,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C64">
         <f>Experience!C63</f>
         <v>61</v>
@@ -28675,7 +28675,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C65">
         <f>Experience!C64</f>
         <v>62</v>
@@ -28709,7 +28709,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C66">
         <f>Experience!C65</f>
         <v>63</v>
@@ -28743,7 +28743,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C67">
         <f>Experience!C66</f>
         <v>64</v>
@@ -28777,7 +28777,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C68">
         <f>Experience!C67</f>
         <v>65</v>
@@ -28811,7 +28811,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C69">
         <f>Experience!C68</f>
         <v>66</v>
@@ -28845,7 +28845,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C70">
         <f>Experience!C69</f>
         <v>67</v>
@@ -28879,7 +28879,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C71">
         <f>Experience!C70</f>
         <v>68</v>
@@ -28913,7 +28913,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C72">
         <f>Experience!C71</f>
         <v>69</v>
@@ -28947,7 +28947,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C73">
         <f>Experience!C72</f>
         <v>70</v>
@@ -28981,7 +28981,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C74">
         <f>Experience!C73</f>
         <v>71</v>
@@ -29015,7 +29015,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C75">
         <f>Experience!C74</f>
         <v>72</v>
@@ -29049,7 +29049,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C76">
         <f>Experience!C75</f>
         <v>73</v>
@@ -29083,7 +29083,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C77">
         <f>Experience!C76</f>
         <v>74</v>
@@ -29117,7 +29117,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C78">
         <f>Experience!C77</f>
         <v>75</v>
@@ -29151,7 +29151,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C79">
         <f>Experience!C78</f>
         <v>76</v>
@@ -29185,7 +29185,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C80">
         <f>Experience!C79</f>
         <v>77</v>
@@ -29219,7 +29219,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C81">
         <f>Experience!C80</f>
         <v>78</v>
@@ -29253,7 +29253,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>Experience!C81</f>
         <v>79</v>
@@ -29287,7 +29287,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C83">
         <f>Experience!C82</f>
         <v>80</v>
@@ -29321,7 +29321,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C84">
         <f>Experience!C83</f>
         <v>81</v>
@@ -29355,7 +29355,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C85">
         <f>Experience!C84</f>
         <v>82</v>
@@ -29389,7 +29389,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C86">
         <f>Experience!C85</f>
         <v>83</v>
@@ -29423,7 +29423,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C87">
         <f>Experience!C86</f>
         <v>84</v>
@@ -29457,7 +29457,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C88">
         <f>Experience!C87</f>
         <v>85</v>
@@ -29491,7 +29491,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>Experience!C88</f>
         <v>86</v>
@@ -29525,7 +29525,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C90">
         <f>Experience!C89</f>
         <v>87</v>
@@ -29559,7 +29559,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C91">
         <f>Experience!C90</f>
         <v>88</v>
@@ -29593,7 +29593,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C92">
         <f>Experience!C91</f>
         <v>89</v>
@@ -29627,7 +29627,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C93">
         <f>Experience!C92</f>
         <v>90</v>
@@ -29661,7 +29661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C94">
         <f>Experience!C93</f>
         <v>91</v>
@@ -29695,7 +29695,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C95">
         <f>Experience!C94</f>
         <v>92</v>
@@ -29729,7 +29729,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C96">
         <f>Experience!C95</f>
         <v>93</v>
@@ -29763,7 +29763,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97">
         <f>Experience!C96</f>
         <v>94</v>
@@ -29797,7 +29797,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C98">
         <f>Experience!C97</f>
         <v>95</v>
@@ -29831,7 +29831,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C99">
         <f>Experience!C98</f>
         <v>96</v>
@@ -29865,7 +29865,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C100">
         <f>Experience!C99</f>
         <v>97</v>
@@ -29899,7 +29899,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C101">
         <f>Experience!C100</f>
         <v>98</v>
@@ -29933,7 +29933,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102">
         <f>Experience!C101</f>
         <v>99</v>
@@ -29967,7 +29967,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C103">
         <f>Experience!C102</f>
         <v>100</v>
@@ -30001,7 +30001,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P127" t="s">
         <v>145</v>
       </c>
@@ -30026,12 +30026,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -30066,7 +30066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>500</v>
       </c>
@@ -30141,7 +30141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -30185,7 +30185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -30232,7 +30232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1.2E-2</v>
       </c>
@@ -30279,7 +30279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -30323,7 +30323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -30367,7 +30367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -30411,7 +30411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -30456,7 +30456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -30500,7 +30500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -30632,7 +30632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -30676,7 +30676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -30720,7 +30720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -30764,7 +30764,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -30852,7 +30852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -30940,7 +30940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -30984,7 +30984,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -31028,7 +31028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>23</v>
       </c>
@@ -31160,7 +31160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -31248,7 +31248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>26</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>27</v>
       </c>
@@ -31336,7 +31336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>28</v>
       </c>
@@ -31380,7 +31380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>29</v>
       </c>
@@ -31424,7 +31424,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>30</v>
       </c>
@@ -31468,7 +31468,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>31</v>
       </c>
@@ -31512,7 +31512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>32</v>
       </c>
@@ -31556,7 +31556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>33</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>34</v>
       </c>
@@ -31644,7 +31644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>35</v>
       </c>
@@ -31688,7 +31688,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>36</v>
       </c>
@@ -31732,7 +31732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>37</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>38</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>39</v>
       </c>
@@ -31864,7 +31864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>40</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>41</v>
       </c>
@@ -31952,7 +31952,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>42</v>
       </c>
@@ -31996,7 +31996,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>43</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>44</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>45</v>
       </c>
@@ -32128,7 +32128,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>46</v>
       </c>
@@ -32172,7 +32172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>47</v>
       </c>
@@ -32216,7 +32216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>48</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>49</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>50</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>51</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>52</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>53</v>
       </c>
@@ -32480,7 +32480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>54</v>
       </c>
@@ -32524,7 +32524,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>55</v>
       </c>
@@ -32568,7 +32568,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>56</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>57</v>
       </c>
@@ -32656,7 +32656,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>58</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>59</v>
       </c>
@@ -32744,7 +32744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>60</v>
       </c>
@@ -32788,7 +32788,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>61</v>
       </c>
@@ -32832,7 +32832,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>62</v>
       </c>
@@ -32876,7 +32876,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>63</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>64</v>
       </c>
@@ -32964,7 +32964,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>65</v>
       </c>
@@ -33008,7 +33008,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>66</v>
       </c>
@@ -33052,7 +33052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>67</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>68</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>69</v>
       </c>
@@ -33184,7 +33184,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>70</v>
       </c>
@@ -33228,7 +33228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>71</v>
       </c>
@@ -33272,7 +33272,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>72</v>
       </c>
@@ -33316,7 +33316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>73</v>
       </c>
@@ -33360,7 +33360,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>74</v>
       </c>
@@ -33404,7 +33404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>75</v>
       </c>
@@ -33448,7 +33448,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>76</v>
       </c>
@@ -33492,7 +33492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>77</v>
       </c>
@@ -33536,7 +33536,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>78</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>79</v>
       </c>
@@ -33624,7 +33624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>80</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>81</v>
       </c>
@@ -33712,7 +33712,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>82</v>
       </c>
@@ -33756,7 +33756,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>83</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>84</v>
       </c>
@@ -33844,7 +33844,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>85</v>
       </c>
@@ -33888,7 +33888,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>86</v>
       </c>
@@ -33932,7 +33932,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>87</v>
       </c>
@@ -33976,7 +33976,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>88</v>
       </c>
@@ -34020,7 +34020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>89</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>90</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>91</v>
       </c>
@@ -34152,7 +34152,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>92</v>
       </c>
@@ -34196,7 +34196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>93</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>94</v>
       </c>
@@ -34284,7 +34284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>95</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>96</v>
       </c>
@@ -34372,7 +34372,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>97</v>
       </c>
@@ -34416,7 +34416,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>98</v>
       </c>
@@ -34460,7 +34460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>99</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>100</v>
       </c>
@@ -34548,7 +34548,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>101</v>
       </c>
@@ -34592,7 +34592,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>102</v>
       </c>
@@ -34636,7 +34636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>103</v>
       </c>
@@ -34680,7 +34680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>104</v>
       </c>
@@ -34724,7 +34724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>105</v>
       </c>
@@ -34768,7 +34768,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>106</v>
       </c>
@@ -34812,7 +34812,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>107</v>
       </c>
@@ -34856,7 +34856,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>108</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>109</v>
       </c>
@@ -34944,7 +34944,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>110</v>
       </c>
@@ -34988,7 +34988,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>111</v>
       </c>
@@ -35032,7 +35032,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>112</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>113</v>
       </c>
@@ -35120,7 +35120,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>114</v>
       </c>
@@ -35164,7 +35164,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>115</v>
       </c>
@@ -35208,7 +35208,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>116</v>
       </c>
@@ -35252,7 +35252,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>117</v>
       </c>
@@ -35296,7 +35296,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>118</v>
       </c>
@@ -35340,7 +35340,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>119</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>120</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>121</v>
       </c>
@@ -35472,7 +35472,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>122</v>
       </c>
@@ -35516,7 +35516,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>123</v>
       </c>
@@ -35560,7 +35560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>124</v>
       </c>
@@ -35604,7 +35604,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>125</v>
       </c>
@@ -35648,7 +35648,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>126</v>
       </c>
@@ -35692,7 +35692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>127</v>
       </c>
@@ -35736,7 +35736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>128</v>
       </c>
@@ -35780,7 +35780,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>129</v>
       </c>
@@ -35824,7 +35824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>130</v>
       </c>
@@ -35868,7 +35868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>131</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>132</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>133</v>
       </c>
@@ -36000,7 +36000,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>134</v>
       </c>
@@ -36044,7 +36044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>135</v>
       </c>
@@ -36088,7 +36088,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>136</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>137</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>138</v>
       </c>
@@ -36220,7 +36220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>139</v>
       </c>
@@ -36264,7 +36264,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>140</v>
       </c>
@@ -36308,7 +36308,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>141</v>
       </c>
@@ -36352,7 +36352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>142</v>
       </c>
@@ -36396,7 +36396,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>143</v>
       </c>
@@ -36440,7 +36440,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>144</v>
       </c>
@@ -36484,7 +36484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>145</v>
       </c>
@@ -36528,7 +36528,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>146</v>
       </c>
@@ -36572,7 +36572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>147</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>148</v>
       </c>
@@ -36660,7 +36660,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>149</v>
       </c>
@@ -36704,7 +36704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>150</v>
       </c>
@@ -36748,7 +36748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>151</v>
       </c>
@@ -36792,7 +36792,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>152</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>153</v>
       </c>
@@ -36880,7 +36880,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>154</v>
       </c>
@@ -36924,7 +36924,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>155</v>
       </c>
@@ -36968,7 +36968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>156</v>
       </c>
@@ -37012,7 +37012,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>157</v>
       </c>
@@ -37056,7 +37056,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>158</v>
       </c>
@@ -37100,7 +37100,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>159</v>
       </c>
@@ -37144,7 +37144,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>160</v>
       </c>
@@ -37188,7 +37188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>161</v>
       </c>
@@ -37232,7 +37232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>162</v>
       </c>
@@ -37276,7 +37276,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>163</v>
       </c>
@@ -37320,7 +37320,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>164</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>165</v>
       </c>
@@ -37408,7 +37408,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>166</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>167</v>
       </c>
@@ -37496,7 +37496,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>168</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>169</v>
       </c>
@@ -37584,7 +37584,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>170</v>
       </c>
@@ -37628,7 +37628,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>171</v>
       </c>
@@ -37672,7 +37672,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>172</v>
       </c>
@@ -37716,7 +37716,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>173</v>
       </c>
@@ -37760,7 +37760,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>174</v>
       </c>
@@ -37804,7 +37804,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>175</v>
       </c>
@@ -37848,7 +37848,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>176</v>
       </c>
@@ -37892,7 +37892,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>177</v>
       </c>
@@ -37936,7 +37936,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>178</v>
       </c>
@@ -37980,7 +37980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>179</v>
       </c>
@@ -38024,7 +38024,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>180</v>
       </c>
@@ -38068,7 +38068,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>181</v>
       </c>
@@ -38112,7 +38112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>182</v>
       </c>
@@ -38156,7 +38156,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>183</v>
       </c>
@@ -38200,7 +38200,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>184</v>
       </c>
@@ -38244,7 +38244,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>185</v>
       </c>
@@ -38288,7 +38288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>186</v>
       </c>
@@ -38332,7 +38332,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>187</v>
       </c>
@@ -38376,7 +38376,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>188</v>
       </c>
@@ -38420,7 +38420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>189</v>
       </c>
@@ -38464,7 +38464,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>190</v>
       </c>
@@ -38508,7 +38508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>191</v>
       </c>
@@ -38552,7 +38552,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>192</v>
       </c>
@@ -38596,7 +38596,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>193</v>
       </c>
@@ -38640,7 +38640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>194</v>
       </c>
@@ -38684,7 +38684,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>195</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>196</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>197</v>
       </c>
@@ -38816,7 +38816,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>198</v>
       </c>
@@ -38860,7 +38860,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>199</v>
       </c>
@@ -38904,7 +38904,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>200</v>
       </c>
@@ -38948,7 +38948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>201</v>
       </c>
@@ -38992,7 +38992,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>202</v>
       </c>
@@ -39036,7 +39036,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>203</v>
       </c>
@@ -39080,7 +39080,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>204</v>
       </c>
@@ -39124,7 +39124,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>205</v>
       </c>
@@ -39168,7 +39168,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>206</v>
       </c>
@@ -39212,7 +39212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>207</v>
       </c>
@@ -39256,7 +39256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>208</v>
       </c>
@@ -39300,7 +39300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>209</v>
       </c>
@@ -39344,7 +39344,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>210</v>
       </c>
@@ -39388,7 +39388,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>211</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>212</v>
       </c>
@@ -39476,7 +39476,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>213</v>
       </c>
@@ -39520,7 +39520,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>214</v>
       </c>
@@ -39564,7 +39564,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>215</v>
       </c>
@@ -39608,7 +39608,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>216</v>
       </c>
@@ -39652,7 +39652,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>217</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>218</v>
       </c>
@@ -39740,7 +39740,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>219</v>
       </c>
@@ -39784,7 +39784,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>220</v>
       </c>
@@ -39828,7 +39828,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>221</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>222</v>
       </c>
@@ -39916,7 +39916,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>223</v>
       </c>
@@ -39960,7 +39960,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>224</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>225</v>
       </c>
@@ -40048,7 +40048,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>226</v>
       </c>
@@ -40092,7 +40092,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>227</v>
       </c>
@@ -40136,7 +40136,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>228</v>
       </c>
@@ -40180,7 +40180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>229</v>
       </c>
@@ -40224,7 +40224,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>230</v>
       </c>
@@ -40268,7 +40268,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>231</v>
       </c>
@@ -40312,7 +40312,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>232</v>
       </c>
@@ -40356,7 +40356,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>233</v>
       </c>
@@ -40400,7 +40400,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>234</v>
       </c>
@@ -40444,7 +40444,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>235</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>236</v>
       </c>
@@ -40532,7 +40532,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>237</v>
       </c>
@@ -40576,7 +40576,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>238</v>
       </c>
@@ -40620,7 +40620,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>239</v>
       </c>
@@ -40664,7 +40664,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>240</v>
       </c>
@@ -40708,7 +40708,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>241</v>
       </c>
@@ -40752,7 +40752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>242</v>
       </c>
@@ -40796,7 +40796,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>243</v>
       </c>
@@ -40840,7 +40840,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>244</v>
       </c>
@@ -40884,7 +40884,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>245</v>
       </c>
@@ -40928,7 +40928,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>246</v>
       </c>
@@ -40972,7 +40972,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>247</v>
       </c>
@@ -41016,7 +41016,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>248</v>
       </c>
@@ -41060,7 +41060,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>249</v>
       </c>
@@ -41104,7 +41104,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>250</v>
       </c>
@@ -41148,7 +41148,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>251</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>252</v>
       </c>
@@ -41236,7 +41236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B256">
         <v>253</v>
       </c>
@@ -41280,7 +41280,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B257">
         <v>254</v>
       </c>
@@ -41324,7 +41324,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B258">
         <v>255</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B259">
         <v>256</v>
       </c>
@@ -41412,7 +41412,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B260">
         <v>257</v>
       </c>
@@ -41456,7 +41456,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>258</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B262">
         <v>259</v>
       </c>
@@ -41544,7 +41544,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>260</v>
       </c>
@@ -41588,7 +41588,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B264">
         <v>261</v>
       </c>
@@ -41632,7 +41632,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>262</v>
       </c>
@@ -41676,7 +41676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B266">
         <v>263</v>
       </c>
@@ -41720,7 +41720,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>264</v>
       </c>
@@ -41764,7 +41764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="268" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B268">
         <v>265</v>
       </c>
@@ -41808,7 +41808,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>266</v>
       </c>
@@ -41852,7 +41852,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="270" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B270">
         <v>267</v>
       </c>
@@ -41896,7 +41896,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="271" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>268</v>
       </c>
@@ -41940,7 +41940,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B272">
         <v>269</v>
       </c>
@@ -41984,7 +41984,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="273" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>270</v>
       </c>
@@ -42028,7 +42028,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="274" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B274">
         <v>271</v>
       </c>
@@ -42072,7 +42072,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="275" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>272</v>
       </c>
@@ -42116,7 +42116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="276" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B276">
         <v>273</v>
       </c>
@@ -42160,7 +42160,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="277" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B277">
         <v>274</v>
       </c>
@@ -42204,7 +42204,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="278" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B278">
         <v>275</v>
       </c>
@@ -42248,7 +42248,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="279" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B279">
         <v>276</v>
       </c>
@@ -42292,7 +42292,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B280">
         <v>277</v>
       </c>
@@ -42336,7 +42336,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="281" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>278</v>
       </c>
@@ -42380,7 +42380,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="282" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B282">
         <v>279</v>
       </c>
@@ -42424,7 +42424,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B283">
         <v>280</v>
       </c>
@@ -42468,7 +42468,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B284">
         <v>281</v>
       </c>
@@ -42512,7 +42512,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="285" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>282</v>
       </c>
@@ -42556,7 +42556,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="286" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B286">
         <v>283</v>
       </c>
@@ -42600,7 +42600,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B287">
         <v>284</v>
       </c>
@@ -42644,7 +42644,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B288">
         <v>285</v>
       </c>
@@ -42688,7 +42688,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>286</v>
       </c>
@@ -42732,7 +42732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B290">
         <v>287</v>
       </c>
@@ -42776,7 +42776,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>288</v>
       </c>
@@ -42820,7 +42820,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B292">
         <v>289</v>
       </c>
@@ -42864,7 +42864,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>290</v>
       </c>
@@ -42908,7 +42908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B294">
         <v>291</v>
       </c>
@@ -42952,7 +42952,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>292</v>
       </c>
@@ -42996,7 +42996,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B296">
         <v>293</v>
       </c>
@@ -43040,7 +43040,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>294</v>
       </c>
@@ -43084,7 +43084,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B298">
         <v>295</v>
       </c>
@@ -43128,7 +43128,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>296</v>
       </c>
@@ -43172,7 +43172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B300">
         <v>297</v>
       </c>
@@ -43216,7 +43216,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>298</v>
       </c>
@@ -43260,7 +43260,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="302" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B302">
         <v>299</v>
       </c>
@@ -43304,7 +43304,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>300</v>
       </c>
@@ -43348,7 +43348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B304">
         <v>301</v>
       </c>
@@ -43392,7 +43392,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B305">
         <v>302</v>
       </c>
@@ -43436,7 +43436,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B306">
         <v>303</v>
       </c>
@@ -43480,7 +43480,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="307" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B307">
         <v>304</v>
       </c>
@@ -43524,7 +43524,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="308" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B308">
         <v>305</v>
       </c>
@@ -43568,7 +43568,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="309" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B309">
         <v>306</v>
       </c>
@@ -43612,7 +43612,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B310">
         <v>307</v>
       </c>
@@ -43656,7 +43656,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B311">
         <v>308</v>
       </c>
@@ -43700,7 +43700,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="312" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B312">
         <v>309</v>
       </c>
@@ -43744,7 +43744,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="313" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B313">
         <v>310</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>311</v>
       </c>
@@ -43832,7 +43832,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B315">
         <v>312</v>
       </c>
@@ -43876,7 +43876,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B316">
         <v>313</v>
       </c>
@@ -43920,7 +43920,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B317">
         <v>314</v>
       </c>
@@ -43964,7 +43964,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B318">
         <v>315</v>
       </c>
@@ -44008,7 +44008,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="319" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B319">
         <v>316</v>
       </c>
@@ -44052,7 +44052,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="320" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B320">
         <v>317</v>
       </c>
@@ -44096,7 +44096,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="321" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B321">
         <v>318</v>
       </c>
@@ -44140,7 +44140,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="322" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B322">
         <v>319</v>
       </c>
@@ -44184,7 +44184,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="323" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B323">
         <v>320</v>
       </c>
@@ -44228,7 +44228,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="324" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B324">
         <v>321</v>
       </c>
@@ -44272,7 +44272,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="325" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B325">
         <v>322</v>
       </c>
@@ -44316,7 +44316,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="326" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B326">
         <v>323</v>
       </c>
@@ -44360,7 +44360,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B327">
         <v>324</v>
       </c>
@@ -44404,7 +44404,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="328" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>325</v>
       </c>
@@ -44448,7 +44448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="329" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B329">
         <v>326</v>
       </c>
@@ -44492,7 +44492,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="330" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B330">
         <v>327</v>
       </c>
@@ -44536,7 +44536,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="331" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B331">
         <v>328</v>
       </c>
@@ -44580,7 +44580,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="332" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B332">
         <v>329</v>
       </c>
@@ -44624,7 +44624,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="333" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B333">
         <v>330</v>
       </c>
@@ -44668,7 +44668,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="334" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B334">
         <v>331</v>
       </c>
@@ -44712,7 +44712,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="335" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B335">
         <v>332</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="336" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B336">
         <v>333</v>
       </c>
@@ -44800,7 +44800,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="337" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B337">
         <v>334</v>
       </c>
@@ -44844,7 +44844,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B338">
         <v>335</v>
       </c>
@@ -44888,7 +44888,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="339" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B339">
         <v>336</v>
       </c>
@@ -44932,7 +44932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="340" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B340">
         <v>337</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B341">
         <v>338</v>
       </c>
@@ -45020,7 +45020,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="342" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B342">
         <v>339</v>
       </c>
@@ -45064,7 +45064,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="343" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B343">
         <v>340</v>
       </c>
@@ -45108,7 +45108,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="344" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B344">
         <v>341</v>
       </c>
@@ -45152,7 +45152,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="345" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B345">
         <v>342</v>
       </c>
@@ -45196,7 +45196,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="346" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B346">
         <v>343</v>
       </c>
@@ -45240,7 +45240,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="347" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B347">
         <v>344</v>
       </c>
@@ -45284,7 +45284,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="348" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B348">
         <v>345</v>
       </c>
@@ -45328,7 +45328,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="349" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B349">
         <v>346</v>
       </c>
@@ -45372,7 +45372,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="350" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B350">
         <v>347</v>
       </c>
@@ -45416,7 +45416,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="351" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B351">
         <v>348</v>
       </c>
@@ -45460,7 +45460,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="352" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B352">
         <v>349</v>
       </c>
@@ -45504,7 +45504,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B353">
         <v>350</v>
       </c>
@@ -45548,7 +45548,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B354">
         <v>351</v>
       </c>
@@ -45592,7 +45592,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="355" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B355">
         <v>352</v>
       </c>
@@ -45636,7 +45636,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="356" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B356">
         <v>353</v>
       </c>
@@ -45680,7 +45680,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B357">
         <v>354</v>
       </c>
@@ -45724,7 +45724,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B358">
         <v>355</v>
       </c>
@@ -45768,7 +45768,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B359">
         <v>356</v>
       </c>
@@ -45812,7 +45812,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B360">
         <v>357</v>
       </c>
@@ -45856,7 +45856,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B361">
         <v>358</v>
       </c>
@@ -45900,7 +45900,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B362">
         <v>359</v>
       </c>
@@ -45944,7 +45944,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B363">
         <v>360</v>
       </c>
@@ -45988,7 +45988,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="364" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B364">
         <v>361</v>
       </c>
@@ -46032,7 +46032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B365">
         <v>362</v>
       </c>
@@ -46076,7 +46076,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="366" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B366">
         <v>363</v>
       </c>
@@ -46120,7 +46120,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="367" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B367">
         <v>364</v>
       </c>
@@ -46164,7 +46164,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="368" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B368">
         <v>365</v>
       </c>
@@ -46208,7 +46208,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="369" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B369">
         <v>366</v>
       </c>
@@ -46252,7 +46252,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="370" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B370">
         <v>367</v>
       </c>
@@ -46296,7 +46296,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B371">
         <v>368</v>
       </c>
@@ -46340,7 +46340,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B372">
         <v>369</v>
       </c>
@@ -46384,7 +46384,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B373">
         <v>370</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B374">
         <v>371</v>
       </c>
@@ -46472,7 +46472,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="375" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B375">
         <v>372</v>
       </c>
@@ -46516,7 +46516,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="376" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B376">
         <v>373</v>
       </c>
@@ -46560,7 +46560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="377" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B377">
         <v>374</v>
       </c>
@@ -46604,7 +46604,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="378" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B378">
         <v>375</v>
       </c>
@@ -46648,7 +46648,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="379" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B379">
         <v>376</v>
       </c>
@@ -46692,7 +46692,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="380" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B380">
         <v>377</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="381" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B381">
         <v>378</v>
       </c>
@@ -46780,7 +46780,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B382">
         <v>379</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="383" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B383">
         <v>380</v>
       </c>
@@ -46868,7 +46868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B384">
         <v>381</v>
       </c>
@@ -46912,7 +46912,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="385" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B385">
         <v>382</v>
       </c>
@@ -46956,7 +46956,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="386" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B386">
         <v>383</v>
       </c>
@@ -47000,7 +47000,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="387" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B387">
         <v>384</v>
       </c>
@@ -47044,7 +47044,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="388" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B388">
         <v>385</v>
       </c>
@@ -47088,7 +47088,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="389" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B389">
         <v>386</v>
       </c>
@@ -47132,7 +47132,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="390" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B390">
         <v>387</v>
       </c>
@@ -47176,7 +47176,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="391" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B391">
         <v>388</v>
       </c>
@@ -47220,7 +47220,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="392" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B392">
         <v>389</v>
       </c>
@@ -47264,7 +47264,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="393" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B393">
         <v>390</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="394" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B394">
         <v>391</v>
       </c>
@@ -47352,7 +47352,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="395" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B395">
         <v>392</v>
       </c>
@@ -47396,7 +47396,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="396" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B396">
         <v>393</v>
       </c>
@@ -47440,7 +47440,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="397" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B397">
         <v>394</v>
       </c>
@@ -47484,7 +47484,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="398" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B398">
         <v>395</v>
       </c>
@@ -47528,7 +47528,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="399" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B399">
         <v>396</v>
       </c>
@@ -47572,7 +47572,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="400" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B400">
         <v>397</v>
       </c>
@@ -47616,7 +47616,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="401" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B401">
         <v>398</v>
       </c>
@@ -47660,7 +47660,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="402" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B402">
         <v>399</v>
       </c>
@@ -47704,7 +47704,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="403" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B403">
         <v>400</v>
       </c>
@@ -47759,14 +47759,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="164">
   <si>
     <t>Level</t>
   </si>
@@ -510,15 +510,17 @@
   <si>
     <t>longsword</t>
   </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1071,7 +1073,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1083,7 +1085,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2486,11 +2487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262278528"/>
-        <c:axId val="262296704"/>
+        <c:axId val="146738176"/>
+        <c:axId val="146756352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262278528"/>
+        <c:axId val="146738176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262296704"/>
+        <c:crossAx val="146756352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2507,7 +2508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262296704"/>
+        <c:axId val="146756352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262278528"/>
+        <c:crossAx val="146738176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3855,11 +3856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262596480"/>
-        <c:axId val="262598016"/>
+        <c:axId val="199943680"/>
+        <c:axId val="199945216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262596480"/>
+        <c:axId val="199943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262598016"/>
+        <c:crossAx val="199945216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3877,7 +3878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262598016"/>
+        <c:axId val="199945216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262596480"/>
+        <c:crossAx val="199943680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6379,11 +6380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262635904"/>
-        <c:axId val="262637440"/>
+        <c:axId val="199983104"/>
+        <c:axId val="199984640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262635904"/>
+        <c:axId val="199983104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6392,7 +6393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262637440"/>
+        <c:crossAx val="199984640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6400,7 +6401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262637440"/>
+        <c:axId val="199984640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,7 +6412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262635904"/>
+        <c:crossAx val="199983104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26435,8 +26436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47757,10 +47758,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47769,210 +47770,263 @@
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
       <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>0.18</v>
+      </c>
+      <c r="E2">
+        <v>0.08</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="C3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G3">
         <v>0.06</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="C4">
+        <v>0.35</v>
+      </c>
+      <c r="D4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E4">
         <v>0.22500000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F4">
         <v>0.125</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G4">
         <v>0.125</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H4">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
         <v>0.35</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E5">
         <v>0.24</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G5">
         <v>0.15</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
         <v>0.35</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G6">
         <v>0.2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H6">
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
         <v>0.4</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E7">
         <v>0.3</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F7">
         <v>0.25</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
       </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
         <v>0.45</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E8">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F8">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G8">
         <v>0.25</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H8">
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
         <v>0.42</v>
       </c>
-      <c r="D8" s="11">
+      <c r="E9">
         <v>0.3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="F9">
         <v>0.27</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G9">
         <v>0.24</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H9">
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
         <v>155</v>
       </c>
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
         <v>0.45</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E10">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F10">
         <v>0.3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G10">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H10">
         <v>0.25</v>
       </c>
     </row>

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
-    <sheet name="Stat Growth" sheetId="2" r:id="rId2"/>
-    <sheet name="Races" sheetId="3" r:id="rId3"/>
-    <sheet name="Professions" sheetId="6" r:id="rId4"/>
-    <sheet name="Attributes" sheetId="4" r:id="rId5"/>
-    <sheet name="Skills_Bonus" sheetId="5" r:id="rId6"/>
-    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId7"/>
+    <sheet name="Experience_Adjustment_Factor" sheetId="8" r:id="rId2"/>
+    <sheet name="Stat Growth" sheetId="2" r:id="rId3"/>
+    <sheet name="Races" sheetId="3" r:id="rId4"/>
+    <sheet name="Professions" sheetId="6" r:id="rId5"/>
+    <sheet name="Attributes" sheetId="4" r:id="rId6"/>
+    <sheet name="Skills_Bonus" sheetId="5" r:id="rId7"/>
+    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
   <si>
     <t>Level</t>
   </si>
@@ -512,6 +513,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Level_Variance</t>
+  </si>
+  <si>
+    <t>Adjustment_Factor</t>
   </si>
 </sst>
 </file>
@@ -2487,11 +2494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146738176"/>
-        <c:axId val="146756352"/>
+        <c:axId val="248896896"/>
+        <c:axId val="248976512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146738176"/>
+        <c:axId val="248896896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146756352"/>
+        <c:crossAx val="248976512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,7 +2515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146756352"/>
+        <c:axId val="248976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2519,13 +2526,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146738176"/>
+        <c:crossAx val="248896896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3856,11 +3864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199943680"/>
-        <c:axId val="199945216"/>
+        <c:axId val="249300864"/>
+        <c:axId val="249302400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199943680"/>
+        <c:axId val="249300864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199945216"/>
+        <c:crossAx val="249302400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3878,7 +3886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199945216"/>
+        <c:axId val="249302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3889,7 +3897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199943680"/>
+        <c:crossAx val="249300864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6380,11 +6388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199983104"/>
-        <c:axId val="199984640"/>
+        <c:axId val="249348480"/>
+        <c:axId val="249350016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199983104"/>
+        <c:axId val="249348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6393,7 +6401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199984640"/>
+        <c:crossAx val="249350016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6401,7 +6409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199984640"/>
+        <c:axId val="249350016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,7 +6420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199983104"/>
+        <c:crossAx val="249348480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6827,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6910,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">FLOOR($A$3*C3^$A$6,1)</f>
+        <f>FLOOR($A$3*C3^$A$6,1)</f>
         <v>1000</v>
       </c>
       <c r="E3" s="1">
@@ -6922,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">ROUND((4*(C3^3))/5,0)</f>
+        <f t="shared" ref="H3:H66" si="1">ROUND((4*(C3^3))/5,0)</f>
         <v>1</v>
       </c>
       <c r="I3" s="9">
@@ -6930,12 +6938,12 @@
         <v>1000</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="3">FLOOR($A$9*C3^$A$12,1)</f>
-        <v>20</v>
+        <f>FLOOR($A$9*C3^$A$12,1)</f>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L34" si="4">E3/K3</f>
-        <v>50</v>
+        <f>E3/K3</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -6943,11 +6951,11 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D3:D66" si="2">FLOOR($A$3*C4^$A$6,1)</f>
         <v>4000</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E67" si="5">D4-E3</f>
+        <f t="shared" ref="E4:E67" si="3">D4-E3</f>
         <v>3000</v>
       </c>
       <c r="G4">
@@ -6955,20 +6963,20 @@
         <v>1000</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I67" si="6">FLOOR(1000*C4^2,1)</f>
+        <f t="shared" ref="I4:I67" si="4">FLOOR(1000*C4^2,1)</f>
         <v>4000</v>
       </c>
       <c r="K4">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" ref="K3:K66" si="5">FLOOR($A$9*C4^$A$12,1)</f>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="4"/>
-        <v>75</v>
+        <f t="shared" ref="L3:L34" si="6">E4/K4</f>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -6979,11 +6987,11 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="G5">
@@ -6991,19 +6999,19 @@
         <v>3000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I5" s="9">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="K5">
+        <f>FLOOR($A$9*C5^$A$12,1)</f>
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
         <f t="shared" si="6"/>
-        <v>9000</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
@@ -7015,11 +7023,11 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="G6">
@@ -7027,20 +7035,20 @@
         <v>6000</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="I6" s="9">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="6"/>
-        <v>16000</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="4"/>
-        <v>125</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -7048,11 +7056,11 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15000</v>
       </c>
       <c r="G7">
@@ -7060,19 +7068,19 @@
         <v>10000</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I7" s="9">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="K7">
+        <f>FLOOR($A$9*C7^$A$12,1)</f>
+        <v>50</v>
+      </c>
+      <c r="L7" s="2">
         <f t="shared" si="6"/>
-        <v>25000</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
@@ -7084,11 +7092,11 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21000</v>
       </c>
       <c r="G8">
@@ -7096,35 +7104,35 @@
         <v>15000</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
       <c r="I8" s="9">
+        <f t="shared" si="4"/>
+        <v>36000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>36000</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="4"/>
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49000</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="G9">
@@ -7132,20 +7140,20 @@
         <v>21000</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>274</v>
       </c>
       <c r="I9" s="9">
+        <f t="shared" si="4"/>
+        <v>49000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="6"/>
-        <v>49000</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -7153,11 +7161,11 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64000</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="G10">
@@ -7165,20 +7173,20 @@
         <v>28000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="I10" s="9">
+        <f t="shared" si="4"/>
+        <v>64000</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="6"/>
-        <v>64000</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="4"/>
-        <v>225</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -7189,11 +7197,11 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
       <c r="G11">
@@ -7201,20 +7209,20 @@
         <v>36000</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>583</v>
       </c>
       <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>81000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="6"/>
-        <v>81000</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -7225,11 +7233,11 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
       <c r="G12">
@@ -7237,20 +7245,20 @@
         <v>45000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="I12" s="9">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="4"/>
-        <v>275</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -7258,11 +7266,11 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121000</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
       <c r="G13">
@@ -7270,20 +7278,20 @@
         <v>55000</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1065</v>
       </c>
       <c r="I13" s="9">
+        <f t="shared" si="4"/>
+        <v>121000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="6"/>
-        <v>121000</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="4"/>
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -7291,11 +7299,11 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
       <c r="G14">
@@ -7303,20 +7311,20 @@
         <v>66000</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1382</v>
       </c>
       <c r="I14" s="9">
+        <f t="shared" si="4"/>
+        <v>144000</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="6"/>
-        <v>144000</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="4"/>
-        <v>325</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -7324,11 +7332,11 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169000</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>91000</v>
       </c>
       <c r="G15">
@@ -7336,20 +7344,20 @@
         <v>78000</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1758</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>169000</v>
       </c>
       <c r="K15">
         <f>FLOOR($A$9*C15^$A$12,1)</f>
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
-        <v>350</v>
+        <f t="shared" si="6"/>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -7357,11 +7365,11 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196000</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="G16">
@@ -7369,20 +7377,20 @@
         <v>91000</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2195</v>
       </c>
       <c r="I16" s="9">
+        <f t="shared" si="4"/>
+        <v>196000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="6"/>
-        <v>196000</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="4"/>
-        <v>375</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
@@ -7390,11 +7398,11 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225000</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="G17">
@@ -7402,20 +7410,20 @@
         <v>105000</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
       <c r="I17" s="9">
+        <f t="shared" si="4"/>
+        <v>225000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="6"/>
-        <v>225000</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
@@ -7423,11 +7431,11 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256000</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>136000</v>
       </c>
       <c r="G18">
@@ -7435,20 +7443,20 @@
         <v>120000</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3277</v>
       </c>
       <c r="I18" s="9">
+        <f t="shared" si="4"/>
+        <v>256000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="6"/>
-        <v>256000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="4"/>
-        <v>425</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
@@ -7456,11 +7464,11 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>289000</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>153000</v>
       </c>
       <c r="G19">
@@ -7468,20 +7476,20 @@
         <v>136000</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3930</v>
       </c>
       <c r="I19" s="9">
+        <f t="shared" si="4"/>
+        <v>289000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="6"/>
-        <v>289000</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="4"/>
-        <v>450</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
@@ -7489,11 +7497,11 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>324000</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>171000</v>
       </c>
       <c r="G20">
@@ -7501,20 +7509,20 @@
         <v>153000</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4666</v>
       </c>
       <c r="I20" s="9">
+        <f t="shared" si="4"/>
+        <v>324000</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="6"/>
-        <v>324000</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="4"/>
-        <v>475</v>
+        <v>950</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
@@ -7522,11 +7530,11 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>361000</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>190000</v>
       </c>
       <c r="G21">
@@ -7534,20 +7542,20 @@
         <v>171000</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5487</v>
       </c>
       <c r="I21" s="9">
+        <f t="shared" si="4"/>
+        <v>361000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="6"/>
-        <v>361000</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>380</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="4"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
@@ -7555,11 +7563,11 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>210000</v>
       </c>
       <c r="G22">
@@ -7567,20 +7575,20 @@
         <v>190000</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6400</v>
       </c>
       <c r="I22" s="9">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="6"/>
-        <v>400000</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="4"/>
-        <v>525</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
@@ -7588,11 +7596,11 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>441000</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>231000</v>
       </c>
       <c r="G23">
@@ -7600,20 +7608,20 @@
         <v>210000</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7409</v>
       </c>
       <c r="I23" s="9">
+        <f t="shared" si="4"/>
+        <v>441000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="6"/>
-        <v>441000</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="4"/>
-        <v>550</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
@@ -7621,11 +7629,11 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>484000</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>253000</v>
       </c>
       <c r="G24">
@@ -7633,20 +7641,20 @@
         <v>231000</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8518</v>
       </c>
       <c r="I24" s="9">
+        <f t="shared" si="4"/>
+        <v>484000</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="6"/>
-        <v>484000</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="4"/>
-        <v>575</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
@@ -7654,11 +7662,11 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>529000</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>276000</v>
       </c>
       <c r="G25">
@@ -7666,20 +7674,20 @@
         <v>253000</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9734</v>
       </c>
       <c r="I25" s="9">
+        <f t="shared" si="4"/>
+        <v>529000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="6"/>
-        <v>529000</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>460</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="4"/>
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
@@ -7687,11 +7695,11 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
       <c r="G26">
@@ -7699,20 +7707,20 @@
         <v>276000</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11059</v>
       </c>
       <c r="I26" s="9">
+        <f t="shared" si="4"/>
+        <v>576000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="6"/>
-        <v>576000</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="4"/>
-        <v>625</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
@@ -7720,11 +7728,11 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>625000</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>325000</v>
       </c>
       <c r="G27">
@@ -7732,20 +7740,20 @@
         <v>300000</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="I27" s="9">
+        <f t="shared" si="4"/>
+        <v>625000</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="6"/>
-        <v>625000</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="4"/>
-        <v>650</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
@@ -7753,11 +7761,11 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>676000</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>351000</v>
       </c>
       <c r="G28">
@@ -7765,20 +7773,20 @@
         <v>325000</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14061</v>
       </c>
       <c r="I28" s="9">
+        <f t="shared" si="4"/>
+        <v>676000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="6"/>
-        <v>676000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="4"/>
-        <v>675</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
@@ -7786,11 +7794,11 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>729000</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>378000</v>
       </c>
       <c r="G29">
@@ -7798,20 +7806,20 @@
         <v>351000</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15746</v>
       </c>
       <c r="I29" s="9">
+        <f t="shared" si="4"/>
+        <v>729000</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="6"/>
-        <v>729000</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
-        <v>540</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
@@ -7819,11 +7827,11 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>784000</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>406000</v>
       </c>
       <c r="G30">
@@ -7831,20 +7839,20 @@
         <v>378000</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17562</v>
       </c>
       <c r="I30" s="9">
+        <f t="shared" si="4"/>
+        <v>784000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="6"/>
-        <v>784000</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="4"/>
-        <v>725</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
@@ -7852,11 +7860,11 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>841000</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>435000</v>
       </c>
       <c r="G31">
@@ -7864,20 +7872,20 @@
         <v>406000</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19511</v>
       </c>
       <c r="I31" s="9">
+        <f t="shared" si="4"/>
+        <v>841000</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="6"/>
-        <v>841000</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
-        <v>580</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="4"/>
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.3">
@@ -7885,11 +7893,11 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900000</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>465000</v>
       </c>
       <c r="G32">
@@ -7897,20 +7905,20 @@
         <v>435000</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21600</v>
       </c>
       <c r="I32" s="9">
+        <f t="shared" si="4"/>
+        <v>900000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="6"/>
-        <v>900000</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="4"/>
-        <v>775</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
@@ -7918,11 +7926,11 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>961000</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>496000</v>
       </c>
       <c r="G33">
@@ -7930,20 +7938,20 @@
         <v>465000</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23833</v>
       </c>
       <c r="I33" s="9">
+        <f t="shared" si="4"/>
+        <v>961000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="6"/>
-        <v>961000</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
-        <v>620</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="4"/>
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
@@ -7951,11 +7959,11 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1024000</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>528000</v>
       </c>
       <c r="G34">
@@ -7963,20 +7971,20 @@
         <v>496000</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26214</v>
       </c>
       <c r="I34" s="9">
+        <f t="shared" si="4"/>
+        <v>1024000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="6"/>
-        <v>1024000</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="3"/>
-        <v>640</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="4"/>
-        <v>825</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.3">
@@ -7984,11 +7992,11 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1089000</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>561000</v>
       </c>
       <c r="G35">
@@ -7996,20 +8004,20 @@
         <v>528000</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28750</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1089000</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
-        <v>660</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" ref="L35:L66" si="8">E35/K35</f>
-        <v>850</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
@@ -8017,11 +8025,11 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1156000</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>595000</v>
       </c>
       <c r="G36">
@@ -8029,20 +8037,20 @@
         <v>561000</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31443</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1156000</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
-        <v>680</v>
+        <f t="shared" si="5"/>
+        <v>340</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="8"/>
-        <v>875</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
@@ -8050,11 +8058,11 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1225000</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>630000</v>
       </c>
       <c r="G37">
@@ -8062,20 +8070,20 @@
         <v>595000</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34300</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1225000</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
-        <v>700</v>
+        <f t="shared" si="5"/>
+        <v>350</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="8"/>
-        <v>900</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
@@ -8083,11 +8091,11 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1296000</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>666000</v>
       </c>
       <c r="G38">
@@ -8095,20 +8103,20 @@
         <v>630000</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37325</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1296000</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
-        <v>720</v>
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="8"/>
-        <v>925</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
@@ -8116,11 +8124,11 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1369000</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>703000</v>
       </c>
       <c r="G39">
@@ -8128,20 +8136,20 @@
         <v>666000</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40522</v>
       </c>
       <c r="I39" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1369000</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
-        <v>740</v>
+        <f t="shared" si="5"/>
+        <v>370</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="8"/>
-        <v>950</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
@@ -8149,11 +8157,11 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1444000</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>741000</v>
       </c>
       <c r="G40">
@@ -8161,20 +8169,20 @@
         <v>703000</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43898</v>
       </c>
       <c r="I40" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1444000</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
-        <v>760</v>
+        <f t="shared" si="5"/>
+        <v>380</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="8"/>
-        <v>975</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
@@ -8182,11 +8190,11 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1521000</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>780000</v>
       </c>
       <c r="G41">
@@ -8194,20 +8202,20 @@
         <v>741000</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47455</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1521000</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
-        <v>780</v>
+        <f t="shared" si="5"/>
+        <v>390</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="8"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.3">
@@ -8215,11 +8223,11 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1600000</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>820000</v>
       </c>
       <c r="G42">
@@ -8227,20 +8235,20 @@
         <v>780000</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51200</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1600000</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
-        <v>800</v>
+        <f t="shared" si="5"/>
+        <v>400</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="8"/>
-        <v>1025</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.3">
@@ -8248,11 +8256,11 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1681000</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>861000</v>
       </c>
       <c r="G43">
@@ -8260,20 +8268,20 @@
         <v>820000</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55137</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1681000</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
-        <v>820</v>
+        <f t="shared" si="5"/>
+        <v>410</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="8"/>
-        <v>1050</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.3">
@@ -8281,11 +8289,11 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1764000</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>903000</v>
       </c>
       <c r="G44">
@@ -8293,20 +8301,20 @@
         <v>861000</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59270</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1764000</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
-        <v>840</v>
+        <f t="shared" si="5"/>
+        <v>420</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="8"/>
-        <v>1075</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.3">
@@ -8314,11 +8322,11 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1849000</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>946000</v>
       </c>
       <c r="G45">
@@ -8326,20 +8334,20 @@
         <v>903000</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63606</v>
       </c>
       <c r="I45" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1849000</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
-        <v>860</v>
+        <f t="shared" si="5"/>
+        <v>430</v>
       </c>
       <c r="L45" s="2">
         <f t="shared" si="8"/>
-        <v>1100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.3">
@@ -8347,11 +8355,11 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1936000</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>990000</v>
       </c>
       <c r="G46">
@@ -8359,20 +8367,20 @@
         <v>946000</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68147</v>
       </c>
       <c r="I46" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1936000</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
-        <v>880</v>
+        <f t="shared" si="5"/>
+        <v>440</v>
       </c>
       <c r="L46" s="2">
         <f t="shared" si="8"/>
-        <v>1125</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.3">
@@ -8380,11 +8388,11 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2025000</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1035000</v>
       </c>
       <c r="G47">
@@ -8392,20 +8400,20 @@
         <v>990000</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72900</v>
       </c>
       <c r="I47" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2025000</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
-        <v>900</v>
+        <f t="shared" si="5"/>
+        <v>450</v>
       </c>
       <c r="L47" s="2">
         <f t="shared" si="8"/>
-        <v>1150</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.3">
@@ -8413,11 +8421,11 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2116000</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1081000</v>
       </c>
       <c r="G48">
@@ -8425,20 +8433,20 @@
         <v>1035000</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77869</v>
       </c>
       <c r="I48" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2116000</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
-        <v>920</v>
+        <f t="shared" si="5"/>
+        <v>460</v>
       </c>
       <c r="L48" s="2">
         <f t="shared" si="8"/>
-        <v>1175</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
@@ -8446,11 +8454,11 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2209000</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1128000</v>
       </c>
       <c r="G49">
@@ -8458,20 +8466,20 @@
         <v>1081000</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83058</v>
       </c>
       <c r="I49" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2209000</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
-        <v>940</v>
+        <f t="shared" si="5"/>
+        <v>470</v>
       </c>
       <c r="L49" s="2">
         <f t="shared" si="8"/>
-        <v>1200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
@@ -8479,11 +8487,11 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2304000</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1176000</v>
       </c>
       <c r="G50">
@@ -8491,20 +8499,20 @@
         <v>1128000</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88474</v>
       </c>
       <c r="I50" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2304000</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
-        <v>960</v>
+        <f t="shared" si="5"/>
+        <v>480</v>
       </c>
       <c r="L50" s="2">
         <f t="shared" si="8"/>
-        <v>1225</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
@@ -8512,11 +8520,11 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2401000</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1225000</v>
       </c>
       <c r="G51">
@@ -8524,20 +8532,20 @@
         <v>1176000</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94119</v>
       </c>
       <c r="I51" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2401000</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
-        <v>980</v>
+        <f t="shared" si="5"/>
+        <v>490</v>
       </c>
       <c r="L51" s="2">
         <f t="shared" si="8"/>
-        <v>1250</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.3">
@@ -8545,11 +8553,11 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1275000</v>
       </c>
       <c r="G52">
@@ -8557,20 +8565,20 @@
         <v>1225000</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="I52" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2500000</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f t="shared" si="5"/>
+        <v>500</v>
       </c>
       <c r="L52" s="2">
         <f t="shared" si="8"/>
-        <v>1275</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
@@ -8578,11 +8586,11 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2601000</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1326000</v>
       </c>
       <c r="G53">
@@ -8590,20 +8598,20 @@
         <v>1275000</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106121</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2601000</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
-        <v>1020</v>
+        <f t="shared" si="5"/>
+        <v>510</v>
       </c>
       <c r="L53" s="2">
         <f t="shared" si="8"/>
-        <v>1300</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
@@ -8611,11 +8619,11 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2704000</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1378000</v>
       </c>
       <c r="G54">
@@ -8623,20 +8631,20 @@
         <v>1326000</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112486</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2704000</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
-        <v>1040</v>
+        <f t="shared" si="5"/>
+        <v>520</v>
       </c>
       <c r="L54" s="2">
         <f t="shared" si="8"/>
-        <v>1325</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
@@ -8644,11 +8652,11 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2809000</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1431000</v>
       </c>
       <c r="G55">
@@ -8656,20 +8664,20 @@
         <v>1378000</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>119102</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2809000</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
-        <v>1060</v>
+        <f t="shared" si="5"/>
+        <v>530</v>
       </c>
       <c r="L55" s="2">
         <f t="shared" si="8"/>
-        <v>1350</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
@@ -8677,11 +8685,11 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2916000</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1485000</v>
       </c>
       <c r="G56">
@@ -8689,20 +8697,20 @@
         <v>1431000</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>125971</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2916000</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
-        <v>1080</v>
+        <f t="shared" si="5"/>
+        <v>540</v>
       </c>
       <c r="L56" s="2">
         <f t="shared" si="8"/>
-        <v>1375</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
@@ -8710,11 +8718,11 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3025000</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1540000</v>
       </c>
       <c r="G57">
@@ -8722,20 +8730,20 @@
         <v>1485000</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>133100</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3025000</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
-        <v>1100</v>
+        <f t="shared" si="5"/>
+        <v>550</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="8"/>
-        <v>1400</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
@@ -8743,11 +8751,11 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3136000</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1596000</v>
       </c>
       <c r="G58">
@@ -8755,20 +8763,20 @@
         <v>1540000</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140493</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3136000</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
-        <v>1120</v>
+        <f t="shared" si="5"/>
+        <v>560</v>
       </c>
       <c r="L58" s="2">
         <f t="shared" si="8"/>
-        <v>1425</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
@@ -8776,11 +8784,11 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3249000</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1653000</v>
       </c>
       <c r="G59">
@@ -8788,20 +8796,20 @@
         <v>1596000</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>148154</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3249000</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
-        <v>1140</v>
+        <f t="shared" si="5"/>
+        <v>570</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="8"/>
-        <v>1450</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
@@ -8809,11 +8817,11 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3364000</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1711000</v>
       </c>
       <c r="G60">
@@ -8821,20 +8829,20 @@
         <v>1653000</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>156090</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3364000</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
-        <v>1160</v>
+        <f t="shared" si="5"/>
+        <v>580</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="8"/>
-        <v>1475</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
@@ -8842,11 +8850,11 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3481000</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1770000</v>
       </c>
       <c r="G61">
@@ -8854,20 +8862,20 @@
         <v>1711000</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>164303</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3481000</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
-        <v>1180</v>
+        <f t="shared" si="5"/>
+        <v>590</v>
       </c>
       <c r="L61" s="2">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
@@ -8875,11 +8883,11 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1830000</v>
       </c>
       <c r="G62">
@@ -8887,20 +8895,20 @@
         <v>1770000</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>172800</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3600000</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
-        <v>1200</v>
+        <f t="shared" si="5"/>
+        <v>600</v>
       </c>
       <c r="L62" s="2">
         <f t="shared" si="8"/>
-        <v>1525</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
@@ -8908,11 +8916,11 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3721000</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1891000</v>
       </c>
       <c r="G63">
@@ -8920,20 +8928,20 @@
         <v>1830000</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>181585</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3721000</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
-        <v>1220</v>
+        <f t="shared" si="5"/>
+        <v>610</v>
       </c>
       <c r="L63" s="2">
         <f t="shared" si="8"/>
-        <v>1550</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
@@ -8941,11 +8949,11 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3844000</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1953000</v>
       </c>
       <c r="G64">
@@ -8953,20 +8961,20 @@
         <v>1891000</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190662</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3844000</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
-        <v>1240</v>
+        <f t="shared" si="5"/>
+        <v>620</v>
       </c>
       <c r="L64" s="2">
         <f t="shared" si="8"/>
-        <v>1575</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
@@ -8974,11 +8982,11 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3969000</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2016000</v>
       </c>
       <c r="G65">
@@ -8986,20 +8994,20 @@
         <v>1953000</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200038</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3969000</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
-        <v>1260</v>
+        <f t="shared" si="5"/>
+        <v>630</v>
       </c>
       <c r="L65" s="2">
         <f t="shared" si="8"/>
-        <v>1600</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
@@ -9007,11 +9015,11 @@
         <v>64</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4096000</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2080000</v>
       </c>
       <c r="G66">
@@ -9019,20 +9027,20 @@
         <v>2016000</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>209715</v>
       </c>
       <c r="I66" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4096000</v>
       </c>
       <c r="K66">
-        <f t="shared" si="3"/>
-        <v>1280</v>
+        <f t="shared" si="5"/>
+        <v>640</v>
       </c>
       <c r="L66" s="2">
         <f t="shared" si="8"/>
-        <v>1625</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
@@ -9044,7 +9052,7 @@
         <v>4225000</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2145000</v>
       </c>
       <c r="G67">
@@ -9056,16 +9064,16 @@
         <v>219700</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4225000</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K102" si="12">FLOOR($A$9*C67^$A$12,1)</f>
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="L67" s="2">
         <f t="shared" ref="L67:L98" si="13">E67/K67</f>
-        <v>1650</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
@@ -9094,11 +9102,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="12"/>
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="L68" s="2">
         <f t="shared" si="13"/>
-        <v>1675</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
@@ -9127,11 +9135,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="12"/>
-        <v>1340</v>
+        <v>670</v>
       </c>
       <c r="L69" s="2">
         <f t="shared" si="13"/>
-        <v>1700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
@@ -9160,11 +9168,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="12"/>
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="L70" s="2">
         <f t="shared" si="13"/>
-        <v>1725</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.3">
@@ -9193,11 +9201,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="12"/>
-        <v>1380</v>
+        <v>690</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="13"/>
-        <v>1750</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.3">
@@ -9226,11 +9234,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="12"/>
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L72" s="2">
         <f t="shared" si="13"/>
-        <v>1775</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.3">
@@ -9259,11 +9267,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="12"/>
-        <v>1420</v>
+        <v>710</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="13"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.3">
@@ -9292,11 +9300,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="12"/>
-        <v>1440</v>
+        <v>720</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="13"/>
-        <v>1825</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.3">
@@ -9325,11 +9333,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="12"/>
-        <v>1460</v>
+        <v>730</v>
       </c>
       <c r="L75" s="2">
         <f t="shared" si="13"/>
-        <v>1850</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.3">
@@ -9358,11 +9366,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="12"/>
-        <v>1480</v>
+        <v>740</v>
       </c>
       <c r="L76" s="2">
         <f t="shared" si="13"/>
-        <v>1875</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.3">
@@ -9391,11 +9399,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="12"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="L77" s="2">
         <f t="shared" si="13"/>
-        <v>1900</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.3">
@@ -9424,11 +9432,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>1520</v>
+        <v>760</v>
       </c>
       <c r="L78" s="2">
         <f t="shared" si="13"/>
-        <v>1925</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.3">
@@ -9457,11 +9465,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="12"/>
-        <v>1540</v>
+        <v>770</v>
       </c>
       <c r="L79" s="2">
         <f t="shared" si="13"/>
-        <v>1950</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.3">
@@ -9490,11 +9498,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="12"/>
-        <v>1560</v>
+        <v>780</v>
       </c>
       <c r="L80" s="2">
         <f t="shared" si="13"/>
-        <v>1975</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.3">
@@ -9523,11 +9531,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>1580</v>
+        <v>790</v>
       </c>
       <c r="L81" s="2">
         <f t="shared" si="13"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="82" spans="3:12" x14ac:dyDescent="0.3">
@@ -9556,11 +9564,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="12"/>
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="L82" s="2">
         <f t="shared" si="13"/>
-        <v>2025</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.3">
@@ -9589,11 +9597,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="12"/>
-        <v>1620</v>
+        <v>810</v>
       </c>
       <c r="L83" s="2">
         <f t="shared" si="13"/>
-        <v>2050</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="84" spans="3:12" x14ac:dyDescent="0.3">
@@ -9622,11 +9630,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="12"/>
-        <v>1640</v>
+        <v>820</v>
       </c>
       <c r="L84" s="2">
         <f t="shared" si="13"/>
-        <v>2075</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="85" spans="3:12" x14ac:dyDescent="0.3">
@@ -9655,11 +9663,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="12"/>
-        <v>1660</v>
+        <v>830</v>
       </c>
       <c r="L85" s="2">
         <f t="shared" si="13"/>
-        <v>2100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.3">
@@ -9688,11 +9696,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="12"/>
-        <v>1680</v>
+        <v>840</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="13"/>
-        <v>2125</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="87" spans="3:12" x14ac:dyDescent="0.3">
@@ -9721,11 +9729,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="12"/>
-        <v>1700</v>
+        <v>850</v>
       </c>
       <c r="L87" s="2">
         <f t="shared" si="13"/>
-        <v>2150</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="88" spans="3:12" x14ac:dyDescent="0.3">
@@ -9754,11 +9762,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="12"/>
-        <v>1720</v>
+        <v>860</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="13"/>
-        <v>2175</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.3">
@@ -9787,11 +9795,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="12"/>
-        <v>1740</v>
+        <v>870</v>
       </c>
       <c r="L89" s="2">
         <f t="shared" si="13"/>
-        <v>2200</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="90" spans="3:12" x14ac:dyDescent="0.3">
@@ -9820,11 +9828,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="12"/>
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="L90" s="2">
         <f t="shared" si="13"/>
-        <v>2225</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="91" spans="3:12" x14ac:dyDescent="0.3">
@@ -9853,11 +9861,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="12"/>
-        <v>1780</v>
+        <v>890</v>
       </c>
       <c r="L91" s="2">
         <f t="shared" si="13"/>
-        <v>2250</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="92" spans="3:12" x14ac:dyDescent="0.3">
@@ -9886,11 +9894,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="12"/>
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L92" s="2">
         <f t="shared" si="13"/>
-        <v>2275</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.3">
@@ -9919,11 +9927,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="12"/>
-        <v>1820</v>
+        <v>910</v>
       </c>
       <c r="L93" s="2">
         <f t="shared" si="13"/>
-        <v>2300</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.3">
@@ -9952,11 +9960,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="12"/>
-        <v>1840</v>
+        <v>920</v>
       </c>
       <c r="L94" s="2">
         <f t="shared" si="13"/>
-        <v>2325</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="95" spans="3:12" x14ac:dyDescent="0.3">
@@ -9985,11 +9993,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="12"/>
-        <v>1860</v>
+        <v>930</v>
       </c>
       <c r="L95" s="2">
         <f t="shared" si="13"/>
-        <v>2350</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="96" spans="3:12" x14ac:dyDescent="0.3">
@@ -10018,11 +10026,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="12"/>
-        <v>1880</v>
+        <v>940</v>
       </c>
       <c r="L96" s="2">
         <f t="shared" si="13"/>
-        <v>2375</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
@@ -10051,11 +10059,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="12"/>
-        <v>1900</v>
+        <v>950</v>
       </c>
       <c r="L97" s="2">
         <f t="shared" si="13"/>
-        <v>2400</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.3">
@@ -10084,11 +10092,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="12"/>
-        <v>1920</v>
+        <v>960</v>
       </c>
       <c r="L98" s="2">
         <f t="shared" si="13"/>
-        <v>2425</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.3">
@@ -10117,11 +10125,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="12"/>
-        <v>1940</v>
+        <v>970</v>
       </c>
       <c r="L99" s="2">
         <f>E99/K99</f>
-        <v>2450</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.3">
@@ -10150,11 +10158,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="12"/>
-        <v>1960</v>
+        <v>980</v>
       </c>
       <c r="L100" s="2">
         <f>E100/K100</f>
-        <v>2475</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
@@ -10183,11 +10191,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="12"/>
-        <v>1980</v>
+        <v>990</v>
       </c>
       <c r="L101" s="2">
         <f>E101/K101</f>
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.3">
@@ -10216,11 +10224,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="12"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L102" s="2">
         <f>E102/K102</f>
-        <v>2525</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.3">
@@ -10234,6 +10242,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-4</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-3</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-2</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX104"/>
   <sheetViews>
@@ -25728,7 +25850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -25885,7 +26007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -26432,7 +26554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q127"/>
   <sheetViews>
@@ -30019,7 +30141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O403"/>
   <sheetViews>
@@ -47756,11 +47878,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L11:L12"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="330" windowWidth="19920" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="Professions" sheetId="6" r:id="rId5"/>
     <sheet name="Attributes" sheetId="4" r:id="rId6"/>
     <sheet name="Skills_Bonus" sheetId="5" r:id="rId7"/>
-    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId8"/>
+    <sheet name="Weapon_Attack_Factors" sheetId="9" r:id="rId8"/>
+    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="166">
   <si>
     <t>Level</t>
   </si>
@@ -2494,11 +2495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248896896"/>
-        <c:axId val="248976512"/>
+        <c:axId val="302046592"/>
+        <c:axId val="302388352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="248896896"/>
+        <c:axId val="302046592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248976512"/>
+        <c:crossAx val="302388352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248976512"/>
+        <c:axId val="302388352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,14 +2527,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248896896"/>
+        <c:crossAx val="302046592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3864,11 +3864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="249300864"/>
-        <c:axId val="249302400"/>
+        <c:axId val="302057344"/>
+        <c:axId val="302058880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249300864"/>
+        <c:axId val="302057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249302400"/>
+        <c:crossAx val="302058880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3886,7 +3886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249302400"/>
+        <c:axId val="302058880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249300864"/>
+        <c:crossAx val="302057344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6388,11 +6388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="249348480"/>
-        <c:axId val="249350016"/>
+        <c:axId val="247869824"/>
+        <c:axId val="247871360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249348480"/>
+        <c:axId val="247869824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249350016"/>
+        <c:crossAx val="247871360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6409,7 +6409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249350016"/>
+        <c:axId val="247871360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6420,7 +6420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249348480"/>
+        <c:crossAx val="247869824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6835,22 +6835,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1000</v>
       </c>
@@ -6946,16 +6946,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D3:D66" si="2">FLOOR($A$3*C4^$A$6,1)</f>
+        <f>FLOOR($A$3*C4^$A$6,1)</f>
         <v>4000</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E67" si="3">D4-E3</f>
+        <f t="shared" ref="E4:E67" si="2">D4-E3</f>
         <v>3000</v>
       </c>
       <c r="G4">
@@ -6967,19 +6967,19 @@
         <v>6</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I67" si="4">FLOOR(1000*C4^2,1)</f>
+        <f t="shared" ref="I4:I67" si="3">FLOOR(1000*C4^2,1)</f>
         <v>4000</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K66" si="5">FLOOR($A$9*C4^$A$12,1)</f>
+        <f t="shared" ref="K4:K66" si="4">FLOOR($A$9*C4^$A$12,1)</f>
         <v>20</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L3:L34" si="6">E4/K4</f>
+        <f t="shared" ref="L4:L34" si="5">E4/K4</f>
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6987,11 +6987,11 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D4:D66" si="6">FLOOR($A$3*C5^$A$6,1)</f>
+        <v>9000</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="3"/>
         <v>6000</v>
       </c>
       <c r="G5">
@@ -7003,7 +7003,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="K5">
@@ -7011,11 +7011,11 @@
         <v>30</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -7023,11 +7023,11 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <f t="shared" si="6"/>
+        <v>16000</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>16000</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="G6">
@@ -7039,28 +7039,28 @@
         <v>51</v>
       </c>
       <c r="I6" s="9">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>16000</v>
-      </c>
-      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="6"/>
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <f t="shared" si="6"/>
+        <v>25000</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="3"/>
         <v>15000</v>
       </c>
       <c r="G7">
@@ -7072,7 +7072,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25000</v>
       </c>
       <c r="K7">
@@ -7080,11 +7080,11 @@
         <v>50</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -7092,11 +7092,11 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <f t="shared" si="6"/>
+        <v>36000</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>36000</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="3"/>
         <v>21000</v>
       </c>
       <c r="G8">
@@ -7108,19 +7108,19 @@
         <v>173</v>
       </c>
       <c r="I8" s="9">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>36000</v>
-      </c>
-      <c r="K8">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="6"/>
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>10</v>
       </c>
@@ -7128,11 +7128,11 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <f t="shared" si="6"/>
+        <v>49000</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>49000</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="3"/>
         <v>28000</v>
       </c>
       <c r="G9">
@@ -7144,28 +7144,28 @@
         <v>274</v>
       </c>
       <c r="I9" s="9">
+        <f t="shared" si="3"/>
+        <v>49000</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="4"/>
-        <v>49000</v>
-      </c>
-      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
+        <f t="shared" si="6"/>
+        <v>64000</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>64000</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
       <c r="G10">
@@ -7177,19 +7177,19 @@
         <v>410</v>
       </c>
       <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>64000</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="4"/>
-        <v>64000</v>
-      </c>
-      <c r="K10">
+        <v>80</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="6"/>
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -7197,11 +7197,11 @@
         <v>9</v>
       </c>
       <c r="D11">
+        <f t="shared" si="6"/>
+        <v>81000</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>81000</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="3"/>
         <v>45000</v>
       </c>
       <c r="G11">
@@ -7213,19 +7213,19 @@
         <v>583</v>
       </c>
       <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>81000</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="4"/>
-        <v>81000</v>
-      </c>
-      <c r="K11">
+        <v>90</v>
+      </c>
+      <c r="L11" s="2">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="6"/>
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -7233,11 +7233,11 @@
         <v>10</v>
       </c>
       <c r="D12">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
       <c r="G12">
@@ -7249,28 +7249,28 @@
         <v>800</v>
       </c>
       <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="6"/>
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
+        <f t="shared" si="6"/>
+        <v>121000</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>121000</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
       <c r="G13">
@@ -7282,28 +7282,28 @@
         <v>1065</v>
       </c>
       <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>121000</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="4"/>
-        <v>121000</v>
-      </c>
-      <c r="K13">
+        <v>110</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="6"/>
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
+        <f t="shared" si="6"/>
+        <v>144000</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>144000</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
       <c r="G14">
@@ -7315,28 +7315,28 @@
         <v>1382</v>
       </c>
       <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>144000</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="4"/>
-        <v>144000</v>
-      </c>
-      <c r="K14">
+        <v>120</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="6"/>
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
+        <f t="shared" si="6"/>
+        <v>169000</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>169000</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="3"/>
         <v>91000</v>
       </c>
       <c r="G15">
@@ -7348,7 +7348,7 @@
         <v>1758</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>169000</v>
       </c>
       <c r="K15">
@@ -7356,20 +7356,20 @@
         <v>130</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
+        <f t="shared" si="6"/>
+        <v>196000</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>196000</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
       <c r="G16">
@@ -7381,28 +7381,28 @@
         <v>2195</v>
       </c>
       <c r="I16" s="9">
+        <f t="shared" si="3"/>
+        <v>196000</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="4"/>
-        <v>196000</v>
-      </c>
-      <c r="K16">
+        <v>140</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="5"/>
-        <v>140</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="6"/>
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
+        <f t="shared" si="6"/>
+        <v>225000</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>225000</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="G17">
@@ -7414,28 +7414,28 @@
         <v>2700</v>
       </c>
       <c r="I17" s="9">
+        <f t="shared" si="3"/>
+        <v>225000</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="4"/>
-        <v>225000</v>
-      </c>
-      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="6"/>
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
+        <f t="shared" si="6"/>
+        <v>256000</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>256000</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="3"/>
         <v>136000</v>
       </c>
       <c r="G18">
@@ -7447,28 +7447,28 @@
         <v>3277</v>
       </c>
       <c r="I18" s="9">
+        <f t="shared" si="3"/>
+        <v>256000</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="4"/>
-        <v>256000</v>
-      </c>
-      <c r="K18">
+        <v>160</v>
+      </c>
+      <c r="L18" s="2">
         <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="6"/>
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
+        <f t="shared" si="6"/>
+        <v>289000</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>289000</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
         <v>153000</v>
       </c>
       <c r="G19">
@@ -7480,28 +7480,28 @@
         <v>3930</v>
       </c>
       <c r="I19" s="9">
+        <f t="shared" si="3"/>
+        <v>289000</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="4"/>
-        <v>289000</v>
-      </c>
-      <c r="K19">
+        <v>170</v>
+      </c>
+      <c r="L19" s="2">
         <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="6"/>
         <v>900</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
+        <f t="shared" si="6"/>
+        <v>324000</v>
+      </c>
+      <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>324000</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="3"/>
         <v>171000</v>
       </c>
       <c r="G20">
@@ -7513,28 +7513,28 @@
         <v>4666</v>
       </c>
       <c r="I20" s="9">
+        <f t="shared" si="3"/>
+        <v>324000</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>324000</v>
-      </c>
-      <c r="K20">
+        <v>180</v>
+      </c>
+      <c r="L20" s="2">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="6"/>
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
+        <f t="shared" si="6"/>
+        <v>361000</v>
+      </c>
+      <c r="E21" s="1">
         <f t="shared" si="2"/>
-        <v>361000</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="3"/>
         <v>190000</v>
       </c>
       <c r="G21">
@@ -7546,28 +7546,28 @@
         <v>5487</v>
       </c>
       <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>361000</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>361000</v>
-      </c>
-      <c r="K21">
+        <v>190</v>
+      </c>
+      <c r="L21" s="2">
         <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
+        <f t="shared" si="6"/>
+        <v>400000</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="2"/>
-        <v>400000</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="3"/>
         <v>210000</v>
       </c>
       <c r="G22">
@@ -7579,28 +7579,28 @@
         <v>6400</v>
       </c>
       <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>400000</v>
-      </c>
-      <c r="K22">
+        <v>200</v>
+      </c>
+      <c r="L22" s="2">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="6"/>
         <v>1050</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23">
+        <f t="shared" si="6"/>
+        <v>441000</v>
+      </c>
+      <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>441000</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="3"/>
         <v>231000</v>
       </c>
       <c r="G23">
@@ -7612,28 +7612,28 @@
         <v>7409</v>
       </c>
       <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>441000</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>441000</v>
-      </c>
-      <c r="K23">
+        <v>210</v>
+      </c>
+      <c r="L23" s="2">
         <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24">
+        <f t="shared" si="6"/>
+        <v>484000</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>484000</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="3"/>
         <v>253000</v>
       </c>
       <c r="G24">
@@ -7645,28 +7645,28 @@
         <v>8518</v>
       </c>
       <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>484000</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
-        <v>484000</v>
-      </c>
-      <c r="K24">
+        <v>220</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="6"/>
         <v>1150</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25">
+        <f t="shared" si="6"/>
+        <v>529000</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>529000</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="3"/>
         <v>276000</v>
       </c>
       <c r="G25">
@@ -7678,28 +7678,28 @@
         <v>9734</v>
       </c>
       <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>529000</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>529000</v>
-      </c>
-      <c r="K25">
+        <v>230</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26">
+        <f t="shared" si="6"/>
+        <v>576000</v>
+      </c>
+      <c r="E26" s="1">
         <f t="shared" si="2"/>
-        <v>576000</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
       <c r="G26">
@@ -7711,28 +7711,28 @@
         <v>11059</v>
       </c>
       <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>576000</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>576000</v>
-      </c>
-      <c r="K26">
+        <v>240</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="5"/>
-        <v>240</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="6"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27">
+        <f t="shared" si="6"/>
+        <v>625000</v>
+      </c>
+      <c r="E27" s="1">
         <f t="shared" si="2"/>
-        <v>625000</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="3"/>
         <v>325000</v>
       </c>
       <c r="G27">
@@ -7744,28 +7744,28 @@
         <v>12500</v>
       </c>
       <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>625000</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="4"/>
-        <v>625000</v>
-      </c>
-      <c r="K27">
+        <v>250</v>
+      </c>
+      <c r="L27" s="2">
         <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28">
+        <f t="shared" si="6"/>
+        <v>676000</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>676000</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="3"/>
         <v>351000</v>
       </c>
       <c r="G28">
@@ -7777,28 +7777,28 @@
         <v>14061</v>
       </c>
       <c r="I28" s="9">
+        <f t="shared" si="3"/>
+        <v>676000</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="4"/>
-        <v>676000</v>
-      </c>
-      <c r="K28">
+        <v>260</v>
+      </c>
+      <c r="L28" s="2">
         <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="6"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29">
+        <f t="shared" si="6"/>
+        <v>729000</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="2"/>
-        <v>729000</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="3"/>
         <v>378000</v>
       </c>
       <c r="G29">
@@ -7810,28 +7810,28 @@
         <v>15746</v>
       </c>
       <c r="I29" s="9">
+        <f t="shared" si="3"/>
+        <v>729000</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="4"/>
-        <v>729000</v>
-      </c>
-      <c r="K29">
+        <v>270</v>
+      </c>
+      <c r="L29" s="2">
         <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>28</v>
       </c>
       <c r="D30">
+        <f t="shared" si="6"/>
+        <v>784000</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="2"/>
-        <v>784000</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="3"/>
         <v>406000</v>
       </c>
       <c r="G30">
@@ -7843,28 +7843,28 @@
         <v>17562</v>
       </c>
       <c r="I30" s="9">
+        <f t="shared" si="3"/>
+        <v>784000</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="4"/>
-        <v>784000</v>
-      </c>
-      <c r="K30">
+        <v>280</v>
+      </c>
+      <c r="L30" s="2">
         <f t="shared" si="5"/>
-        <v>280</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="6"/>
         <v>1450</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>29</v>
       </c>
       <c r="D31">
+        <f t="shared" si="6"/>
+        <v>841000</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="2"/>
-        <v>841000</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="3"/>
         <v>435000</v>
       </c>
       <c r="G31">
@@ -7876,28 +7876,28 @@
         <v>19511</v>
       </c>
       <c r="I31" s="9">
+        <f t="shared" si="3"/>
+        <v>841000</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="4"/>
-        <v>841000</v>
-      </c>
-      <c r="K31">
+        <v>290</v>
+      </c>
+      <c r="L31" s="2">
         <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>30</v>
       </c>
       <c r="D32">
+        <f t="shared" si="6"/>
+        <v>900000</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="3"/>
         <v>465000</v>
       </c>
       <c r="G32">
@@ -7909,28 +7909,28 @@
         <v>21600</v>
       </c>
       <c r="I32" s="9">
+        <f t="shared" si="3"/>
+        <v>900000</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="4"/>
-        <v>900000</v>
-      </c>
-      <c r="K32">
+        <v>300</v>
+      </c>
+      <c r="L32" s="2">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="6"/>
         <v>1550</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33">
+        <f t="shared" si="6"/>
+        <v>961000</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="2"/>
-        <v>961000</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="3"/>
         <v>496000</v>
       </c>
       <c r="G33">
@@ -7942,28 +7942,28 @@
         <v>23833</v>
       </c>
       <c r="I33" s="9">
+        <f t="shared" si="3"/>
+        <v>961000</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
-        <v>961000</v>
-      </c>
-      <c r="K33">
+        <v>310</v>
+      </c>
+      <c r="L33" s="2">
         <f t="shared" si="5"/>
-        <v>310</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>32</v>
       </c>
       <c r="D34">
+        <f t="shared" si="6"/>
+        <v>1024000</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="2"/>
-        <v>1024000</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="3"/>
         <v>528000</v>
       </c>
       <c r="G34">
@@ -7975,28 +7975,28 @@
         <v>26214</v>
       </c>
       <c r="I34" s="9">
+        <f t="shared" si="3"/>
+        <v>1024000</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="4"/>
-        <v>1024000</v>
-      </c>
-      <c r="K34">
+        <v>320</v>
+      </c>
+      <c r="L34" s="2">
         <f t="shared" si="5"/>
-        <v>320</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="6"/>
         <v>1650</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>33</v>
       </c>
       <c r="D35">
+        <f t="shared" si="6"/>
+        <v>1089000</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="2"/>
-        <v>1089000</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="3"/>
         <v>561000</v>
       </c>
       <c r="G35">
@@ -8008,11 +8008,11 @@
         <v>28750</v>
       </c>
       <c r="I35" s="9">
+        <f t="shared" si="3"/>
+        <v>1089000</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="4"/>
-        <v>1089000</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="L35" s="2">
@@ -8020,16 +8020,16 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>34</v>
       </c>
       <c r="D36">
+        <f t="shared" si="6"/>
+        <v>1156000</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="2"/>
-        <v>1156000</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="3"/>
         <v>595000</v>
       </c>
       <c r="G36">
@@ -8041,11 +8041,11 @@
         <v>31443</v>
       </c>
       <c r="I36" s="9">
+        <f t="shared" si="3"/>
+        <v>1156000</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="4"/>
-        <v>1156000</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="L36" s="2">
@@ -8053,16 +8053,16 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>35</v>
       </c>
       <c r="D37">
+        <f t="shared" si="6"/>
+        <v>1225000</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="2"/>
-        <v>1225000</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="3"/>
         <v>630000</v>
       </c>
       <c r="G37">
@@ -8074,11 +8074,11 @@
         <v>34300</v>
       </c>
       <c r="I37" s="9">
+        <f t="shared" si="3"/>
+        <v>1225000</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="4"/>
-        <v>1225000</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="L37" s="2">
@@ -8086,16 +8086,16 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38">
+        <f t="shared" si="6"/>
+        <v>1296000</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="2"/>
-        <v>1296000</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="3"/>
         <v>666000</v>
       </c>
       <c r="G38">
@@ -8107,11 +8107,11 @@
         <v>37325</v>
       </c>
       <c r="I38" s="9">
+        <f t="shared" si="3"/>
+        <v>1296000</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="4"/>
-        <v>1296000</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="L38" s="2">
@@ -8119,16 +8119,16 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>37</v>
       </c>
       <c r="D39">
+        <f t="shared" si="6"/>
+        <v>1369000</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="2"/>
-        <v>1369000</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="3"/>
         <v>703000</v>
       </c>
       <c r="G39">
@@ -8140,11 +8140,11 @@
         <v>40522</v>
       </c>
       <c r="I39" s="9">
+        <f t="shared" si="3"/>
+        <v>1369000</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>1369000</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="L39" s="2">
@@ -8152,16 +8152,16 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>38</v>
       </c>
       <c r="D40">
+        <f t="shared" si="6"/>
+        <v>1444000</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="2"/>
-        <v>1444000</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="3"/>
         <v>741000</v>
       </c>
       <c r="G40">
@@ -8173,11 +8173,11 @@
         <v>43898</v>
       </c>
       <c r="I40" s="9">
+        <f t="shared" si="3"/>
+        <v>1444000</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="4"/>
-        <v>1444000</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="L40" s="2">
@@ -8185,16 +8185,16 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>39</v>
       </c>
       <c r="D41">
+        <f t="shared" si="6"/>
+        <v>1521000</v>
+      </c>
+      <c r="E41" s="1">
         <f t="shared" si="2"/>
-        <v>1521000</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="3"/>
         <v>780000</v>
       </c>
       <c r="G41">
@@ -8206,11 +8206,11 @@
         <v>47455</v>
       </c>
       <c r="I41" s="9">
+        <f t="shared" si="3"/>
+        <v>1521000</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="4"/>
-        <v>1521000</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
         <v>390</v>
       </c>
       <c r="L41" s="2">
@@ -8218,16 +8218,16 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42">
+        <f t="shared" si="6"/>
+        <v>1600000</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="2"/>
-        <v>1600000</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="3"/>
         <v>820000</v>
       </c>
       <c r="G42">
@@ -8239,11 +8239,11 @@
         <v>51200</v>
       </c>
       <c r="I42" s="9">
+        <f t="shared" si="3"/>
+        <v>1600000</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="4"/>
-        <v>1600000</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="L42" s="2">
@@ -8251,16 +8251,16 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>41</v>
       </c>
       <c r="D43">
+        <f t="shared" si="6"/>
+        <v>1681000</v>
+      </c>
+      <c r="E43" s="1">
         <f t="shared" si="2"/>
-        <v>1681000</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="3"/>
         <v>861000</v>
       </c>
       <c r="G43">
@@ -8272,11 +8272,11 @@
         <v>55137</v>
       </c>
       <c r="I43" s="9">
+        <f t="shared" si="3"/>
+        <v>1681000</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="4"/>
-        <v>1681000</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
         <v>410</v>
       </c>
       <c r="L43" s="2">
@@ -8284,16 +8284,16 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>42</v>
       </c>
       <c r="D44">
+        <f t="shared" si="6"/>
+        <v>1764000</v>
+      </c>
+      <c r="E44" s="1">
         <f t="shared" si="2"/>
-        <v>1764000</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="3"/>
         <v>903000</v>
       </c>
       <c r="G44">
@@ -8305,11 +8305,11 @@
         <v>59270</v>
       </c>
       <c r="I44" s="9">
+        <f t="shared" si="3"/>
+        <v>1764000</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>1764000</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="L44" s="2">
@@ -8317,16 +8317,16 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>43</v>
       </c>
       <c r="D45">
+        <f t="shared" si="6"/>
+        <v>1849000</v>
+      </c>
+      <c r="E45" s="1">
         <f t="shared" si="2"/>
-        <v>1849000</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="3"/>
         <v>946000</v>
       </c>
       <c r="G45">
@@ -8338,11 +8338,11 @@
         <v>63606</v>
       </c>
       <c r="I45" s="9">
+        <f t="shared" si="3"/>
+        <v>1849000</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="4"/>
-        <v>1849000</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="L45" s="2">
@@ -8350,16 +8350,16 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>44</v>
       </c>
       <c r="D46">
+        <f t="shared" si="6"/>
+        <v>1936000</v>
+      </c>
+      <c r="E46" s="1">
         <f t="shared" si="2"/>
-        <v>1936000</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="3"/>
         <v>990000</v>
       </c>
       <c r="G46">
@@ -8371,11 +8371,11 @@
         <v>68147</v>
       </c>
       <c r="I46" s="9">
+        <f t="shared" si="3"/>
+        <v>1936000</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="4"/>
-        <v>1936000</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="L46" s="2">
@@ -8383,16 +8383,16 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>45</v>
       </c>
       <c r="D47">
+        <f t="shared" si="6"/>
+        <v>2025000</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" si="2"/>
-        <v>2025000</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="3"/>
         <v>1035000</v>
       </c>
       <c r="G47">
@@ -8404,11 +8404,11 @@
         <v>72900</v>
       </c>
       <c r="I47" s="9">
+        <f t="shared" si="3"/>
+        <v>2025000</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="4"/>
-        <v>2025000</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="L47" s="2">
@@ -8416,16 +8416,16 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>46</v>
       </c>
       <c r="D48">
+        <f t="shared" si="6"/>
+        <v>2116000</v>
+      </c>
+      <c r="E48" s="1">
         <f t="shared" si="2"/>
-        <v>2116000</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="3"/>
         <v>1081000</v>
       </c>
       <c r="G48">
@@ -8437,11 +8437,11 @@
         <v>77869</v>
       </c>
       <c r="I48" s="9">
+        <f t="shared" si="3"/>
+        <v>2116000</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="4"/>
-        <v>2116000</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
         <v>460</v>
       </c>
       <c r="L48" s="2">
@@ -8449,16 +8449,16 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>47</v>
       </c>
       <c r="D49">
+        <f t="shared" si="6"/>
+        <v>2209000</v>
+      </c>
+      <c r="E49" s="1">
         <f t="shared" si="2"/>
-        <v>2209000</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="3"/>
         <v>1128000</v>
       </c>
       <c r="G49">
@@ -8470,11 +8470,11 @@
         <v>83058</v>
       </c>
       <c r="I49" s="9">
+        <f t="shared" si="3"/>
+        <v>2209000</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="4"/>
-        <v>2209000</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
         <v>470</v>
       </c>
       <c r="L49" s="2">
@@ -8482,16 +8482,16 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>48</v>
       </c>
       <c r="D50">
+        <f t="shared" si="6"/>
+        <v>2304000</v>
+      </c>
+      <c r="E50" s="1">
         <f t="shared" si="2"/>
-        <v>2304000</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="3"/>
         <v>1176000</v>
       </c>
       <c r="G50">
@@ -8503,11 +8503,11 @@
         <v>88474</v>
       </c>
       <c r="I50" s="9">
+        <f t="shared" si="3"/>
+        <v>2304000</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="4"/>
-        <v>2304000</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="L50" s="2">
@@ -8515,16 +8515,16 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>49</v>
       </c>
       <c r="D51">
+        <f t="shared" si="6"/>
+        <v>2401000</v>
+      </c>
+      <c r="E51" s="1">
         <f t="shared" si="2"/>
-        <v>2401000</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="3"/>
         <v>1225000</v>
       </c>
       <c r="G51">
@@ -8536,11 +8536,11 @@
         <v>94119</v>
       </c>
       <c r="I51" s="9">
+        <f t="shared" si="3"/>
+        <v>2401000</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="4"/>
-        <v>2401000</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="5"/>
         <v>490</v>
       </c>
       <c r="L51" s="2">
@@ -8548,16 +8548,16 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>50</v>
       </c>
       <c r="D52">
+        <f t="shared" si="6"/>
+        <v>2500000</v>
+      </c>
+      <c r="E52" s="1">
         <f t="shared" si="2"/>
-        <v>2500000</v>
-      </c>
-      <c r="E52" s="1">
-        <f t="shared" si="3"/>
         <v>1275000</v>
       </c>
       <c r="G52">
@@ -8569,11 +8569,11 @@
         <v>100000</v>
       </c>
       <c r="I52" s="9">
+        <f t="shared" si="3"/>
+        <v>2500000</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="4"/>
-        <v>2500000</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L52" s="2">
@@ -8581,16 +8581,16 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53">
+        <f t="shared" si="6"/>
+        <v>2601000</v>
+      </c>
+      <c r="E53" s="1">
         <f t="shared" si="2"/>
-        <v>2601000</v>
-      </c>
-      <c r="E53" s="1">
-        <f t="shared" si="3"/>
         <v>1326000</v>
       </c>
       <c r="G53">
@@ -8602,11 +8602,11 @@
         <v>106121</v>
       </c>
       <c r="I53" s="9">
+        <f t="shared" si="3"/>
+        <v>2601000</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="4"/>
-        <v>2601000</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="5"/>
         <v>510</v>
       </c>
       <c r="L53" s="2">
@@ -8614,16 +8614,16 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>52</v>
       </c>
       <c r="D54">
+        <f t="shared" si="6"/>
+        <v>2704000</v>
+      </c>
+      <c r="E54" s="1">
         <f t="shared" si="2"/>
-        <v>2704000</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="3"/>
         <v>1378000</v>
       </c>
       <c r="G54">
@@ -8635,11 +8635,11 @@
         <v>112486</v>
       </c>
       <c r="I54" s="9">
+        <f t="shared" si="3"/>
+        <v>2704000</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="4"/>
-        <v>2704000</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="L54" s="2">
@@ -8647,16 +8647,16 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>53</v>
       </c>
       <c r="D55">
+        <f t="shared" si="6"/>
+        <v>2809000</v>
+      </c>
+      <c r="E55" s="1">
         <f t="shared" si="2"/>
-        <v>2809000</v>
-      </c>
-      <c r="E55" s="1">
-        <f t="shared" si="3"/>
         <v>1431000</v>
       </c>
       <c r="G55">
@@ -8668,11 +8668,11 @@
         <v>119102</v>
       </c>
       <c r="I55" s="9">
+        <f t="shared" si="3"/>
+        <v>2809000</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="4"/>
-        <v>2809000</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="5"/>
         <v>530</v>
       </c>
       <c r="L55" s="2">
@@ -8680,16 +8680,16 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>54</v>
       </c>
       <c r="D56">
+        <f t="shared" si="6"/>
+        <v>2916000</v>
+      </c>
+      <c r="E56" s="1">
         <f t="shared" si="2"/>
-        <v>2916000</v>
-      </c>
-      <c r="E56" s="1">
-        <f t="shared" si="3"/>
         <v>1485000</v>
       </c>
       <c r="G56">
@@ -8701,11 +8701,11 @@
         <v>125971</v>
       </c>
       <c r="I56" s="9">
+        <f t="shared" si="3"/>
+        <v>2916000</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="4"/>
-        <v>2916000</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="5"/>
         <v>540</v>
       </c>
       <c r="L56" s="2">
@@ -8713,16 +8713,16 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>55</v>
       </c>
       <c r="D57">
+        <f t="shared" si="6"/>
+        <v>3025000</v>
+      </c>
+      <c r="E57" s="1">
         <f t="shared" si="2"/>
-        <v>3025000</v>
-      </c>
-      <c r="E57" s="1">
-        <f t="shared" si="3"/>
         <v>1540000</v>
       </c>
       <c r="G57">
@@ -8734,11 +8734,11 @@
         <v>133100</v>
       </c>
       <c r="I57" s="9">
+        <f t="shared" si="3"/>
+        <v>3025000</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="4"/>
-        <v>3025000</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="5"/>
         <v>550</v>
       </c>
       <c r="L57" s="2">
@@ -8746,16 +8746,16 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>56</v>
       </c>
       <c r="D58">
+        <f t="shared" si="6"/>
+        <v>3136000</v>
+      </c>
+      <c r="E58" s="1">
         <f t="shared" si="2"/>
-        <v>3136000</v>
-      </c>
-      <c r="E58" s="1">
-        <f t="shared" si="3"/>
         <v>1596000</v>
       </c>
       <c r="G58">
@@ -8767,11 +8767,11 @@
         <v>140493</v>
       </c>
       <c r="I58" s="9">
+        <f t="shared" si="3"/>
+        <v>3136000</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="4"/>
-        <v>3136000</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="5"/>
         <v>560</v>
       </c>
       <c r="L58" s="2">
@@ -8779,16 +8779,16 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>57</v>
       </c>
       <c r="D59">
+        <f t="shared" si="6"/>
+        <v>3249000</v>
+      </c>
+      <c r="E59" s="1">
         <f t="shared" si="2"/>
-        <v>3249000</v>
-      </c>
-      <c r="E59" s="1">
-        <f t="shared" si="3"/>
         <v>1653000</v>
       </c>
       <c r="G59">
@@ -8800,11 +8800,11 @@
         <v>148154</v>
       </c>
       <c r="I59" s="9">
+        <f t="shared" si="3"/>
+        <v>3249000</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="4"/>
-        <v>3249000</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="5"/>
         <v>570</v>
       </c>
       <c r="L59" s="2">
@@ -8812,16 +8812,16 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>58</v>
       </c>
       <c r="D60">
+        <f t="shared" si="6"/>
+        <v>3364000</v>
+      </c>
+      <c r="E60" s="1">
         <f t="shared" si="2"/>
-        <v>3364000</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="3"/>
         <v>1711000</v>
       </c>
       <c r="G60">
@@ -8833,11 +8833,11 @@
         <v>156090</v>
       </c>
       <c r="I60" s="9">
+        <f t="shared" si="3"/>
+        <v>3364000</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="4"/>
-        <v>3364000</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="5"/>
         <v>580</v>
       </c>
       <c r="L60" s="2">
@@ -8845,16 +8845,16 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>59</v>
       </c>
       <c r="D61">
+        <f t="shared" si="6"/>
+        <v>3481000</v>
+      </c>
+      <c r="E61" s="1">
         <f t="shared" si="2"/>
-        <v>3481000</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="3"/>
         <v>1770000</v>
       </c>
       <c r="G61">
@@ -8866,11 +8866,11 @@
         <v>164303</v>
       </c>
       <c r="I61" s="9">
+        <f t="shared" si="3"/>
+        <v>3481000</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="4"/>
-        <v>3481000</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="5"/>
         <v>590</v>
       </c>
       <c r="L61" s="2">
@@ -8878,16 +8878,16 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>60</v>
       </c>
       <c r="D62">
+        <f t="shared" si="6"/>
+        <v>3600000</v>
+      </c>
+      <c r="E62" s="1">
         <f t="shared" si="2"/>
-        <v>3600000</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="3"/>
         <v>1830000</v>
       </c>
       <c r="G62">
@@ -8899,11 +8899,11 @@
         <v>172800</v>
       </c>
       <c r="I62" s="9">
+        <f t="shared" si="3"/>
+        <v>3600000</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="4"/>
-        <v>3600000</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="L62" s="2">
@@ -8911,16 +8911,16 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>61</v>
       </c>
       <c r="D63">
+        <f t="shared" si="6"/>
+        <v>3721000</v>
+      </c>
+      <c r="E63" s="1">
         <f t="shared" si="2"/>
-        <v>3721000</v>
-      </c>
-      <c r="E63" s="1">
-        <f t="shared" si="3"/>
         <v>1891000</v>
       </c>
       <c r="G63">
@@ -8932,11 +8932,11 @@
         <v>181585</v>
       </c>
       <c r="I63" s="9">
+        <f t="shared" si="3"/>
+        <v>3721000</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="4"/>
-        <v>3721000</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="5"/>
         <v>610</v>
       </c>
       <c r="L63" s="2">
@@ -8944,16 +8944,16 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>62</v>
       </c>
       <c r="D64">
+        <f t="shared" si="6"/>
+        <v>3844000</v>
+      </c>
+      <c r="E64" s="1">
         <f t="shared" si="2"/>
-        <v>3844000</v>
-      </c>
-      <c r="E64" s="1">
-        <f t="shared" si="3"/>
         <v>1953000</v>
       </c>
       <c r="G64">
@@ -8965,11 +8965,11 @@
         <v>190662</v>
       </c>
       <c r="I64" s="9">
+        <f t="shared" si="3"/>
+        <v>3844000</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="4"/>
-        <v>3844000</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="5"/>
         <v>620</v>
       </c>
       <c r="L64" s="2">
@@ -8977,16 +8977,16 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>63</v>
       </c>
       <c r="D65">
+        <f t="shared" si="6"/>
+        <v>3969000</v>
+      </c>
+      <c r="E65" s="1">
         <f t="shared" si="2"/>
-        <v>3969000</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="3"/>
         <v>2016000</v>
       </c>
       <c r="G65">
@@ -8998,11 +8998,11 @@
         <v>200038</v>
       </c>
       <c r="I65" s="9">
+        <f t="shared" si="3"/>
+        <v>3969000</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="4"/>
-        <v>3969000</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="5"/>
         <v>630</v>
       </c>
       <c r="L65" s="2">
@@ -9010,16 +9010,16 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>64</v>
       </c>
       <c r="D66">
+        <f t="shared" si="6"/>
+        <v>4096000</v>
+      </c>
+      <c r="E66" s="1">
         <f t="shared" si="2"/>
-        <v>4096000</v>
-      </c>
-      <c r="E66" s="1">
-        <f t="shared" si="3"/>
         <v>2080000</v>
       </c>
       <c r="G66">
@@ -9031,11 +9031,11 @@
         <v>209715</v>
       </c>
       <c r="I66" s="9">
+        <f t="shared" si="3"/>
+        <v>4096000</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="4"/>
-        <v>4096000</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="5"/>
         <v>640</v>
       </c>
       <c r="L66" s="2">
@@ -9043,7 +9043,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>65</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>4225000</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2145000</v>
       </c>
       <c r="G67">
@@ -9064,7 +9064,7 @@
         <v>219700</v>
       </c>
       <c r="I67" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4225000</v>
       </c>
       <c r="K67">
@@ -9076,7 +9076,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>66</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>67</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>68</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>69</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>70</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>71</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>72</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>73</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>74</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>75</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>76</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>77</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>78</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>79</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>80</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>81</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>82</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>83</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>84</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>85</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>86</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>87</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>88</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>89</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>90</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>91</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>92</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>93</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>94</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>95</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>96</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>97</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>98</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>99</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>100</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>5050</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L104" s="2"/>
     </row>
   </sheetData>
@@ -10246,12 +10246,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -10366,32 +10367,32 @@
       <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -10516,7 +10517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>35</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -10977,7 +10978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C6">
         <f>Experience!C4</f>
         <v>2</v>
@@ -11127,7 +11128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C5</f>
         <v>3</v>
@@ -11277,7 +11278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>Experience!C6</f>
         <v>4</v>
@@ -11427,7 +11428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9">
         <f>Experience!C7</f>
         <v>5</v>
@@ -11577,7 +11578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C8</f>
         <v>6</v>
@@ -11727,7 +11728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>Experience!C9</f>
         <v>7</v>
@@ -11877,7 +11878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C12">
         <f>Experience!C10</f>
         <v>8</v>
@@ -12027,7 +12028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C11</f>
         <v>9</v>
@@ -12177,7 +12178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>Experience!C12</f>
         <v>10</v>
@@ -12327,7 +12328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15">
         <f>Experience!C13</f>
         <v>11</v>
@@ -12477,7 +12478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C14</f>
         <v>12</v>
@@ -12627,7 +12628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C17">
         <f>Experience!C15</f>
         <v>13</v>
@@ -12777,7 +12778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>Experience!C16</f>
         <v>14</v>
@@ -12927,7 +12928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C17</f>
         <v>15</v>
@@ -13077,7 +13078,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>Experience!C18</f>
         <v>16</v>
@@ -13227,7 +13228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>Experience!C19</f>
         <v>17</v>
@@ -13377,7 +13378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C20</f>
         <v>18</v>
@@ -13527,7 +13528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C23">
         <f>Experience!C21</f>
         <v>19</v>
@@ -13677,7 +13678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C24">
         <f>Experience!C22</f>
         <v>20</v>
@@ -13827,7 +13828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C23</f>
         <v>21</v>
@@ -13977,7 +13978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C26">
         <f>Experience!C24</f>
         <v>22</v>
@@ -14127,7 +14128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C27">
         <f>Experience!C25</f>
         <v>23</v>
@@ -14277,7 +14278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>Experience!C26</f>
         <v>24</v>
@@ -14427,7 +14428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>Experience!C27</f>
         <v>25</v>
@@ -14577,7 +14578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>Experience!C28</f>
         <v>26</v>
@@ -14727,7 +14728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C31">
         <f>Experience!C29</f>
         <v>27</v>
@@ -14877,7 +14878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>Experience!C30</f>
         <v>28</v>
@@ -15027,7 +15028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C33">
         <f>Experience!C31</f>
         <v>29</v>
@@ -15177,7 +15178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>Experience!C32</f>
         <v>30</v>
@@ -15327,7 +15328,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C35">
         <f>Experience!C33</f>
         <v>31</v>
@@ -15477,7 +15478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C36">
         <f>Experience!C34</f>
         <v>32</v>
@@ -15627,7 +15628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>Experience!C35</f>
         <v>33</v>
@@ -15777,7 +15778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>Experience!C36</f>
         <v>34</v>
@@ -15927,7 +15928,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>Experience!C37</f>
         <v>35</v>
@@ -16077,7 +16078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>Experience!C38</f>
         <v>36</v>
@@ -16227,7 +16228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>Experience!C39</f>
         <v>37</v>
@@ -16377,7 +16378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>Experience!C40</f>
         <v>38</v>
@@ -16527,7 +16528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:50" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>Experience!C41</f>
         <v>39</v>
@@ -16677,7 +16678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>Experience!C42</f>
         <v>40</v>
@@ -16827,7 +16828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>Experience!C43</f>
         <v>41</v>
@@ -16977,7 +16978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>Experience!C44</f>
         <v>42</v>
@@ -17127,7 +17128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>Experience!C45</f>
         <v>43</v>
@@ -17277,7 +17278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>Experience!C46</f>
         <v>44</v>
@@ -17427,7 +17428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>Experience!C47</f>
         <v>45</v>
@@ -17577,7 +17578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>Experience!C48</f>
         <v>46</v>
@@ -17727,7 +17728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>Experience!C49</f>
         <v>47</v>
@@ -17877,7 +17878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>Experience!C50</f>
         <v>48</v>
@@ -18027,7 +18028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>Experience!C51</f>
         <v>49</v>
@@ -18177,7 +18178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>Experience!C52</f>
         <v>50</v>
@@ -18327,7 +18328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>Experience!C53</f>
         <v>51</v>
@@ -18477,7 +18478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>Experience!C54</f>
         <v>52</v>
@@ -18627,7 +18628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>Experience!C55</f>
         <v>53</v>
@@ -18777,7 +18778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>Experience!C56</f>
         <v>54</v>
@@ -18927,7 +18928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>Experience!C57</f>
         <v>55</v>
@@ -19077,7 +19078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>Experience!C58</f>
         <v>56</v>
@@ -19227,7 +19228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>Experience!C59</f>
         <v>57</v>
@@ -19377,7 +19378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>Experience!C60</f>
         <v>58</v>
@@ -19527,7 +19528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>Experience!C61</f>
         <v>59</v>
@@ -19677,7 +19678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>Experience!C62</f>
         <v>60</v>
@@ -19827,7 +19828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>Experience!C63</f>
         <v>61</v>
@@ -19977,7 +19978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>Experience!C64</f>
         <v>62</v>
@@ -20127,7 +20128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>Experience!C65</f>
         <v>63</v>
@@ -20277,7 +20278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>Experience!C66</f>
         <v>64</v>
@@ -20427,7 +20428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>Experience!C67</f>
         <v>65</v>
@@ -20577,7 +20578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>Experience!C68</f>
         <v>66</v>
@@ -20727,7 +20728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>Experience!C69</f>
         <v>67</v>
@@ -20877,7 +20878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>Experience!C70</f>
         <v>68</v>
@@ -21027,7 +21028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>Experience!C71</f>
         <v>69</v>
@@ -21177,7 +21178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>Experience!C72</f>
         <v>70</v>
@@ -21327,7 +21328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>Experience!C73</f>
         <v>71</v>
@@ -21477,7 +21478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>Experience!C74</f>
         <v>72</v>
@@ -21627,7 +21628,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>Experience!C75</f>
         <v>73</v>
@@ -21777,7 +21778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>Experience!C76</f>
         <v>74</v>
@@ -21927,7 +21928,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>Experience!C77</f>
         <v>75</v>
@@ -22077,7 +22078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>Experience!C78</f>
         <v>76</v>
@@ -22227,7 +22228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>Experience!C79</f>
         <v>77</v>
@@ -22377,7 +22378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>Experience!C80</f>
         <v>78</v>
@@ -22527,7 +22528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>Experience!C81</f>
         <v>79</v>
@@ -22677,7 +22678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>Experience!C82</f>
         <v>80</v>
@@ -22827,7 +22828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>Experience!C83</f>
         <v>81</v>
@@ -22977,7 +22978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>Experience!C84</f>
         <v>82</v>
@@ -23127,7 +23128,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>Experience!C85</f>
         <v>83</v>
@@ -23277,7 +23278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>Experience!C86</f>
         <v>84</v>
@@ -23427,7 +23428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>Experience!C87</f>
         <v>85</v>
@@ -23577,7 +23578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>Experience!C88</f>
         <v>86</v>
@@ -23727,7 +23728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>Experience!C89</f>
         <v>87</v>
@@ -23877,7 +23878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>Experience!C90</f>
         <v>88</v>
@@ -24027,7 +24028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>Experience!C91</f>
         <v>89</v>
@@ -24177,7 +24178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>Experience!C92</f>
         <v>90</v>
@@ -24327,7 +24328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>Experience!C93</f>
         <v>91</v>
@@ -24477,7 +24478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>Experience!C94</f>
         <v>92</v>
@@ -24627,7 +24628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>Experience!C95</f>
         <v>93</v>
@@ -24777,7 +24778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>Experience!C96</f>
         <v>94</v>
@@ -24927,7 +24928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>Experience!C97</f>
         <v>95</v>
@@ -25077,7 +25078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>Experience!C98</f>
         <v>96</v>
@@ -25227,7 +25228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>Experience!C99</f>
         <v>97</v>
@@ -25377,7 +25378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>Experience!C100</f>
         <v>98</v>
@@ -25527,7 +25528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>Experience!C101</f>
         <v>99</v>
@@ -25677,7 +25678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="3:50" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:50" x14ac:dyDescent="0.25">
       <c r="C104">
         <f>Experience!C102</f>
         <v>100</v>
@@ -25858,7 +25859,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26015,10 +26016,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="17" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -26562,22 +26563,22 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -26624,7 +26625,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C4">
         <f>Experience!C3</f>
         <v>1</v>
@@ -26698,7 +26699,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -26735,7 +26736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -26772,7 +26773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>Experience!C6</f>
         <v>4</v>
@@ -26806,7 +26807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -26843,7 +26844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -26880,7 +26881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10">
         <f>Experience!C9</f>
         <v>7</v>
@@ -26914,7 +26915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13">
         <f>Experience!C12</f>
         <v>10</v>
@@ -27022,7 +27023,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -27059,7 +27060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -27096,7 +27097,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16">
         <f>Experience!C15</f>
         <v>13</v>
@@ -27130,7 +27131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -27167,7 +27168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -27204,7 +27205,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C19">
         <f>Experience!C18</f>
         <v>16</v>
@@ -27238,7 +27239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -27275,7 +27276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -27312,7 +27313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>Experience!C21</f>
         <v>19</v>
@@ -27346,7 +27347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -27383,7 +27384,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -27420,7 +27421,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C25">
         <f>Experience!C24</f>
         <v>22</v>
@@ -27454,7 +27455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -27491,7 +27492,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -27528,7 +27529,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28">
         <f>Experience!C27</f>
         <v>25</v>
@@ -27562,7 +27563,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C29">
         <f>Experience!C28</f>
         <v>26</v>
@@ -27596,7 +27597,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>Experience!C29</f>
         <v>27</v>
@@ -27630,7 +27631,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>Experience!C30</f>
         <v>28</v>
@@ -27664,7 +27665,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C32">
         <f>Experience!C31</f>
         <v>29</v>
@@ -27698,7 +27699,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -27735,7 +27736,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -27772,7 +27773,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -27846,7 +27847,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>Experience!C36</f>
         <v>34</v>
@@ -27880,7 +27881,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>Experience!C37</f>
         <v>35</v>
@@ -27914,7 +27915,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C39">
         <f>Experience!C38</f>
         <v>36</v>
@@ -27948,7 +27949,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C40">
         <f>Experience!C39</f>
         <v>37</v>
@@ -27982,7 +27983,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C41">
         <f>Experience!C40</f>
         <v>38</v>
@@ -28016,7 +28017,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42">
         <f>Experience!C41</f>
         <v>39</v>
@@ -28050,7 +28051,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C43">
         <f>Experience!C42</f>
         <v>40</v>
@@ -28084,7 +28085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C44">
         <f>Experience!C43</f>
         <v>41</v>
@@ -28118,7 +28119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45">
         <f>Experience!C44</f>
         <v>42</v>
@@ -28152,7 +28153,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C46">
         <f>Experience!C45</f>
         <v>43</v>
@@ -28186,7 +28187,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C47">
         <f>Experience!C46</f>
         <v>44</v>
@@ -28220,7 +28221,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C48">
         <f>Experience!C47</f>
         <v>45</v>
@@ -28254,7 +28255,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C49">
         <f>Experience!C48</f>
         <v>46</v>
@@ -28288,7 +28289,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C50">
         <f>Experience!C49</f>
         <v>47</v>
@@ -28322,7 +28323,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C51">
         <f>Experience!C50</f>
         <v>48</v>
@@ -28356,7 +28357,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C52">
         <f>Experience!C51</f>
         <v>49</v>
@@ -28390,7 +28391,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C53">
         <f>Experience!C52</f>
         <v>50</v>
@@ -28424,7 +28425,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C54">
         <f>Experience!C53</f>
         <v>51</v>
@@ -28458,7 +28459,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C55">
         <f>Experience!C54</f>
         <v>52</v>
@@ -28492,7 +28493,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>Experience!C55</f>
         <v>53</v>
@@ -28526,7 +28527,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>Experience!C56</f>
         <v>54</v>
@@ -28560,7 +28561,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C58">
         <f>Experience!C57</f>
         <v>55</v>
@@ -28594,7 +28595,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>Experience!C58</f>
         <v>56</v>
@@ -28628,7 +28629,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C60">
         <f>Experience!C59</f>
         <v>57</v>
@@ -28662,7 +28663,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61">
         <f>Experience!C60</f>
         <v>58</v>
@@ -28696,7 +28697,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C62">
         <f>Experience!C61</f>
         <v>59</v>
@@ -28730,7 +28731,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C63">
         <f>Experience!C62</f>
         <v>60</v>
@@ -28764,7 +28765,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C64">
         <f>Experience!C63</f>
         <v>61</v>
@@ -28798,7 +28799,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65">
         <f>Experience!C64</f>
         <v>62</v>
@@ -28832,7 +28833,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66">
         <f>Experience!C65</f>
         <v>63</v>
@@ -28866,7 +28867,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>Experience!C66</f>
         <v>64</v>
@@ -28900,7 +28901,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68">
         <f>Experience!C67</f>
         <v>65</v>
@@ -28934,7 +28935,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69">
         <f>Experience!C68</f>
         <v>66</v>
@@ -28968,7 +28969,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70">
         <f>Experience!C69</f>
         <v>67</v>
@@ -29002,7 +29003,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71">
         <f>Experience!C70</f>
         <v>68</v>
@@ -29036,7 +29037,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72">
         <f>Experience!C71</f>
         <v>69</v>
@@ -29070,7 +29071,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73">
         <f>Experience!C72</f>
         <v>70</v>
@@ -29104,7 +29105,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74">
         <f>Experience!C73</f>
         <v>71</v>
@@ -29138,7 +29139,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75">
         <f>Experience!C74</f>
         <v>72</v>
@@ -29172,7 +29173,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76">
         <f>Experience!C75</f>
         <v>73</v>
@@ -29206,7 +29207,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>Experience!C76</f>
         <v>74</v>
@@ -29240,7 +29241,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C78">
         <f>Experience!C77</f>
         <v>75</v>
@@ -29274,7 +29275,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79">
         <f>Experience!C78</f>
         <v>76</v>
@@ -29308,7 +29309,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80">
         <f>Experience!C79</f>
         <v>77</v>
@@ -29342,7 +29343,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81">
         <f>Experience!C80</f>
         <v>78</v>
@@ -29376,7 +29377,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C82">
         <f>Experience!C81</f>
         <v>79</v>
@@ -29410,7 +29411,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83">
         <f>Experience!C82</f>
         <v>80</v>
@@ -29444,7 +29445,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84">
         <f>Experience!C83</f>
         <v>81</v>
@@ -29478,7 +29479,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85">
         <f>Experience!C84</f>
         <v>82</v>
@@ -29512,7 +29513,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86">
         <f>Experience!C85</f>
         <v>83</v>
@@ -29546,7 +29547,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87">
         <f>Experience!C86</f>
         <v>84</v>
@@ -29580,7 +29581,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C88">
         <f>Experience!C87</f>
         <v>85</v>
@@ -29614,7 +29615,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C89">
         <f>Experience!C88</f>
         <v>86</v>
@@ -29648,7 +29649,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90">
         <f>Experience!C89</f>
         <v>87</v>
@@ -29682,7 +29683,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91">
         <f>Experience!C90</f>
         <v>88</v>
@@ -29716,7 +29717,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C92">
         <f>Experience!C91</f>
         <v>89</v>
@@ -29750,7 +29751,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C93">
         <f>Experience!C92</f>
         <v>90</v>
@@ -29784,7 +29785,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C94">
         <f>Experience!C93</f>
         <v>91</v>
@@ -29818,7 +29819,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C95">
         <f>Experience!C94</f>
         <v>92</v>
@@ -29852,7 +29853,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C96">
         <f>Experience!C95</f>
         <v>93</v>
@@ -29886,7 +29887,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97">
         <f>Experience!C96</f>
         <v>94</v>
@@ -29920,7 +29921,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C98">
         <f>Experience!C97</f>
         <v>95</v>
@@ -29954,7 +29955,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99">
         <f>Experience!C98</f>
         <v>96</v>
@@ -29988,7 +29989,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C100">
         <f>Experience!C99</f>
         <v>97</v>
@@ -30022,7 +30023,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>Experience!C100</f>
         <v>98</v>
@@ -30056,7 +30057,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102">
         <f>Experience!C101</f>
         <v>99</v>
@@ -30090,7 +30091,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103">
         <f>Experience!C102</f>
         <v>100</v>
@@ -30124,7 +30125,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" t="s">
         <v>145</v>
       </c>
@@ -30149,12 +30150,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -30189,7 +30190,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -30224,7 +30225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>500</v>
       </c>
@@ -30264,7 +30265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -30308,7 +30309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -30355,7 +30356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1.2E-2</v>
       </c>
@@ -30402,7 +30403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -30446,7 +30447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -30490,7 +30491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -30534,7 +30535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -30579,7 +30580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -30623,7 +30624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -30667,7 +30668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -30711,7 +30712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -30755,7 +30756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -30799,7 +30800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -30843,7 +30844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -30887,7 +30888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -30931,7 +30932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -30975,7 +30976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -31019,7 +31020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -31063,7 +31064,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -31107,7 +31108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -31151,7 +31152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
@@ -31195,7 +31196,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
@@ -31239,7 +31240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>23</v>
       </c>
@@ -31283,7 +31284,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>24</v>
       </c>
@@ -31327,7 +31328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
@@ -31371,7 +31372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>26</v>
       </c>
@@ -31415,7 +31416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>27</v>
       </c>
@@ -31459,7 +31460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>28</v>
       </c>
@@ -31503,7 +31504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>29</v>
       </c>
@@ -31547,7 +31548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>30</v>
       </c>
@@ -31591,7 +31592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>31</v>
       </c>
@@ -31635,7 +31636,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>32</v>
       </c>
@@ -31679,7 +31680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>33</v>
       </c>
@@ -31723,7 +31724,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>34</v>
       </c>
@@ -31767,7 +31768,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>35</v>
       </c>
@@ -31811,7 +31812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>36</v>
       </c>
@@ -31855,7 +31856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>37</v>
       </c>
@@ -31899,7 +31900,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>38</v>
       </c>
@@ -31943,7 +31944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>39</v>
       </c>
@@ -31987,7 +31988,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>40</v>
       </c>
@@ -32031,7 +32032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>41</v>
       </c>
@@ -32075,7 +32076,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>42</v>
       </c>
@@ -32119,7 +32120,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>43</v>
       </c>
@@ -32163,7 +32164,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>44</v>
       </c>
@@ -32207,7 +32208,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>45</v>
       </c>
@@ -32251,7 +32252,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>46</v>
       </c>
@@ -32295,7 +32296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>47</v>
       </c>
@@ -32339,7 +32340,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>48</v>
       </c>
@@ -32383,7 +32384,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>49</v>
       </c>
@@ -32427,7 +32428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>50</v>
       </c>
@@ -32471,7 +32472,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>51</v>
       </c>
@@ -32515,7 +32516,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>52</v>
       </c>
@@ -32559,7 +32560,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>53</v>
       </c>
@@ -32603,7 +32604,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>54</v>
       </c>
@@ -32647,7 +32648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>55</v>
       </c>
@@ -32691,7 +32692,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>56</v>
       </c>
@@ -32735,7 +32736,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>57</v>
       </c>
@@ -32779,7 +32780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>58</v>
       </c>
@@ -32823,7 +32824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>59</v>
       </c>
@@ -32867,7 +32868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>60</v>
       </c>
@@ -32911,7 +32912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>61</v>
       </c>
@@ -32955,7 +32956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>62</v>
       </c>
@@ -32999,7 +33000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>63</v>
       </c>
@@ -33043,7 +33044,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>64</v>
       </c>
@@ -33087,7 +33088,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>65</v>
       </c>
@@ -33131,7 +33132,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>66</v>
       </c>
@@ -33175,7 +33176,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>67</v>
       </c>
@@ -33219,7 +33220,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>68</v>
       </c>
@@ -33263,7 +33264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>69</v>
       </c>
@@ -33307,7 +33308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>70</v>
       </c>
@@ -33351,7 +33352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>71</v>
       </c>
@@ -33395,7 +33396,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>72</v>
       </c>
@@ -33439,7 +33440,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>73</v>
       </c>
@@ -33483,7 +33484,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>74</v>
       </c>
@@ -33527,7 +33528,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>75</v>
       </c>
@@ -33571,7 +33572,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>76</v>
       </c>
@@ -33615,7 +33616,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>77</v>
       </c>
@@ -33659,7 +33660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>78</v>
       </c>
@@ -33703,7 +33704,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>79</v>
       </c>
@@ -33747,7 +33748,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>80</v>
       </c>
@@ -33791,7 +33792,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>81</v>
       </c>
@@ -33835,7 +33836,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>82</v>
       </c>
@@ -33879,7 +33880,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>83</v>
       </c>
@@ -33923,7 +33924,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>84</v>
       </c>
@@ -33967,7 +33968,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>85</v>
       </c>
@@ -34011,7 +34012,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>86</v>
       </c>
@@ -34055,7 +34056,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>87</v>
       </c>
@@ -34099,7 +34100,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>88</v>
       </c>
@@ -34143,7 +34144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>89</v>
       </c>
@@ -34187,7 +34188,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>90</v>
       </c>
@@ -34231,7 +34232,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>91</v>
       </c>
@@ -34275,7 +34276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>92</v>
       </c>
@@ -34319,7 +34320,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>93</v>
       </c>
@@ -34363,7 +34364,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>94</v>
       </c>
@@ -34407,7 +34408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>95</v>
       </c>
@@ -34451,7 +34452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>96</v>
       </c>
@@ -34495,7 +34496,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>97</v>
       </c>
@@ -34539,7 +34540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>98</v>
       </c>
@@ -34583,7 +34584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>99</v>
       </c>
@@ -34627,7 +34628,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
       </c>
@@ -34671,7 +34672,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>101</v>
       </c>
@@ -34715,7 +34716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>102</v>
       </c>
@@ -34759,7 +34760,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>103</v>
       </c>
@@ -34803,7 +34804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>104</v>
       </c>
@@ -34847,7 +34848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>105</v>
       </c>
@@ -34891,7 +34892,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>106</v>
       </c>
@@ -34935,7 +34936,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>107</v>
       </c>
@@ -34979,7 +34980,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>108</v>
       </c>
@@ -35023,7 +35024,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>109</v>
       </c>
@@ -35067,7 +35068,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>110</v>
       </c>
@@ -35111,7 +35112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>111</v>
       </c>
@@ -35155,7 +35156,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>112</v>
       </c>
@@ -35199,7 +35200,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>113</v>
       </c>
@@ -35243,7 +35244,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>114</v>
       </c>
@@ -35287,7 +35288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>115</v>
       </c>
@@ -35331,7 +35332,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>116</v>
       </c>
@@ -35375,7 +35376,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>117</v>
       </c>
@@ -35419,7 +35420,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>118</v>
       </c>
@@ -35463,7 +35464,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>119</v>
       </c>
@@ -35507,7 +35508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>120</v>
       </c>
@@ -35551,7 +35552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>121</v>
       </c>
@@ -35595,7 +35596,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>122</v>
       </c>
@@ -35639,7 +35640,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>123</v>
       </c>
@@ -35683,7 +35684,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>124</v>
       </c>
@@ -35727,7 +35728,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>125</v>
       </c>
@@ -35771,7 +35772,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>126</v>
       </c>
@@ -35815,7 +35816,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>127</v>
       </c>
@@ -35859,7 +35860,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>128</v>
       </c>
@@ -35903,7 +35904,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>129</v>
       </c>
@@ -35947,7 +35948,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>130</v>
       </c>
@@ -35991,7 +35992,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>131</v>
       </c>
@@ -36035,7 +36036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>132</v>
       </c>
@@ -36079,7 +36080,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>133</v>
       </c>
@@ -36123,7 +36124,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>134</v>
       </c>
@@ -36167,7 +36168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>135</v>
       </c>
@@ -36211,7 +36212,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>136</v>
       </c>
@@ -36255,7 +36256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>137</v>
       </c>
@@ -36299,7 +36300,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>138</v>
       </c>
@@ -36343,7 +36344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>139</v>
       </c>
@@ -36387,7 +36388,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>140</v>
       </c>
@@ -36431,7 +36432,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>141</v>
       </c>
@@ -36475,7 +36476,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>142</v>
       </c>
@@ -36519,7 +36520,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>143</v>
       </c>
@@ -36563,7 +36564,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>144</v>
       </c>
@@ -36607,7 +36608,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>145</v>
       </c>
@@ -36651,7 +36652,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>146</v>
       </c>
@@ -36695,7 +36696,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>147</v>
       </c>
@@ -36739,7 +36740,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>148</v>
       </c>
@@ -36783,7 +36784,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>149</v>
       </c>
@@ -36827,7 +36828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>150</v>
       </c>
@@ -36871,7 +36872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>151</v>
       </c>
@@ -36915,7 +36916,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>152</v>
       </c>
@@ -36959,7 +36960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>153</v>
       </c>
@@ -37003,7 +37004,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>154</v>
       </c>
@@ -37047,7 +37048,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>155</v>
       </c>
@@ -37091,7 +37092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>156</v>
       </c>
@@ -37135,7 +37136,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>157</v>
       </c>
@@ -37179,7 +37180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>158</v>
       </c>
@@ -37223,7 +37224,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>159</v>
       </c>
@@ -37267,7 +37268,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>160</v>
       </c>
@@ -37311,7 +37312,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>161</v>
       </c>
@@ -37355,7 +37356,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>162</v>
       </c>
@@ -37399,7 +37400,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>163</v>
       </c>
@@ -37443,7 +37444,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>164</v>
       </c>
@@ -37487,7 +37488,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>165</v>
       </c>
@@ -37531,7 +37532,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>166</v>
       </c>
@@ -37575,7 +37576,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>167</v>
       </c>
@@ -37619,7 +37620,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>168</v>
       </c>
@@ -37663,7 +37664,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>169</v>
       </c>
@@ -37707,7 +37708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>170</v>
       </c>
@@ -37751,7 +37752,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>171</v>
       </c>
@@ -37795,7 +37796,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>172</v>
       </c>
@@ -37839,7 +37840,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>173</v>
       </c>
@@ -37883,7 +37884,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>174</v>
       </c>
@@ -37927,7 +37928,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>175</v>
       </c>
@@ -37971,7 +37972,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>176</v>
       </c>
@@ -38015,7 +38016,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>177</v>
       </c>
@@ -38059,7 +38060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>178</v>
       </c>
@@ -38103,7 +38104,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>179</v>
       </c>
@@ -38147,7 +38148,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>180</v>
       </c>
@@ -38191,7 +38192,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>181</v>
       </c>
@@ -38235,7 +38236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>182</v>
       </c>
@@ -38279,7 +38280,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>183</v>
       </c>
@@ -38323,7 +38324,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>184</v>
       </c>
@@ -38367,7 +38368,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>185</v>
       </c>
@@ -38411,7 +38412,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>186</v>
       </c>
@@ -38455,7 +38456,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>187</v>
       </c>
@@ -38499,7 +38500,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>188</v>
       </c>
@@ -38543,7 +38544,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>189</v>
       </c>
@@ -38587,7 +38588,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>190</v>
       </c>
@@ -38631,7 +38632,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>191</v>
       </c>
@@ -38675,7 +38676,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>192</v>
       </c>
@@ -38719,7 +38720,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>193</v>
       </c>
@@ -38763,7 +38764,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>194</v>
       </c>
@@ -38807,7 +38808,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>195</v>
       </c>
@@ -38851,7 +38852,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>196</v>
       </c>
@@ -38895,7 +38896,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>197</v>
       </c>
@@ -38939,7 +38940,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>198</v>
       </c>
@@ -38983,7 +38984,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>199</v>
       </c>
@@ -39027,7 +39028,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>200</v>
       </c>
@@ -39071,7 +39072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>201</v>
       </c>
@@ -39115,7 +39116,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>202</v>
       </c>
@@ -39159,7 +39160,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>203</v>
       </c>
@@ -39203,7 +39204,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>204</v>
       </c>
@@ -39247,7 +39248,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>205</v>
       </c>
@@ -39291,7 +39292,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>206</v>
       </c>
@@ -39335,7 +39336,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="210" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>207</v>
       </c>
@@ -39379,7 +39380,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="211" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>208</v>
       </c>
@@ -39423,7 +39424,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>209</v>
       </c>
@@ -39467,7 +39468,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>210</v>
       </c>
@@ -39511,7 +39512,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>211</v>
       </c>
@@ -39555,7 +39556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="215" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>212</v>
       </c>
@@ -39599,7 +39600,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>213</v>
       </c>
@@ -39643,7 +39644,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>214</v>
       </c>
@@ -39687,7 +39688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>215</v>
       </c>
@@ -39731,7 +39732,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>216</v>
       </c>
@@ -39775,7 +39776,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="220" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>217</v>
       </c>
@@ -39819,7 +39820,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="221" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>218</v>
       </c>
@@ -39863,7 +39864,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>219</v>
       </c>
@@ -39907,7 +39908,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="223" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>220</v>
       </c>
@@ -39951,7 +39952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="224" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>221</v>
       </c>
@@ -39995,7 +39996,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>222</v>
       </c>
@@ -40039,7 +40040,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>223</v>
       </c>
@@ -40083,7 +40084,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>224</v>
       </c>
@@ -40127,7 +40128,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>225</v>
       </c>
@@ -40171,7 +40172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>226</v>
       </c>
@@ -40215,7 +40216,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>227</v>
       </c>
@@ -40259,7 +40260,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="231" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>228</v>
       </c>
@@ -40303,7 +40304,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>229</v>
       </c>
@@ -40347,7 +40348,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>230</v>
       </c>
@@ -40391,7 +40392,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>231</v>
       </c>
@@ -40435,7 +40436,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>232</v>
       </c>
@@ -40479,7 +40480,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>233</v>
       </c>
@@ -40523,7 +40524,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>234</v>
       </c>
@@ -40567,7 +40568,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>235</v>
       </c>
@@ -40611,7 +40612,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>236</v>
       </c>
@@ -40655,7 +40656,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>237</v>
       </c>
@@ -40699,7 +40700,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>238</v>
       </c>
@@ -40743,7 +40744,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>239</v>
       </c>
@@ -40787,7 +40788,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>240</v>
       </c>
@@ -40831,7 +40832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>241</v>
       </c>
@@ -40875,7 +40876,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>242</v>
       </c>
@@ -40919,7 +40920,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>243</v>
       </c>
@@ -40963,7 +40964,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>244</v>
       </c>
@@ -41007,7 +41008,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>245</v>
       </c>
@@ -41051,7 +41052,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>246</v>
       </c>
@@ -41095,7 +41096,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>247</v>
       </c>
@@ -41139,7 +41140,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>248</v>
       </c>
@@ -41183,7 +41184,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>249</v>
       </c>
@@ -41227,7 +41228,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>250</v>
       </c>
@@ -41271,7 +41272,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>251</v>
       </c>
@@ -41315,7 +41316,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>252</v>
       </c>
@@ -41359,7 +41360,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>253</v>
       </c>
@@ -41403,7 +41404,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>254</v>
       </c>
@@ -41447,7 +41448,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>255</v>
       </c>
@@ -41491,7 +41492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>256</v>
       </c>
@@ -41535,7 +41536,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="260" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>257</v>
       </c>
@@ -41579,7 +41580,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="261" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>258</v>
       </c>
@@ -41623,7 +41624,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>259</v>
       </c>
@@ -41667,7 +41668,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>260</v>
       </c>
@@ -41711,7 +41712,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>261</v>
       </c>
@@ -41755,7 +41756,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>262</v>
       </c>
@@ -41799,7 +41800,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>263</v>
       </c>
@@ -41843,7 +41844,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B267">
         <v>264</v>
       </c>
@@ -41887,7 +41888,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="268" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B268">
         <v>265</v>
       </c>
@@ -41931,7 +41932,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>266</v>
       </c>
@@ -41975,7 +41976,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="270" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>267</v>
       </c>
@@ -42019,7 +42020,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="271" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B271">
         <v>268</v>
       </c>
@@ -42063,7 +42064,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>269</v>
       </c>
@@ -42107,7 +42108,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="273" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B273">
         <v>270</v>
       </c>
@@ -42151,7 +42152,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="274" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B274">
         <v>271</v>
       </c>
@@ -42195,7 +42196,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="275" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B275">
         <v>272</v>
       </c>
@@ -42239,7 +42240,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="276" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B276">
         <v>273</v>
       </c>
@@ -42283,7 +42284,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="277" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B277">
         <v>274</v>
       </c>
@@ -42327,7 +42328,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="278" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B278">
         <v>275</v>
       </c>
@@ -42371,7 +42372,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="279" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>276</v>
       </c>
@@ -42415,7 +42416,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B280">
         <v>277</v>
       </c>
@@ -42459,7 +42460,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="281" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B281">
         <v>278</v>
       </c>
@@ -42503,7 +42504,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="282" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B282">
         <v>279</v>
       </c>
@@ -42547,7 +42548,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>280</v>
       </c>
@@ -42591,7 +42592,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>281</v>
       </c>
@@ -42635,7 +42636,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="285" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B285">
         <v>282</v>
       </c>
@@ -42679,7 +42680,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="286" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B286">
         <v>283</v>
       </c>
@@ -42723,7 +42724,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B287">
         <v>284</v>
       </c>
@@ -42767,7 +42768,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B288">
         <v>285</v>
       </c>
@@ -42811,7 +42812,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="289" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B289">
         <v>286</v>
       </c>
@@ -42855,7 +42856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="290" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B290">
         <v>287</v>
       </c>
@@ -42899,7 +42900,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="291" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B291">
         <v>288</v>
       </c>
@@ -42943,7 +42944,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="292" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B292">
         <v>289</v>
       </c>
@@ -42987,7 +42988,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="293" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>290</v>
       </c>
@@ -43031,7 +43032,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="294" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>291</v>
       </c>
@@ -43075,7 +43076,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="295" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B295">
         <v>292</v>
       </c>
@@ -43119,7 +43120,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="296" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B296">
         <v>293</v>
       </c>
@@ -43163,7 +43164,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="297" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B297">
         <v>294</v>
       </c>
@@ -43207,7 +43208,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="298" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>295</v>
       </c>
@@ -43251,7 +43252,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="299" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B299">
         <v>296</v>
       </c>
@@ -43295,7 +43296,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="300" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>297</v>
       </c>
@@ -43339,7 +43340,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="301" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B301">
         <v>298</v>
       </c>
@@ -43383,7 +43384,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="302" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B302">
         <v>299</v>
       </c>
@@ -43427,7 +43428,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="303" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B303">
         <v>300</v>
       </c>
@@ -43471,7 +43472,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="304" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B304">
         <v>301</v>
       </c>
@@ -43515,7 +43516,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="305" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B305">
         <v>302</v>
       </c>
@@ -43559,7 +43560,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="306" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B306">
         <v>303</v>
       </c>
@@ -43603,7 +43604,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="307" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>304</v>
       </c>
@@ -43647,7 +43648,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="308" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B308">
         <v>305</v>
       </c>
@@ -43691,7 +43692,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="309" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B309">
         <v>306</v>
       </c>
@@ -43735,7 +43736,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="310" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>307</v>
       </c>
@@ -43779,7 +43780,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="311" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B311">
         <v>308</v>
       </c>
@@ -43823,7 +43824,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="312" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B312">
         <v>309</v>
       </c>
@@ -43867,7 +43868,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="313" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>310</v>
       </c>
@@ -43911,7 +43912,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="314" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B314">
         <v>311</v>
       </c>
@@ -43955,7 +43956,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="315" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>312</v>
       </c>
@@ -43999,7 +44000,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="316" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>313</v>
       </c>
@@ -44043,7 +44044,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="317" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B317">
         <v>314</v>
       </c>
@@ -44087,7 +44088,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="318" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B318">
         <v>315</v>
       </c>
@@ -44131,7 +44132,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="319" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B319">
         <v>316</v>
       </c>
@@ -44175,7 +44176,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="320" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B320">
         <v>317</v>
       </c>
@@ -44219,7 +44220,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="321" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>318</v>
       </c>
@@ -44263,7 +44264,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="322" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B322">
         <v>319</v>
       </c>
@@ -44307,7 +44308,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="323" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B323">
         <v>320</v>
       </c>
@@ -44351,7 +44352,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="324" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B324">
         <v>321</v>
       </c>
@@ -44395,7 +44396,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="325" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B325">
         <v>322</v>
       </c>
@@ -44439,7 +44440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="326" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B326">
         <v>323</v>
       </c>
@@ -44483,7 +44484,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="327" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>324</v>
       </c>
@@ -44527,7 +44528,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="328" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B328">
         <v>325</v>
       </c>
@@ -44571,7 +44572,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="329" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B329">
         <v>326</v>
       </c>
@@ -44615,7 +44616,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="330" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>327</v>
       </c>
@@ -44659,7 +44660,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="331" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B331">
         <v>328</v>
       </c>
@@ -44703,7 +44704,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="332" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B332">
         <v>329</v>
       </c>
@@ -44747,7 +44748,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="333" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>330</v>
       </c>
@@ -44791,7 +44792,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="334" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>331</v>
       </c>
@@ -44835,7 +44836,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="335" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B335">
         <v>332</v>
       </c>
@@ -44879,7 +44880,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="336" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B336">
         <v>333</v>
       </c>
@@ -44923,7 +44924,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="337" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B337">
         <v>334</v>
       </c>
@@ -44967,7 +44968,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="338" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B338">
         <v>335</v>
       </c>
@@ -45011,7 +45012,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="339" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B339">
         <v>336</v>
       </c>
@@ -45055,7 +45056,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="340" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>337</v>
       </c>
@@ -45099,7 +45100,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="341" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B341">
         <v>338</v>
       </c>
@@ -45143,7 +45144,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="342" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B342">
         <v>339</v>
       </c>
@@ -45187,7 +45188,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="343" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B343">
         <v>340</v>
       </c>
@@ -45231,7 +45232,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="344" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B344">
         <v>341</v>
       </c>
@@ -45275,7 +45276,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="345" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B345">
         <v>342</v>
       </c>
@@ -45319,7 +45320,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="346" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B346">
         <v>343</v>
       </c>
@@ -45363,7 +45364,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="347" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>344</v>
       </c>
@@ -45407,7 +45408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="348" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B348">
         <v>345</v>
       </c>
@@ -45451,7 +45452,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="349" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B349">
         <v>346</v>
       </c>
@@ -45495,7 +45496,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="350" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>347</v>
       </c>
@@ -45539,7 +45540,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="351" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B351">
         <v>348</v>
       </c>
@@ -45583,7 +45584,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="352" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B352">
         <v>349</v>
       </c>
@@ -45627,7 +45628,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="353" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B353">
         <v>350</v>
       </c>
@@ -45671,7 +45672,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="354" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B354">
         <v>351</v>
       </c>
@@ -45715,7 +45716,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="355" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B355">
         <v>352</v>
       </c>
@@ -45759,7 +45760,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="356" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B356">
         <v>353</v>
       </c>
@@ -45803,7 +45804,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="357" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B357">
         <v>354</v>
       </c>
@@ -45847,7 +45848,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="358" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>355</v>
       </c>
@@ -45891,7 +45892,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="359" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B359">
         <v>356</v>
       </c>
@@ -45935,7 +45936,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="360" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B360">
         <v>357</v>
       </c>
@@ -45979,7 +45980,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="361" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B361">
         <v>358</v>
       </c>
@@ -46023,7 +46024,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B362">
         <v>359</v>
       </c>
@@ -46067,7 +46068,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="363" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B363">
         <v>360</v>
       </c>
@@ -46111,7 +46112,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="364" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B364">
         <v>361</v>
       </c>
@@ -46155,7 +46156,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="365" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B365">
         <v>362</v>
       </c>
@@ -46199,7 +46200,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="366" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B366">
         <v>363</v>
       </c>
@@ -46243,7 +46244,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="367" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B367">
         <v>364</v>
       </c>
@@ -46287,7 +46288,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="368" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B368">
         <v>365</v>
       </c>
@@ -46331,7 +46332,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="369" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B369">
         <v>366</v>
       </c>
@@ -46375,7 +46376,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="370" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B370">
         <v>367</v>
       </c>
@@ -46419,7 +46420,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="371" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B371">
         <v>368</v>
       </c>
@@ -46463,7 +46464,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="372" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B372">
         <v>369</v>
       </c>
@@ -46507,7 +46508,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="373" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B373">
         <v>370</v>
       </c>
@@ -46551,7 +46552,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="374" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B374">
         <v>371</v>
       </c>
@@ -46595,7 +46596,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="375" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B375">
         <v>372</v>
       </c>
@@ -46639,7 +46640,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="376" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B376">
         <v>373</v>
       </c>
@@ -46683,7 +46684,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="377" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B377">
         <v>374</v>
       </c>
@@ -46727,7 +46728,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="378" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B378">
         <v>375</v>
       </c>
@@ -46771,7 +46772,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="379" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B379">
         <v>376</v>
       </c>
@@ -46815,7 +46816,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="380" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B380">
         <v>377</v>
       </c>
@@ -46859,7 +46860,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="381" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B381">
         <v>378</v>
       </c>
@@ -46903,7 +46904,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="382" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B382">
         <v>379</v>
       </c>
@@ -46947,7 +46948,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="383" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B383">
         <v>380</v>
       </c>
@@ -46991,7 +46992,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="384" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B384">
         <v>381</v>
       </c>
@@ -47035,7 +47036,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="385" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B385">
         <v>382</v>
       </c>
@@ -47079,7 +47080,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="386" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B386">
         <v>383</v>
       </c>
@@ -47123,7 +47124,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="387" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B387">
         <v>384</v>
       </c>
@@ -47167,7 +47168,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="388" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B388">
         <v>385</v>
       </c>
@@ -47211,7 +47212,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="389" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B389">
         <v>386</v>
       </c>
@@ -47255,7 +47256,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="390" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B390">
         <v>387</v>
       </c>
@@ -47299,7 +47300,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="391" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B391">
         <v>388</v>
       </c>
@@ -47343,7 +47344,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="392" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B392">
         <v>389</v>
       </c>
@@ -47387,7 +47388,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="393" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B393">
         <v>390</v>
       </c>
@@ -47431,7 +47432,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="394" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B394">
         <v>391</v>
       </c>
@@ -47475,7 +47476,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="395" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B395">
         <v>392</v>
       </c>
@@ -47519,7 +47520,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="396" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B396">
         <v>393</v>
       </c>
@@ -47563,7 +47564,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="397" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B397">
         <v>394</v>
       </c>
@@ -47607,7 +47608,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="398" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B398">
         <v>395</v>
       </c>
@@ -47651,7 +47652,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="399" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B399">
         <v>396</v>
       </c>
@@ -47695,7 +47696,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="400" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B400">
         <v>397</v>
       </c>
@@ -47739,7 +47740,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="401" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B401">
         <v>398</v>
       </c>
@@ -47783,7 +47784,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="402" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B402">
         <v>399</v>
       </c>
@@ -47827,7 +47828,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="403" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B403">
         <v>400</v>
       </c>
@@ -47883,13 +47884,289 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L11:L12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>-10</v>
+      </c>
+      <c r="G2">
+        <v>-15</v>
+      </c>
+      <c r="H2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>-2</v>
+      </c>
+      <c r="H3">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="Races" sheetId="3" r:id="rId4"/>
     <sheet name="Professions" sheetId="6" r:id="rId5"/>
     <sheet name="Attributes" sheetId="4" r:id="rId6"/>
-    <sheet name="Skills_Bonus" sheetId="5" r:id="rId7"/>
-    <sheet name="Weapon_Attack_Factors" sheetId="9" r:id="rId8"/>
-    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId9"/>
-    <sheet name="Position_Factors" sheetId="10" r:id="rId10"/>
-    <sheet name="Stance_Factors" sheetId="11" r:id="rId11"/>
+    <sheet name="Skills_Costs" sheetId="12" r:id="rId7"/>
+    <sheet name="Skills_Bonus" sheetId="5" r:id="rId8"/>
+    <sheet name="Weapon_Attack_Factors" sheetId="9" r:id="rId9"/>
+    <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId10"/>
+    <sheet name="Position_Factors" sheetId="10" r:id="rId11"/>
+    <sheet name="Stance_Factors" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" iterate="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="189">
   <si>
     <t>Level</t>
   </si>
@@ -561,6 +562,36 @@
   </si>
   <si>
     <t>guarded</t>
+  </si>
+  <si>
+    <t>physical_points</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>mental_points</t>
+  </si>
+  <si>
+    <t>blunt_weapons</t>
+  </si>
+  <si>
+    <t>polearm_weapons</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>dodging</t>
+  </si>
+  <si>
+    <t>physical_fitness</t>
+  </si>
+  <si>
+    <t>perception</t>
   </si>
 </sst>
 </file>
@@ -2536,11 +2567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="259923328"/>
-        <c:axId val="259933312"/>
+        <c:axId val="171820928"/>
+        <c:axId val="171822464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="259923328"/>
+        <c:axId val="171820928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259933312"/>
+        <c:crossAx val="171822464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2557,7 +2588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259933312"/>
+        <c:axId val="171822464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259923328"/>
+        <c:crossAx val="171820928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3905,11 +3936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290273152"/>
-        <c:axId val="290274688"/>
+        <c:axId val="132964736"/>
+        <c:axId val="132966272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290273152"/>
+        <c:axId val="132964736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,7 +3950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290274688"/>
+        <c:crossAx val="132966272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3927,7 +3958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290274688"/>
+        <c:axId val="132966272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +3969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290273152"/>
+        <c:crossAx val="132964736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6429,11 +6460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="313753984"/>
-        <c:axId val="313755520"/>
+        <c:axId val="133040768"/>
+        <c:axId val="133046656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313753984"/>
+        <c:axId val="133040768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6442,7 +6473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313755520"/>
+        <c:crossAx val="133046656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6450,7 +6481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313755520"/>
+        <c:axId val="133046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="313753984"/>
+        <c:crossAx val="133040768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7797,7 +7828,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>26</v>
       </c>
@@ -8259,7 +8290,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>40</v>
       </c>
@@ -8292,7 +8323,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>41</v>
       </c>
@@ -8325,7 +8356,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>42</v>
       </c>
@@ -10283,6 +10314,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+      <c r="D2">
+        <v>0.18</v>
+      </c>
+      <c r="E2">
+        <v>0.08</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.06</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4">
+        <v>0.35</v>
+      </c>
+      <c r="D4">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.125</v>
+      </c>
+      <c r="G4">
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="D5">
+        <v>0.35</v>
+      </c>
+      <c r="E5">
+        <v>0.24</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.15</v>
+      </c>
+      <c r="H5">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <v>0.35</v>
+      </c>
+      <c r="E6">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7">
+        <v>0.45</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+      <c r="G7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.45</v>
+      </c>
+      <c r="E8">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>0.42</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.27</v>
+      </c>
+      <c r="G9">
+        <v>0.24</v>
+      </c>
+      <c r="H9">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="E10">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -10355,12 +10667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10559,7 +10871,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT4" sqref="AT4"/>
+      <selection pane="bottomRight" activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14773,7 +15085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C30">
         <f>Experience!C28</f>
         <v>26</v>
@@ -14923,7 +15235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C31">
         <f>Experience!C29</f>
         <v>27</v>
@@ -16873,7 +17185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>Experience!C42</f>
         <v>40</v>
@@ -17023,7 +17335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C45">
         <f>Experience!C43</f>
         <v>41</v>
@@ -17173,7 +17485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C46">
         <f>Experience!C44</f>
         <v>42</v>
@@ -26755,7 +27067,7 @@
   <dimension ref="A1:Q127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27724,7 +28036,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C28">
         <f>Experience!C27</f>
         <v>25</v>
@@ -28212,7 +28524,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C42">
         <f>Experience!C41</f>
         <v>39</v>
@@ -28246,7 +28558,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C43">
         <f>Experience!C42</f>
         <v>40</v>
@@ -28280,7 +28592,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C44">
         <f>Experience!C43</f>
         <v>41</v>
@@ -30339,10 +30651,127 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31523,7 +31952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>25</v>
       </c>
@@ -32139,7 +32568,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>39</v>
       </c>
@@ -32183,7 +32612,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>40</v>
       </c>
@@ -32227,7 +32656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>41</v>
       </c>
@@ -48074,7 +48503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -48347,285 +48776,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-      <c r="D2">
-        <v>0.18</v>
-      </c>
-      <c r="E2">
-        <v>0.08</v>
-      </c>
-      <c r="F2">
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <v>0.03</v>
-      </c>
-      <c r="H2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0.1</v>
-      </c>
-      <c r="F3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.06</v>
-      </c>
-      <c r="H3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4">
-        <v>0.35</v>
-      </c>
-      <c r="D4">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.125</v>
-      </c>
-      <c r="G4">
-        <v>0.125</v>
-      </c>
-      <c r="H4">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5">
-        <v>0.4</v>
-      </c>
-      <c r="D5">
-        <v>0.35</v>
-      </c>
-      <c r="E5">
-        <v>0.24</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>0.15</v>
-      </c>
-      <c r="H5">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6">
-        <v>0.4</v>
-      </c>
-      <c r="D6">
-        <v>0.35</v>
-      </c>
-      <c r="E6">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-      <c r="H6">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7">
-        <v>0.45</v>
-      </c>
-      <c r="D7">
-        <v>0.4</v>
-      </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
-      <c r="F7">
-        <v>0.25</v>
-      </c>
-      <c r="G7">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>0.45</v>
-      </c>
-      <c r="E8">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="G8">
-        <v>0.25</v>
-      </c>
-      <c r="H8">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>0.42</v>
-      </c>
-      <c r="E9">
-        <v>0.3</v>
-      </c>
-      <c r="F9">
-        <v>0.27</v>
-      </c>
-      <c r="G9">
-        <v>0.24</v>
-      </c>
-      <c r="H9">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.45</v>
-      </c>
-      <c r="E10">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.3</v>
-      </c>
-      <c r="G10">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="H10">
-        <v>0.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="202">
   <si>
     <t>Level</t>
   </si>
@@ -592,6 +592,45 @@
   </si>
   <si>
     <t>perception</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>mace</t>
+  </si>
+  <si>
+    <t>morning_star</t>
+  </si>
+  <si>
+    <t>flail</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>maul</t>
+  </si>
+  <si>
+    <t>cudgel</t>
+  </si>
+  <si>
+    <t>pilum</t>
+  </si>
+  <si>
+    <t>spear</t>
+  </si>
+  <si>
+    <t>halberd</t>
+  </si>
+  <si>
+    <t>trident</t>
+  </si>
+  <si>
+    <t>minimum_round_time</t>
+  </si>
+  <si>
+    <t>base_round_time</t>
   </si>
 </sst>
 </file>
@@ -2567,11 +2606,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171820928"/>
-        <c:axId val="171822464"/>
+        <c:axId val="256787584"/>
+        <c:axId val="256789120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171820928"/>
+        <c:axId val="256787584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171822464"/>
+        <c:crossAx val="256789120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2588,7 +2627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171822464"/>
+        <c:axId val="256789120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2599,7 +2638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171820928"/>
+        <c:crossAx val="256787584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3936,11 +3975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132964736"/>
-        <c:axId val="132966272"/>
+        <c:axId val="288562560"/>
+        <c:axId val="288597120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132964736"/>
+        <c:axId val="288562560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +3989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132966272"/>
+        <c:crossAx val="288597120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3958,7 +3997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132966272"/>
+        <c:axId val="288597120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +4008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132964736"/>
+        <c:crossAx val="288562560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6460,11 +6499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133040768"/>
-        <c:axId val="133046656"/>
+        <c:axId val="288675712"/>
+        <c:axId val="288677248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133040768"/>
+        <c:axId val="288675712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6473,7 +6512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133046656"/>
+        <c:crossAx val="288677248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6481,7 +6520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133046656"/>
+        <c:axId val="288677248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6492,7 +6531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133040768"/>
+        <c:crossAx val="288675712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10318,7 +10357,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30653,8 +30692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30770,7 +30809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O403"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -48505,15 +48544,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>148</v>
       </c>
@@ -48538,8 +48582,14 @@
       <c r="H1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -48564,8 +48614,14 @@
       <c r="H2">
         <v>-20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -48590,8 +48646,14 @@
       <c r="H3">
         <v>-18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -48616,8 +48678,14 @@
       <c r="H4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -48642,8 +48710,14 @@
       <c r="H5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -48668,8 +48742,14 @@
       <c r="H6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -48694,8 +48774,14 @@
       <c r="H7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>157</v>
       </c>
@@ -48720,8 +48806,14 @@
       <c r="H8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -48746,8 +48838,14 @@
       <c r="H9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>160</v>
       </c>
@@ -48771,6 +48869,364 @@
       </c>
       <c r="H10">
         <v>25</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Weapon_Damage_Factors" sheetId="7" r:id="rId10"/>
     <sheet name="Position_Factors" sheetId="10" r:id="rId11"/>
     <sheet name="Stance_Factors" sheetId="11" r:id="rId12"/>
+    <sheet name="Material_Factors" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="206">
   <si>
     <t>Level</t>
   </si>
@@ -631,6 +632,18 @@
   </si>
   <si>
     <t>base_round_time</t>
+  </si>
+  <si>
+    <t>handaxe</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Steel</t>
   </si>
 </sst>
 </file>
@@ -2606,11 +2619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256787584"/>
-        <c:axId val="256789120"/>
+        <c:axId val="247551104"/>
+        <c:axId val="247552640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256787584"/>
+        <c:axId val="247551104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256789120"/>
+        <c:crossAx val="247552640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2627,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256789120"/>
+        <c:axId val="247552640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256787584"/>
+        <c:crossAx val="247551104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3975,11 +3988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288562560"/>
-        <c:axId val="288597120"/>
+        <c:axId val="126360960"/>
+        <c:axId val="247166080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288562560"/>
+        <c:axId val="126360960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3989,7 +4002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288597120"/>
+        <c:crossAx val="247166080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3997,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288597120"/>
+        <c:axId val="247166080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +4021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288562560"/>
+        <c:crossAx val="126360960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6499,11 +6512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288675712"/>
-        <c:axId val="288677248"/>
+        <c:axId val="246265728"/>
+        <c:axId val="246267264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288675712"/>
+        <c:axId val="246265728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,7 +6525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288677248"/>
+        <c:crossAx val="246267264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6520,7 +6533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288677248"/>
+        <c:axId val="246267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,7 +6544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288675712"/>
+        <c:crossAx val="246265728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10787,6 +10800,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
@@ -48547,7 +48590,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48815,7 +48858,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="B9" t="s">
         <v>155</v>

--- a/Resources/Game_Data.xlsx
+++ b/Resources/Game_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="336" windowWidth="19920" windowHeight="8220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
@@ -2619,11 +2619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247551104"/>
-        <c:axId val="247552640"/>
+        <c:axId val="434576384"/>
+        <c:axId val="434590464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247551104"/>
+        <c:axId val="434576384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247552640"/>
+        <c:crossAx val="434590464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247552640"/>
+        <c:axId val="434590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247551104"/>
+        <c:crossAx val="434576384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3028,7 +3028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>38.5</c:v>
@@ -3671,7 +3671,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32</c:v>
@@ -3988,11 +3988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126360960"/>
-        <c:axId val="247166080"/>
+        <c:axId val="380708352"/>
+        <c:axId val="380709888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126360960"/>
+        <c:axId val="380708352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,7 +4002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247166080"/>
+        <c:crossAx val="380709888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4010,7 +4010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247166080"/>
+        <c:axId val="380709888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,7 +4021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126360960"/>
+        <c:crossAx val="380708352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6512,11 +6512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246265728"/>
-        <c:axId val="246267264"/>
+        <c:axId val="381251584"/>
+        <c:axId val="381253120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246265728"/>
+        <c:axId val="381251584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246267264"/>
+        <c:crossAx val="381253120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6533,7 +6533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246267264"/>
+        <c:axId val="381253120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +6544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246265728"/>
+        <c:crossAx val="381251584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10949,11 +10949,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW3" sqref="AW3"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11212,11 +11212,11 @@
         <v>35</v>
       </c>
       <c r="E3">
+        <f>$N$4/8</f>
+        <v>66</v>
+      </c>
+      <c r="F3">
         <f t="shared" ref="E3:L3" si="0">$N$4/8</f>
-        <v>66</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="G3">
@@ -11302,8 +11302,8 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <f>ROUND((E4-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)</f>
-        <v>5</v>
+        <f>ROUND((E4-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!R$2,Races!$C$2:$J$2,0)),0)*0</f>
+        <v>0</v>
       </c>
       <c r="S4">
         <f>ROUND((F4-$E$3)/2+INDEX(Races!$C$3:$J$14,MATCH('Stat Growth'!$A$2,Races!$A$3:$A$14,0),MATCH('Stat Growth'!S$2,Races!$C$2:$J$2,0)),0)</f>
@@ -27224,11 +27224,11 @@
       </c>
       <c r="E3">
         <f>'Stat Growth'!R4</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f>E3+Skills_Bonus!$D$4*Attributes!$A$3+INDEX(Skills_Bonus!D3:D403,MATCH(C3*$A$3,Skills_Bonus!$B$3:$B$403))</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f>'Stat Growth'!U4+'Stat Growth'!V4/4+$A$24*Skills_Bonus!$L$4+Attributes!C3*Attributes!$A$24</f>
@@ -27236,15 +27236,15 @@
       </c>
       <c r="J3">
         <f>'Stat Growth'!R4/4+'Stat Growth'!T4/4+Skills_Bonus!$K$4*Attributes!$A$21+Attributes!$A$21*Attributes!C3</f>
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <f>'Stat Growth'!R4/4+'Stat Growth'!T4/4+Skills_Bonus!$D$4*Attributes!$A$3+Attributes!C3*Attributes!$A$3</f>
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <f>H3+J3+L3</f>
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="P3">
         <f>TRUNC(('Stat Growth'!E4+'Stat Growth'!F4)/10)</f>
@@ -30853,7 +30853,7 @@
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48589,7 +48589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
